--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_388.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_388.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29121-d78761-Reviews-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>53</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Catalina-Island-Hotels-Holiday-Inn-Resort-Catalina-Island.h22704.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_388.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_388.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,830 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r587528302-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>29121</t>
+  </si>
+  <si>
+    <t>78761</t>
+  </si>
+  <si>
+    <t>587528302</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t>A bit far from town but don't drink too much in Avalon!</t>
+  </si>
+  <si>
+    <t>You won't be able to stumble home to your hotel after drinking all night at Luah Larry's so prepare to take the shuttle or a cab to the Holiday Inn.  At least you will have a nice room, great food at the restaurant, and an isolated resort with a pool.  We book here because the other hotels on Catalina Island are not normal hotels.  They require a full deposit, you pay fees if you have to cancel, and they have tiny rooms with NO AIR CONDITIONING!  You also can't get two queen beds and you won't have a pool for the kids to play in.  The chef is awesome, worth the Sunday brunch or dinner at night.  Sometimes you can book for one night, which is a huge bonus.MoreShow less</t>
+  </si>
+  <si>
+    <t>ocasillas, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>You won't be able to stumble home to your hotel after drinking all night at Luah Larry's so prepare to take the shuttle or a cab to the Holiday Inn.  At least you will have a nice room, great food at the restaurant, and an isolated resort with a pool.  We book here because the other hotels on Catalina Island are not normal hotels.  They require a full deposit, you pay fees if you have to cancel, and they have tiny rooms with NO AIR CONDITIONING!  You also can't get two queen beds and you won't have a pool for the kids to play in.  The chef is awesome, worth the Sunday brunch or dinner at night.  Sometimes you can book for one night, which is a huge bonus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r587283767-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>587283767</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>Stayed for 2 nights and there was 4 of us. The room was very nice, clean and comfortable. The four of us never felt overcrowded. Loved that there was a balcony!  Check in was super easy and front desk clerk was friendly. I didn't really like the food at the restaurant in the hotel other than the fries. We tried the chicken wings, and calamari  and neither one was good. Drinks we good though and the the staff was friendly. The pool is big enough. I appreciated the complimentary shuttle which was convenient. Overall great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Stayed for 2 nights and there was 4 of us. The room was very nice, clean and comfortable. The four of us never felt overcrowded. Loved that there was a balcony!  Check in was super easy and front desk clerk was friendly. I didn't really like the food at the restaurant in the hotel other than the fries. We tried the chicken wings, and calamari  and neither one was good. Drinks we good though and the the staff was friendly. The pool is big enough. I appreciated the complimentary shuttle which was convenient. Overall great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r584931991-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>584931991</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>Catalina Casualty</t>
+  </si>
+  <si>
+    <t>While Catalina Island is the epitome of quaint, this hotel is in need of a serious makeover! From the unseemly smells on the rear of the third floor lobby to the horribly stained carpet on each floor, this property screams "Groom Service!" Fortunately, the rooms have spare but decent decor, with beds attired with clean washable linens. Just don't look too closely or you'll realize how worn everything is, from the furniture to the faucets.Surprisingly enough, breakfast at the onsite restaurant made my day. The chorizo and eggs was the best I've had, and the coffee was decent.In such a beautiful island environment, one can only hope for a similar hotel experience. Not at this property! Take their shuttle and find another place to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>ocasillas, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>While Catalina Island is the epitome of quaint, this hotel is in need of a serious makeover! From the unseemly smells on the rear of the third floor lobby to the horribly stained carpet on each floor, this property screams "Groom Service!" Fortunately, the rooms have spare but decent decor, with beds attired with clean washable linens. Just don't look too closely or you'll realize how worn everything is, from the furniture to the faucets.Surprisingly enough, breakfast at the onsite restaurant made my day. The chorizo and eggs was the best I've had, and the coffee was decent.In such a beautiful island environment, one can only hope for a similar hotel experience. Not at this property! Take their shuttle and find another place to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r573765162-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>573765162</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Easter on the island</t>
+  </si>
+  <si>
+    <t>Kind of a last minute trio idea as we wanted to get out of town for Spring Break with only one night to spare. Maybe it was a last minute deal and we were lucky? We booked the Family Room at the Holiday Inn that included 2 bunks beds and a King in a room that sat above the pool, not in the main buildings. It was the most pleasant surprise! Super cute room with new fixtures, microwave and a fridge. We spent the day hiking and ended with a twilight tour of the Casino ( highly recommended as well! ) and had no time to get dinner once the tour was done. Made a quick grocery stop and was able to feed the family in our cozy room. Another great benefit was the free shuttle service. They pick up from the dock as well as a park near downtown. While Avalon is not that big, it was nice to have the service to take us up and down the hill. The hot tub near the pool could have used more water in the evening and the little store in the lobby was not that great. Loved that we could store our luggage all day although it was in an unsecured space. It still seemed safe enough as we had nothing of value. Highly recommended and could have been happy there for another night.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>ocasillas, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Kind of a last minute trio idea as we wanted to get out of town for Spring Break with only one night to spare. Maybe it was a last minute deal and we were lucky? We booked the Family Room at the Holiday Inn that included 2 bunks beds and a King in a room that sat above the pool, not in the main buildings. It was the most pleasant surprise! Super cute room with new fixtures, microwave and a fridge. We spent the day hiking and ended with a twilight tour of the Casino ( highly recommended as well! ) and had no time to get dinner once the tour was done. Made a quick grocery stop and was able to feed the family in our cozy room. Another great benefit was the free shuttle service. They pick up from the dock as well as a park near downtown. While Avalon is not that big, it was nice to have the service to take us up and down the hill. The hot tub near the pool could have used more water in the evening and the little store in the lobby was not that great. Loved that we could store our luggage all day although it was in an unsecured space. It still seemed safe enough as we had nothing of value. Highly recommended and could have been happy there for another night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r569955037-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>569955037</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>Ht &amp; Miss</t>
+  </si>
+  <si>
+    <t>One night stay while on Catalina Island. This Holiday Inn was quite nice in some regards, not so much in others. It was, I believe, not purpose built as a Holiday Inn but taken over by the chain at some point. The room decor and comfort were nice, clean, and well laid out. Our room unfortunately had some issues. A shower door that would not close completely-leading to much water on the floor. A bulb out in one of the wall mount bed reading lights.(a nice touch though) And a view from the balcony of broken golf carts and what appeared to be refrigeration parts strewn about. Additionally, the service agent at the desk was not very helpful on these issues or in passing along any property details such as restaurant hours, pool/spa info or the local area. Finally, the biggest disappointment here was that the hotel shuttle, while nice to have due to uphill location, could not be scheduled for specific times in either direction. To use going into town or returning from town you had to wait for the shuttle to complete his "rounds". Which mean't waiting for an undetermined time at a bus stop area in town before the ride back up at night. Or hoping it was available in time for you to get from the hotel to the ferry dock upon departure from the island. Really seems like a inefficient way to transport your customers....One night stay while on Catalina Island. This Holiday Inn was quite nice in some regards, not so much in others. It was, I believe, not purpose built as a Holiday Inn but taken over by the chain at some point. The room decor and comfort were nice, clean, and well laid out. Our room unfortunately had some issues. A shower door that would not close completely-leading to much water on the floor. A bulb out in one of the wall mount bed reading lights.(a nice touch though) And a view from the balcony of broken golf carts and what appeared to be refrigeration parts strewn about. Additionally, the service agent at the desk was not very helpful on these issues or in passing along any property details such as restaurant hours, pool/spa info or the local area. Finally, the biggest disappointment here was that the hotel shuttle, while nice to have due to uphill location, could not be scheduled for specific times in either direction. To use going into town or returning from town you had to wait for the shuttle to complete his "rounds". Which mean't waiting for an undetermined time at a bus stop area in town before the ride back up at night. Or hoping it was available in time for you to get from the hotel to the ferry dock upon departure from the island. Really seems like a inefficient way to transport your customers. I would recommend for one night if you know this going in.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>ocasillas, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>One night stay while on Catalina Island. This Holiday Inn was quite nice in some regards, not so much in others. It was, I believe, not purpose built as a Holiday Inn but taken over by the chain at some point. The room decor and comfort were nice, clean, and well laid out. Our room unfortunately had some issues. A shower door that would not close completely-leading to much water on the floor. A bulb out in one of the wall mount bed reading lights.(a nice touch though) And a view from the balcony of broken golf carts and what appeared to be refrigeration parts strewn about. Additionally, the service agent at the desk was not very helpful on these issues or in passing along any property details such as restaurant hours, pool/spa info or the local area. Finally, the biggest disappointment here was that the hotel shuttle, while nice to have due to uphill location, could not be scheduled for specific times in either direction. To use going into town or returning from town you had to wait for the shuttle to complete his "rounds". Which mean't waiting for an undetermined time at a bus stop area in town before the ride back up at night. Or hoping it was available in time for you to get from the hotel to the ferry dock upon departure from the island. Really seems like a inefficient way to transport your customers....One night stay while on Catalina Island. This Holiday Inn was quite nice in some regards, not so much in others. It was, I believe, not purpose built as a Holiday Inn but taken over by the chain at some point. The room decor and comfort were nice, clean, and well laid out. Our room unfortunately had some issues. A shower door that would not close completely-leading to much water on the floor. A bulb out in one of the wall mount bed reading lights.(a nice touch though) And a view from the balcony of broken golf carts and what appeared to be refrigeration parts strewn about. Additionally, the service agent at the desk was not very helpful on these issues or in passing along any property details such as restaurant hours, pool/spa info or the local area. Finally, the biggest disappointment here was that the hotel shuttle, while nice to have due to uphill location, could not be scheduled for specific times in either direction. To use going into town or returning from town you had to wait for the shuttle to complete his "rounds". Which mean't waiting for an undetermined time at a bus stop area in town before the ride back up at night. Or hoping it was available in time for you to get from the hotel to the ferry dock upon departure from the island. Really seems like a inefficient way to transport your customers. I would recommend for one night if you know this going in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r568624234-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>568624234</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cozy Villas in Catalina </t>
+  </si>
+  <si>
+    <t>We are IHG members so it was an easy choice for our one night stay in Catalina. We arrived by boat and the free hotel shuttle arrived in the parking lot as promised. The hotel is nestled up on a hill, check in was quick and we loved seeing all the palm trees on the property. There is s Restaurant on sight. Lobby sells snacks. Our room had a balcony, bathroom was spacious and everything was clean and well kept. The service was friendly and informative. Shout out to Tyler for our speedy check in and to Tim, just coming off the night shift for our early check out. Tim could not have been more fun to chat with before the 7am shuttle took off. He’s a local, quite fun &amp; gave us some interesting information about the Island. Thank you Tim!! MoreShow less</t>
+  </si>
+  <si>
+    <t>ocasillas, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded March 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2018</t>
+  </si>
+  <si>
+    <t>We are IHG members so it was an easy choice for our one night stay in Catalina. We arrived by boat and the free hotel shuttle arrived in the parking lot as promised. The hotel is nestled up on a hill, check in was quick and we loved seeing all the palm trees on the property. There is s Restaurant on sight. Lobby sells snacks. Our room had a balcony, bathroom was spacious and everything was clean and well kept. The service was friendly and informative. Shout out to Tyler for our speedy check in and to Tim, just coming off the night shift for our early check out. Tim could not have been more fun to chat with before the 7am shuttle took off. He’s a local, quite fun &amp; gave us some interesting information about the Island. Thank you Tim!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r541651914-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>541651914</t>
+  </si>
+  <si>
+    <t>11/17/2017</t>
+  </si>
+  <si>
+    <t>Away from town</t>
+  </si>
+  <si>
+    <t>This hotel was very nice and had a shuttle service to take you from Avalon to the hotel.  It ran all the time and never had to wait very long.  We had nice size room overlooking the pool area with a balcony.  Pool was extremely busy, so never went to it.  Nice restaurant at the hotel, that served very good food.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn Res... C, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded November 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2017</t>
+  </si>
+  <si>
+    <t>This hotel was very nice and had a shuttle service to take you from Avalon to the hotel.  It ran all the time and never had to wait very long.  We had nice size room overlooking the pool area with a balcony.  Pool was extremely busy, so never went to it.  Nice restaurant at the hotel, that served very good food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r539717331-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>539717331</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Perfect Location!</t>
+  </si>
+  <si>
+    <t>The Holiday Inn was affordable and comfortable to stay whilst exploring Catalina Island over a weekend.  From the pier it is approx. 30 min walk to the resort, a little hike up a hill if you are up for walking. Alternatively if you contact the resort ahead of time they will arrange a pick up from the pier to the resort. The driver was very accommodating. Check in time was late - 4pm/16:00 which we found inconvenient because we arrived prior to 12 noon and had to leave personal belongings in a storage room available for all guests to enter and exit - and the resort takes no responsibility for loss or damage. So we had to carry our passports and electronic devices as there was no security box or locker to store these in whilst we were waiting for our check in. The room was comfortable, and i like how the resort is environmentally friendly and conscious of water use to sustain the islands water supply.  Wifi accessible and reception great!The Holiday Inn restaurant - Seaport Bistro is a fantastic place to enjoy a meal - the chef "Greg" came out to see how we enjoyed our meal, the customer service - excellent. Truly recommend the restaurant even if you choose not to stay at the Holiday Inn. Certain days they offer all you can eat chicken wings $17 USD with fries.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn Res... C, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded November 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2017</t>
+  </si>
+  <si>
+    <t>The Holiday Inn was affordable and comfortable to stay whilst exploring Catalina Island over a weekend.  From the pier it is approx. 30 min walk to the resort, a little hike up a hill if you are up for walking. Alternatively if you contact the resort ahead of time they will arrange a pick up from the pier to the resort. The driver was very accommodating. Check in time was late - 4pm/16:00 which we found inconvenient because we arrived prior to 12 noon and had to leave personal belongings in a storage room available for all guests to enter and exit - and the resort takes no responsibility for loss or damage. So we had to carry our passports and electronic devices as there was no security box or locker to store these in whilst we were waiting for our check in. The room was comfortable, and i like how the resort is environmentally friendly and conscious of water use to sustain the islands water supply.  Wifi accessible and reception great!The Holiday Inn restaurant - Seaport Bistro is a fantastic place to enjoy a meal - the chef "Greg" came out to see how we enjoyed our meal, the customer service - excellent. Truly recommend the restaurant even if you choose not to stay at the Holiday Inn. Certain days they offer all you can eat chicken wings $17 USD with fries.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r535536584-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>535536584</t>
+  </si>
+  <si>
+    <t>10/23/2017</t>
+  </si>
+  <si>
+    <t>Large room and large bathroom</t>
+  </si>
+  <si>
+    <t>Looked clean.  Is located on a hill.  The hotel shuttle picks up from the boat dock and takes you to the hotel.  It also will take you back down the hill and drops you off in town and picks up again from this location to go back to the hotel.  Shuttle can get crowded at times, and sometimes you have to wait for the next one, but it is not usually a long wait.  Saw deer right next to hotel.  Microwave and refrigerator are in room.  No breakfast is included.  There is a restaurant on site.  They store your luggage if you arrive early your day of check in.  They do not store it after you check out which is at 11:00, but if you have a later boat, Blue Line luggage close to the Catalina Island boat dock will pick it up for you from the hotel and store it until your boat leaves for a small fee per bag.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn Res... C, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded October 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2017</t>
+  </si>
+  <si>
+    <t>Looked clean.  Is located on a hill.  The hotel shuttle picks up from the boat dock and takes you to the hotel.  It also will take you back down the hill and drops you off in town and picks up again from this location to go back to the hotel.  Shuttle can get crowded at times, and sometimes you have to wait for the next one, but it is not usually a long wait.  Saw deer right next to hotel.  Microwave and refrigerator are in room.  No breakfast is included.  There is a restaurant on site.  They store your luggage if you arrive early your day of check in.  They do not store it after you check out which is at 11:00, but if you have a later boat, Blue Line luggage close to the Catalina Island boat dock will pick it up for you from the hotel and store it until your boat leaves for a small fee per bag.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r531211330-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>531211330</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>Very Nice Rooms!</t>
+  </si>
+  <si>
+    <t>Since the hotel is away from the beach, it's very quiet. The complementary shuttle to the hotel is definitely a plus!  The rooms are very nice, and it's one of only a few hotels in Catalina that has a pool. Sadly, the restaurant was not open during our stay, so I cannot comment on the food.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn Res... C, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded October 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2017</t>
+  </si>
+  <si>
+    <t>Since the hotel is away from the beach, it's very quiet. The complementary shuttle to the hotel is definitely a plus!  The rooms are very nice, and it's one of only a few hotels in Catalina that has a pool. Sadly, the restaurant was not open during our stay, so I cannot comment on the food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r529257367-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>529257367</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Rude and Unhelpful Management</t>
+  </si>
+  <si>
+    <t>This Holiday Inn could be a nice hotel but the management and staff ruin the entire experience with their lack of hospitality and effort in trying to accommodate guests' requests.  I already knew it was going to be a disaster when I called ahead of time to request certain things and was always immediately put on hold each and every time I called.  I'm talking 10 min holds, not seconds.  And then untrained staff putting me on hold again to ask Ophelia the manager for anything only to be told after a long hold they can't accommodate any of my requests.  Ophelia is equally as unhelpful in person. I booked a "double room" online thinking it was double beds but instead it's one queen bed.  Why not call it a "queen bed" to not mislead guests?They couldn't even bring me a roll away cot citing fire codes.  None of their rooms are big enough for a cot to legally fit in them?  The room itself was renovated not too long ago but already showing lots of wear and tear.  The tiled shower has black mold growing in some spots as prior reviews mention.  The balcony floor for some reason is flooded with water even though it didn't rain.  The front desk is a mess.  Every time I had to pass by it, there's guests waiting in line getting more impatient as the staff keep getting interrupted to answer the phones...This Holiday Inn could be a nice hotel but the management and staff ruin the entire experience with their lack of hospitality and effort in trying to accommodate guests' requests.  I already knew it was going to be a disaster when I called ahead of time to request certain things and was always immediately put on hold each and every time I called.  I'm talking 10 min holds, not seconds.  And then untrained staff putting me on hold again to ask Ophelia the manager for anything only to be told after a long hold they can't accommodate any of my requests.  Ophelia is equally as unhelpful in person. I booked a "double room" online thinking it was double beds but instead it's one queen bed.  Why not call it a "queen bed" to not mislead guests?They couldn't even bring me a roll away cot citing fire codes.  None of their rooms are big enough for a cot to legally fit in them?  The room itself was renovated not too long ago but already showing lots of wear and tear.  The tiled shower has black mold growing in some spots as prior reviews mention.  The balcony floor for some reason is flooded with water even though it didn't rain.  The front desk is a mess.  Every time I had to pass by it, there's guests waiting in line getting more impatient as the staff keep getting interrupted to answer the phones (and place them on hold) or stare at their screens.  People waiting to get a pool towel, waiting to check in/out, waiting to purchase a convenience item, waiting to make any simple request.  The staff here are just plain rude and could care less if their guests are receiving good service.  Not once did I see any front desk staff smiling and acting courteously to the guests.  It truly has no signs of being managed properly like a typical Holiday Inn.  The breakfast was good but trying to sit outside with all the wasps was terrible. They had hanging traps in full view that were overfilled with dead wasps and more swarming around attracted by them. Use some common sense and hang the traps away from the dining tables!  This hotel has so many bad reviews and the same canned responses it's a joke.  Buyer beware!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn Res... C, Guest Relations Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2017</t>
+  </si>
+  <si>
+    <t>This Holiday Inn could be a nice hotel but the management and staff ruin the entire experience with their lack of hospitality and effort in trying to accommodate guests' requests.  I already knew it was going to be a disaster when I called ahead of time to request certain things and was always immediately put on hold each and every time I called.  I'm talking 10 min holds, not seconds.  And then untrained staff putting me on hold again to ask Ophelia the manager for anything only to be told after a long hold they can't accommodate any of my requests.  Ophelia is equally as unhelpful in person. I booked a "double room" online thinking it was double beds but instead it's one queen bed.  Why not call it a "queen bed" to not mislead guests?They couldn't even bring me a roll away cot citing fire codes.  None of their rooms are big enough for a cot to legally fit in them?  The room itself was renovated not too long ago but already showing lots of wear and tear.  The tiled shower has black mold growing in some spots as prior reviews mention.  The balcony floor for some reason is flooded with water even though it didn't rain.  The front desk is a mess.  Every time I had to pass by it, there's guests waiting in line getting more impatient as the staff keep getting interrupted to answer the phones...This Holiday Inn could be a nice hotel but the management and staff ruin the entire experience with their lack of hospitality and effort in trying to accommodate guests' requests.  I already knew it was going to be a disaster when I called ahead of time to request certain things and was always immediately put on hold each and every time I called.  I'm talking 10 min holds, not seconds.  And then untrained staff putting me on hold again to ask Ophelia the manager for anything only to be told after a long hold they can't accommodate any of my requests.  Ophelia is equally as unhelpful in person. I booked a "double room" online thinking it was double beds but instead it's one queen bed.  Why not call it a "queen bed" to not mislead guests?They couldn't even bring me a roll away cot citing fire codes.  None of their rooms are big enough for a cot to legally fit in them?  The room itself was renovated not too long ago but already showing lots of wear and tear.  The tiled shower has black mold growing in some spots as prior reviews mention.  The balcony floor for some reason is flooded with water even though it didn't rain.  The front desk is a mess.  Every time I had to pass by it, there's guests waiting in line getting more impatient as the staff keep getting interrupted to answer the phones (and place them on hold) or stare at their screens.  People waiting to get a pool towel, waiting to check in/out, waiting to purchase a convenience item, waiting to make any simple request.  The staff here are just plain rude and could care less if their guests are receiving good service.  Not once did I see any front desk staff smiling and acting courteously to the guests.  It truly has no signs of being managed properly like a typical Holiday Inn.  The breakfast was good but trying to sit outside with all the wasps was terrible. They had hanging traps in full view that were overfilled with dead wasps and more swarming around attracted by them. Use some common sense and hang the traps away from the dining tables!  This hotel has so many bad reviews and the same canned responses it's a joke.  Buyer beware!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r528574513-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>528574513</t>
+  </si>
+  <si>
+    <t>09/30/2017</t>
+  </si>
+  <si>
+    <t>Very nice place to stay!</t>
+  </si>
+  <si>
+    <t>We were here for a wedding and stayed two nights.  The Holiday Inn grounds are very nice.  We sat outside the room, on a nice size walk-way patio surrounded by trees.  The room is nice size.  The hotel is up on the hill, but they provide a shuttle to and from the dock and the town.  Very prompt service by the shuttle drivers.  There was no complimentary breakfast, but they provided coffee in the rooms.  A few minor problems (toilet paper holder coming away from the wall and the bathroom sink did not drain.  Even after mentioning these things, they were not taken care of by the end of the day.  Prompt attention would have been nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn Res... C, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded October 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2017</t>
+  </si>
+  <si>
+    <t>We were here for a wedding and stayed two nights.  The Holiday Inn grounds are very nice.  We sat outside the room, on a nice size walk-way patio surrounded by trees.  The room is nice size.  The hotel is up on the hill, but they provide a shuttle to and from the dock and the town.  Very prompt service by the shuttle drivers.  There was no complimentary breakfast, but they provided coffee in the rooms.  A few minor problems (toilet paper holder coming away from the wall and the bathroom sink did not drain.  Even after mentioning these things, they were not taken care of by the end of the day.  Prompt attention would have been nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r522455853-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>522455853</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>Worst ever!!</t>
+  </si>
+  <si>
+    <t>Mostly rude staff, moldy smelling dirty rooms.  Bedding was DISGUSTING had to have someone come and change it.  Frames for the bed are to large for the mattresses which results in a catch all for dirt and hair.  Fabric around said frame is stained and dirty.  Mildew on tiles in shower.  Lock on the door to courtyard is a  old chain lock, that's it.  Just over all run down and out dated.  WORST experience EVER at a Holiday Inn!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn Res... C, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded September 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2017</t>
+  </si>
+  <si>
+    <t>Mostly rude staff, moldy smelling dirty rooms.  Bedding was DISGUSTING had to have someone come and change it.  Frames for the bed are to large for the mattresses which results in a catch all for dirt and hair.  Fabric around said frame is stained and dirty.  Mildew on tiles in shower.  Lock on the door to courtyard is a  old chain lock, that's it.  Just over all run down and out dated.  WORST experience EVER at a Holiday Inn!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r522312225-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>522312225</t>
+  </si>
+  <si>
+    <t>nice hotel for the quick getaway</t>
+  </si>
+  <si>
+    <t>The hotel has good clean rooms with no major frills in the amenities area.  Only issue some people may have is that it is quite a hike from the bayfront area.  Some of the hike is uphill.  They do have a shuttle van but you have to plan around the times of the shuttle and it is difficult to be spontaneous.  A golf cart would help but would require overnight or daily rental.The views are limited as it is very far away from the bay but you can get a peak of the ocean on a high floor facing the right direction.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel has good clean rooms with no major frills in the amenities area.  Only issue some people may have is that it is quite a hike from the bayfront area.  Some of the hike is uphill.  They do have a shuttle van but you have to plan around the times of the shuttle and it is difficult to be spontaneous.  A golf cart would help but would require overnight or daily rental.The views are limited as it is very far away from the bay but you can get a peak of the ocean on a high floor facing the right direction.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r520900912-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>520900912</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>Nice accommodations for Avalon</t>
+  </si>
+  <si>
+    <t>The Holiday Inn on Catalina Island provided wonderful accommodations for a birthday getaway. The room was well kept, soap/shampoo/lotion provided, in-room coffee maker/ refrigerator, and comfortable beds. Our room deck overlooked the pool area and canyon.The shuttle was at the dock upon arrival of our boat (Catalina Flyer from Newport) and Juan loaded our suitcases into the van. The shuttle is well labeled and easy to find. It runs back and forth throughout the day from the dock- center of Avalon- hotel. We never had to wait more than 10-15 minutes.We also dined at the on site Seaport Bistro during our stay. The food was delicious and our server was attentive and personable. It was nice to sit on the patio and enjoy the summer evening air - and extremely convenient after we had a long day in Avalon.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn Res... C, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2017</t>
+  </si>
+  <si>
+    <t>The Holiday Inn on Catalina Island provided wonderful accommodations for a birthday getaway. The room was well kept, soap/shampoo/lotion provided, in-room coffee maker/ refrigerator, and comfortable beds. Our room deck overlooked the pool area and canyon.The shuttle was at the dock upon arrival of our boat (Catalina Flyer from Newport) and Juan loaded our suitcases into the van. The shuttle is well labeled and easy to find. It runs back and forth throughout the day from the dock- center of Avalon- hotel. We never had to wait more than 10-15 minutes.We also dined at the on site Seaport Bistro during our stay. The food was delicious and our server was attentive and personable. It was nice to sit on the patio and enjoy the summer evening air - and extremely convenient after we had a long day in Avalon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r515730477-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>515730477</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has potential, needs improvement </t>
+  </si>
+  <si>
+    <t>Overall decent hotel.  It is an uphill wall from town, but not bad.  The shuttle service is great and he drivers are all very friendly.  The hotel has a nice outdoor patio with lights and plenty of chairs and tables.  The rooms need improvement, the shower drain has an issue and there was a pool of water during every shower.  The prices for a room are a little steep and for that price and it being a holiday inn the rooms should be serviced daily.  Doing my 4 day stay my room was not serviced one day, I called it in before going out for dinner and was told it would be made.  Got back from dinner late and the room was not made.  I called it in to at the least request clean towels, I had to call twice and was told they only had one person working that could assist me hence the wait.  All I wanted were clean towels so I could shower and call it a night. Next trip I will probably try a different hotel that has comparable pricing but better reviews. MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn Res... C, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded August 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2017</t>
+  </si>
+  <si>
+    <t>Overall decent hotel.  It is an uphill wall from town, but not bad.  The shuttle service is great and he drivers are all very friendly.  The hotel has a nice outdoor patio with lights and plenty of chairs and tables.  The rooms need improvement, the shower drain has an issue and there was a pool of water during every shower.  The prices for a room are a little steep and for that price and it being a holiday inn the rooms should be serviced daily.  Doing my 4 day stay my room was not serviced one day, I called it in before going out for dinner and was told it would be made.  Got back from dinner late and the room was not made.  I called it in to at the least request clean towels, I had to call twice and was told they only had one person working that could assist me hence the wait.  All I wanted were clean towels so I could shower and call it a night. Next trip I will probably try a different hotel that has comparable pricing but better reviews. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r514207474-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>514207474</t>
+  </si>
+  <si>
+    <t>08/17/2017</t>
+  </si>
+  <si>
+    <t>Great Family Hotel</t>
+  </si>
+  <si>
+    <t>Sitting at the top of a hill, this hotel offers great rooms for families and couples, too! They have their own small restaurant so if you want to eat there, you can. Limited hours on their restaurant but very convenient if you are up early.
+Very nice of them to offer a free shuttle down to the main shopping area otherwise the walk UP to the hotel might be a bit hard on some people. It can be done but it is steep and if you have any arthritis or other mobility issues it would be a problem. 
+The rates are reasonable for Catalina island and can be booked well in advance. Try to avoid special holidays and/or special event weekends otherwise the island as a whole is very crowded and it can be hard to get around. It is much more pleasant mid-week or on non-holiday weekends. 
+In general, mid-week is always more pleasant because it seems less crowded but sometimes it is crowded all week. This is a very popular destination and with Catalina Express offering free passage on their ships on your birthday (buy one get one free) this has increased traffic to Catalina.
+People have wrote similar reviews saying the walls of the hotel are "paper thin" but I have never stayed at hotels where you couldn't hear the next door neighbors IF they were being overly loud. We had a great stay here and could...Sitting at the top of a hill, this hotel offers great rooms for families and couples, too! They have their own small restaurant so if you want to eat there, you can. Limited hours on their restaurant but very convenient if you are up early.Very nice of them to offer a free shuttle down to the main shopping area otherwise the walk UP to the hotel might be a bit hard on some people. It can be done but it is steep and if you have any arthritis or other mobility issues it would be a problem. The rates are reasonable for Catalina island and can be booked well in advance. Try to avoid special holidays and/or special event weekends otherwise the island as a whole is very crowded and it can be hard to get around. It is much more pleasant mid-week or on non-holiday weekends. In general, mid-week is always more pleasant because it seems less crowded but sometimes it is crowded all week. This is a very popular destination and with Catalina Express offering free passage on their ships on your birthday (buy one get one free) this has increased traffic to Catalina.People have wrote similar reviews saying the walls of the hotel are "paper thin" but I have never stayed at hotels where you couldn't hear the next door neighbors IF they were being overly loud. We had a great stay here and could NOT hear our neighbors but maybe it was because they were considerate? Something to consider. Try this place you won't be disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn Res... C, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded August 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2017</t>
+  </si>
+  <si>
+    <t>Sitting at the top of a hill, this hotel offers great rooms for families and couples, too! They have their own small restaurant so if you want to eat there, you can. Limited hours on their restaurant but very convenient if you are up early.
+Very nice of them to offer a free shuttle down to the main shopping area otherwise the walk UP to the hotel might be a bit hard on some people. It can be done but it is steep and if you have any arthritis or other mobility issues it would be a problem. 
+The rates are reasonable for Catalina island and can be booked well in advance. Try to avoid special holidays and/or special event weekends otherwise the island as a whole is very crowded and it can be hard to get around. It is much more pleasant mid-week or on non-holiday weekends. 
+In general, mid-week is always more pleasant because it seems less crowded but sometimes it is crowded all week. This is a very popular destination and with Catalina Express offering free passage on their ships on your birthday (buy one get one free) this has increased traffic to Catalina.
+People have wrote similar reviews saying the walls of the hotel are "paper thin" but I have never stayed at hotels where you couldn't hear the next door neighbors IF they were being overly loud. We had a great stay here and could...Sitting at the top of a hill, this hotel offers great rooms for families and couples, too! They have their own small restaurant so if you want to eat there, you can. Limited hours on their restaurant but very convenient if you are up early.Very nice of them to offer a free shuttle down to the main shopping area otherwise the walk UP to the hotel might be a bit hard on some people. It can be done but it is steep and if you have any arthritis or other mobility issues it would be a problem. The rates are reasonable for Catalina island and can be booked well in advance. Try to avoid special holidays and/or special event weekends otherwise the island as a whole is very crowded and it can be hard to get around. It is much more pleasant mid-week or on non-holiday weekends. In general, mid-week is always more pleasant because it seems less crowded but sometimes it is crowded all week. This is a very popular destination and with Catalina Express offering free passage on their ships on your birthday (buy one get one free) this has increased traffic to Catalina.People have wrote similar reviews saying the walls of the hotel are "paper thin" but I have never stayed at hotels where you couldn't hear the next door neighbors IF they were being overly loud. We had a great stay here and could NOT hear our neighbors but maybe it was because they were considerate? Something to consider. Try this place you won't be disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r503681323-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>503681323</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>A nice stay</t>
+  </si>
+  <si>
+    <t>We decided to spend a couple of days on Catalina Island and had our little dog with us so our choice of places to stay was limited. It was a good decision to stay at the Holiday Inn. Yes, the walls are thin but this isn't what I will remember about our stay. It is a clean and friendly place to stay. The hotel isn't right in town but it's easy to walk into town. We went to Catalina to spend time outdoors and the walk was a good way to check out the area. There is, however, also a frequent shuttle that takes you back and forth. The driver was friendly and gave us some pointers. The front desk staff was helpful and efficient. Our room was the perfect size (large enough for a king-size bed and two visitor chairs in the corners. The bathroom was modern (shower only). As so often, the shower door didn't close properly so it was impossible not to create a little puddle. The balcony was perfect for relaxing at the end of the day. We had a late breakfast at the hotel restaurant. The service was good. The food was ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn Res... C, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>We decided to spend a couple of days on Catalina Island and had our little dog with us so our choice of places to stay was limited. It was a good decision to stay at the Holiday Inn. Yes, the walls are thin but this isn't what I will remember about our stay. It is a clean and friendly place to stay. The hotel isn't right in town but it's easy to walk into town. We went to Catalina to spend time outdoors and the walk was a good way to check out the area. There is, however, also a frequent shuttle that takes you back and forth. The driver was friendly and gave us some pointers. The front desk staff was helpful and efficient. Our room was the perfect size (large enough for a king-size bed and two visitor chairs in the corners. The bathroom was modern (shower only). As so often, the shower door didn't close properly so it was impossible not to create a little puddle. The balcony was perfect for relaxing at the end of the day. We had a late breakfast at the hotel restaurant. The service was good. The food was ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r500418223-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>500418223</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>A Nice stay</t>
+  </si>
+  <si>
+    <t>The newly remodeled Holiday Inn Resort Catalina Island, provided a very nice stay for two nights.  The rooms are nicely done and ours came with a microwave and refrigerator.  We had a balcony with two chairs overlooking the pool area and a small view of the ocean.  Beds were very comfortable and the bathroom was well appointed with a nice big walk in shower.  No tub however.  The hotel was quiet-its located .4 miles from the waterfront and is an easy walk.  There is also a shuttle that runs frequently and we used that once.  There is a restaurant at the hotel, but we only ordered coffee to go, so I can't comment on the food.  There is also a small area to buy snacks near the check in area.  The only negative about our room is that the air conditioning unit was just inches from one of the beds and blows cold air on whoever is sleeping in that bed.  But after strategically placing some pillows to block the air, we managed to have a cool room and everyone was comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn Res... C, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>The newly remodeled Holiday Inn Resort Catalina Island, provided a very nice stay for two nights.  The rooms are nicely done and ours came with a microwave and refrigerator.  We had a balcony with two chairs overlooking the pool area and a small view of the ocean.  Beds were very comfortable and the bathroom was well appointed with a nice big walk in shower.  No tub however.  The hotel was quiet-its located .4 miles from the waterfront and is an easy walk.  There is also a shuttle that runs frequently and we used that once.  There is a restaurant at the hotel, but we only ordered coffee to go, so I can't comment on the food.  There is also a small area to buy snacks near the check in area.  The only negative about our room is that the air conditioning unit was just inches from one of the beds and blows cold air on whoever is sleeping in that bed.  But after strategically placing some pillows to block the air, we managed to have a cool room and everyone was comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r496695956-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>496695956</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>It's ALIVE I say...ALIVE! Fear that which can see😷</t>
+  </si>
+  <si>
+    <t>Supposedly, this is a high end hotel here on the island. Well, if you like mold, it will be nearby during your stay at this place. The shower floor was disgusting. You'd think custodial had never heard of mildew remover or a new discovery called bleach.How do you charge $220 a night and allow this to happen? The carpet was also grungy so my family had to wear slippers to avoid feeling the gross sensation caused by walking in the room. The closet door had some sticky substance on it when I went to put clothing in the closet. I had to use medical tape to cover the stuff that wouldn't wipe off. Are you feeling the creeps yet?
+If you're expecting a good night's sleep, FOGETTABOTTIT!! Walls are paper thin. If you're lucky enough to have neighbors with little kids that are allowed to run wild, you will clearly hear the pounding of little feet and screams of joy when mommy and daddy let the children rock and roll all night and party every day!
+Why not call the front desk for assistance you might ask. It's hard to call when the phone doesn't work. Push the buttons for front desk or housekeeping and you get......you get......yup...nothing. Dial any number or wait for a dial tone......yup...nothing. Whoo who!
+I'm about to burn my IHG membership if this how Holiday Inn monitors its chain. You aren't actually wondering about any...Supposedly, this is a high end hotel here on the island. Well, if you like mold, it will be nearby during your stay at this place. The shower floor was disgusting. You'd think custodial had never heard of mildew remover or a new discovery called bleach.How do you charge $220 a night and allow this to happen? The carpet was also grungy so my family had to wear slippers to avoid feeling the gross sensation caused by walking in the room. The closet door had some sticky substance on it when I went to put clothing in the closet. I had to use medical tape to cover the stuff that wouldn't wipe off. Are you feeling the creeps yet?If you're expecting a good night's sleep, FOGETTABOTTIT!! Walls are paper thin. If you're lucky enough to have neighbors with little kids that are allowed to run wild, you will clearly hear the pounding of little feet and screams of joy when mommy and daddy let the children rock and roll all night and party every day!Why not call the front desk for assistance you might ask. It's hard to call when the phone doesn't work. Push the buttons for front desk or housekeeping and you get......you get......yup...nothing. Dial any number or wait for a dial tone......yup...nothing. Whoo who!I'm about to burn my IHG membership if this how Holiday Inn monitors its chain. You aren't actually wondering about any recommendation are you. Stephen King couldn't come up with much more chilling than this horror story. Be afraid dear friends, be very, very afraid.Before I end this tale of woe and misspent fortune, I did want to recognize the shuttle drivers who were the only highlight of this 3 night fiasco. They were all very polite and helpful. I really appreciate the service and information they provided. If everyone else at this shipwreck of a hotel did their job as well, my review would have been much different. Stay away from this entrance into the pit of Hades my friends. There is a boogeyman and he can be found in the showers of the 3rd floor of this Dante's inferno.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn Res... C, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded July 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2017</t>
+  </si>
+  <si>
+    <t>Supposedly, this is a high end hotel here on the island. Well, if you like mold, it will be nearby during your stay at this place. The shower floor was disgusting. You'd think custodial had never heard of mildew remover or a new discovery called bleach.How do you charge $220 a night and allow this to happen? The carpet was also grungy so my family had to wear slippers to avoid feeling the gross sensation caused by walking in the room. The closet door had some sticky substance on it when I went to put clothing in the closet. I had to use medical tape to cover the stuff that wouldn't wipe off. Are you feeling the creeps yet?
+If you're expecting a good night's sleep, FOGETTABOTTIT!! Walls are paper thin. If you're lucky enough to have neighbors with little kids that are allowed to run wild, you will clearly hear the pounding of little feet and screams of joy when mommy and daddy let the children rock and roll all night and party every day!
+Why not call the front desk for assistance you might ask. It's hard to call when the phone doesn't work. Push the buttons for front desk or housekeeping and you get......you get......yup...nothing. Dial any number or wait for a dial tone......yup...nothing. Whoo who!
+I'm about to burn my IHG membership if this how Holiday Inn monitors its chain. You aren't actually wondering about any...Supposedly, this is a high end hotel here on the island. Well, if you like mold, it will be nearby during your stay at this place. The shower floor was disgusting. You'd think custodial had never heard of mildew remover or a new discovery called bleach.How do you charge $220 a night and allow this to happen? The carpet was also grungy so my family had to wear slippers to avoid feeling the gross sensation caused by walking in the room. The closet door had some sticky substance on it when I went to put clothing in the closet. I had to use medical tape to cover the stuff that wouldn't wipe off. Are you feeling the creeps yet?If you're expecting a good night's sleep, FOGETTABOTTIT!! Walls are paper thin. If you're lucky enough to have neighbors with little kids that are allowed to run wild, you will clearly hear the pounding of little feet and screams of joy when mommy and daddy let the children rock and roll all night and party every day!Why not call the front desk for assistance you might ask. It's hard to call when the phone doesn't work. Push the buttons for front desk or housekeeping and you get......you get......yup...nothing. Dial any number or wait for a dial tone......yup...nothing. Whoo who!I'm about to burn my IHG membership if this how Holiday Inn monitors its chain. You aren't actually wondering about any recommendation are you. Stephen King couldn't come up with much more chilling than this horror story. Be afraid dear friends, be very, very afraid.Before I end this tale of woe and misspent fortune, I did want to recognize the shuttle drivers who were the only highlight of this 3 night fiasco. They were all very polite and helpful. I really appreciate the service and information they provided. If everyone else at this shipwreck of a hotel did their job as well, my review would have been much different. Stay away from this entrance into the pit of Hades my friends. There is a boogeyman and he can be found in the showers of the 3rd floor of this Dante's inferno.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r493641732-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>493641732</t>
+  </si>
+  <si>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t>Worst Holiday Inn &amp; Neglectful Management!</t>
+  </si>
+  <si>
+    <t>Where to start this review?  I stay in 16 Hotel rooms per month all around the world as an International Airline Captain.  In my opinion, This place does not deserve your business.  
+The reservation process was sketchy with the front desk saying they were sold out.  The national reservation representative said she showed some availability, but confirmed with the front desk that they were sold out as well WHILE I simultaneously booked two rooms online.  Go figure! 
+That's just the beginning.  The ground transportation shuttle (Which is supposed to meet every ferry) is essential because the hotel is way up the canyon approximately two miles from the ferry dock.  We had to call twice and got the typical "He's on his way..." from the front desk.
+Our rooms were not clean.  One had over twenty empty beer and empty water bottles in our room that had never been collected or removed by housekeeping.  Surfaces of our dresser and night tables were soiled.  One room had the AC running and the thermostat showed 63 degrees....it was colder than a meat locker in that room.  The rooms had not been thoroughly cleaned and we found a toothpick from a previous guest, etc. (See my pictures)
+The bed was comfortable.  Another reviewer mentions thumping noises from overhead guest rooms and we can attest that this is an annoying problem, constant until they go to bed. Wifi is free and slow with only email...Where to start this review?  I stay in 16 Hotel rooms per month all around the world as an International Airline Captain.  In my opinion, This place does not deserve your business.  The reservation process was sketchy with the front desk saying they were sold out.  The national reservation representative said she showed some availability, but confirmed with the front desk that they were sold out as well WHILE I simultaneously booked two rooms online.  Go figure! That's just the beginning.  The ground transportation shuttle (Which is supposed to meet every ferry) is essential because the hotel is way up the canyon approximately two miles from the ferry dock.  We had to call twice and got the typical "He's on his way..." from the front desk.Our rooms were not clean.  One had over twenty empty beer and empty water bottles in our room that had never been collected or removed by housekeeping.  Surfaces of our dresser and night tables were soiled.  One room had the AC running and the thermostat showed 63 degrees....it was colder than a meat locker in that room.  The rooms had not been thoroughly cleaned and we found a toothpick from a previous guest, etc. (See my pictures)The bed was comfortable.  Another reviewer mentions thumping noises from overhead guest rooms and we can attest that this is an annoying problem, constant until they go to bed. Wifi is free and slow with only email or website checking capability.  The shower pan in the bathroom is loose and you will drop an inch standing in the right side.Spending over $1100.00 for two rooms for two nights you might expect that your room would at least be serviced and cleaned before 5 PM your second day there.  We had spent the day sightseeing and were very disappointed to return to unserviced rooms.  We had to muster the housekeeper and her supervisor to get service.....apparently they are way understaffed.  To cap this all off we complained to the front desk and asked to speak to the General Manager.  They never contacted the GM even after repeated requests.  The front desk was indifferent every time we asked questions or raised concerns.  Our request to have a late checkout of 1 PM instead of 11 AM was flatly and repeatedly denied,even for just one of our rooms.  You might assume that if they can't clean a room until 5 PM that staying just two hours past 11 AM wouldn't be a hardship but you would be wrong.We ate in their onsite restaurant and the wait staff is disorganized and forgot about us.  We sat there after the hostess seated us and thereafter nobody brought us menus or even checked on us.  This is a very small restaurant so it amazes us that the wait staff could walk by us so many times and never acknowledge us until we flagged them down.  The food was good.We mentioned to several staff members that we are IHG Members and long time experienced TripAdvisor reviewers (Almost 400 Reviews) and gave them an opportunity to address our concerns and requests and were ignored anyway.  Attention: Ophelia, the Front Desk Manager:  No response you can write can cover the poor experience and poor value we experienced during this stay.  Your staff stonewalled us and couldn't care less about our concerns or requests.  Nobody ever offered even an apology or sympathy for the cleanliness issues in our room.  Apparently it's okay to leave empty beer bottles in the room for subsequent guests.Wow!  If you want a nice stay in Avalon, Catalina, BOOK somewhere else!MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn Res... C, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded June 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2017</t>
+  </si>
+  <si>
+    <t>Where to start this review?  I stay in 16 Hotel rooms per month all around the world as an International Airline Captain.  In my opinion, This place does not deserve your business.  
+The reservation process was sketchy with the front desk saying they were sold out.  The national reservation representative said she showed some availability, but confirmed with the front desk that they were sold out as well WHILE I simultaneously booked two rooms online.  Go figure! 
+That's just the beginning.  The ground transportation shuttle (Which is supposed to meet every ferry) is essential because the hotel is way up the canyon approximately two miles from the ferry dock.  We had to call twice and got the typical "He's on his way..." from the front desk.
+Our rooms were not clean.  One had over twenty empty beer and empty water bottles in our room that had never been collected or removed by housekeeping.  Surfaces of our dresser and night tables were soiled.  One room had the AC running and the thermostat showed 63 degrees....it was colder than a meat locker in that room.  The rooms had not been thoroughly cleaned and we found a toothpick from a previous guest, etc. (See my pictures)
+The bed was comfortable.  Another reviewer mentions thumping noises from overhead guest rooms and we can attest that this is an annoying problem, constant until they go to bed. Wifi is free and slow with only email...Where to start this review?  I stay in 16 Hotel rooms per month all around the world as an International Airline Captain.  In my opinion, This place does not deserve your business.  The reservation process was sketchy with the front desk saying they were sold out.  The national reservation representative said she showed some availability, but confirmed with the front desk that they were sold out as well WHILE I simultaneously booked two rooms online.  Go figure! That's just the beginning.  The ground transportation shuttle (Which is supposed to meet every ferry) is essential because the hotel is way up the canyon approximately two miles from the ferry dock.  We had to call twice and got the typical "He's on his way..." from the front desk.Our rooms were not clean.  One had over twenty empty beer and empty water bottles in our room that had never been collected or removed by housekeeping.  Surfaces of our dresser and night tables were soiled.  One room had the AC running and the thermostat showed 63 degrees....it was colder than a meat locker in that room.  The rooms had not been thoroughly cleaned and we found a toothpick from a previous guest, etc. (See my pictures)The bed was comfortable.  Another reviewer mentions thumping noises from overhead guest rooms and we can attest that this is an annoying problem, constant until they go to bed. Wifi is free and slow with only email or website checking capability.  The shower pan in the bathroom is loose and you will drop an inch standing in the right side.Spending over $1100.00 for two rooms for two nights you might expect that your room would at least be serviced and cleaned before 5 PM your second day there.  We had spent the day sightseeing and were very disappointed to return to unserviced rooms.  We had to muster the housekeeper and her supervisor to get service.....apparently they are way understaffed.  To cap this all off we complained to the front desk and asked to speak to the General Manager.  They never contacted the GM even after repeated requests.  The front desk was indifferent every time we asked questions or raised concerns.  Our request to have a late checkout of 1 PM instead of 11 AM was flatly and repeatedly denied,even for just one of our rooms.  You might assume that if they can't clean a room until 5 PM that staying just two hours past 11 AM wouldn't be a hardship but you would be wrong.We ate in their onsite restaurant and the wait staff is disorganized and forgot about us.  We sat there after the hostess seated us and thereafter nobody brought us menus or even checked on us.  This is a very small restaurant so it amazes us that the wait staff could walk by us so many times and never acknowledge us until we flagged them down.  The food was good.We mentioned to several staff members that we are IHG Members and long time experienced TripAdvisor reviewers (Almost 400 Reviews) and gave them an opportunity to address our concerns and requests and were ignored anyway.  Attention: Ophelia, the Front Desk Manager:  No response you can write can cover the poor experience and poor value we experienced during this stay.  Your staff stonewalled us and couldn't care less about our concerns or requests.  Nobody ever offered even an apology or sympathy for the cleanliness issues in our room.  Apparently it's okay to leave empty beer bottles in the room for subsequent guests.Wow!  If you want a nice stay in Avalon, Catalina, BOOK somewhere else!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r484516199-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>484516199</t>
+  </si>
+  <si>
+    <t>05/15/2017</t>
+  </si>
+  <si>
+    <t>Worth the Upgrade</t>
+  </si>
+  <si>
+    <t>I reviewed a bunch of hotels before choosing Holiday Inn. This is a bit off the path but that makes it great because you don't have so much foot traffic. We upgraded our room since I did hear some negative feedback on the standard rooms and we were very impressed. It was a very nice room, large bathroom, a tub and a stand up shower. It has a Santa Barbara feel to it. Great court yard to sit out in, well lit late at night. The pool was great and the hot tub was perfect when it got later. They have their own shuttle that will pick you up from the Port, it comes up and down the hill every 30 mins. So after we checked in we had them drive us back down the hill, then they came back and picked us up. We also noticed that they were repainting several of the rooms. Very modern feel!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>ocasillas, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>I reviewed a bunch of hotels before choosing Holiday Inn. This is a bit off the path but that makes it great because you don't have so much foot traffic. We upgraded our room since I did hear some negative feedback on the standard rooms and we were very impressed. It was a very nice room, large bathroom, a tub and a stand up shower. It has a Santa Barbara feel to it. Great court yard to sit out in, well lit late at night. The pool was great and the hot tub was perfect when it got later. They have their own shuttle that will pick you up from the Port, it comes up and down the hill every 30 mins. So after we checked in we had them drive us back down the hill, then they came back and picked us up. We also noticed that they were repainting several of the rooms. Very modern feel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r482389351-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>482389351</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Needs Work</t>
+  </si>
+  <si>
+    <t>My wife and I visited Avalon, Santa Catalina, CA for two days this month.  We checked in to the Holiday Inn Resort, asked the desk clerk for a room facing toward the ocean (even though it could not be seen).  The clerk said none was available.  He assigned us a room over the swimming pool.  The only problem with the room (403) is that the shower was extremely slow to drain.  I did not like standing in almost ankle deep water while showering.  When we made our reservations, the website said the hotel had both a restaurant and bar which we appreciated since my wife is unable to walk long distances.  After checking in, we were advised that the restaurant and bar were closed on Tuesday and Wednesday, the nights of our stay.  This should have been disclosed on its website.  As it was we had to take the hotel shuttle to/from downtown Avalon and then "walk" to a restaurant.  If we had known, we would have stayed in Avalon proper.  Also, the desk clerk telling us nothing was available on the top floor toward the ocean/Avalon was a ridiculous statement.  The hotel was almost deserted during our stay.  I asked the desk clerk one evening if we could get some coffee packets and he said he would sent them up when housekeeping gets back from "break."  I came back about 45 minutes later and asked about the coffee and...My wife and I visited Avalon, Santa Catalina, CA for two days this month.  We checked in to the Holiday Inn Resort, asked the desk clerk for a room facing toward the ocean (even though it could not be seen).  The clerk said none was available.  He assigned us a room over the swimming pool.  The only problem with the room (403) is that the shower was extremely slow to drain.  I did not like standing in almost ankle deep water while showering.  When we made our reservations, the website said the hotel had both a restaurant and bar which we appreciated since my wife is unable to walk long distances.  After checking in, we were advised that the restaurant and bar were closed on Tuesday and Wednesday, the nights of our stay.  This should have been disclosed on its website.  As it was we had to take the hotel shuttle to/from downtown Avalon and then "walk" to a restaurant.  If we had known, we would have stayed in Avalon proper.  Also, the desk clerk telling us nothing was available on the top floor toward the ocean/Avalon was a ridiculous statement.  The hotel was almost deserted during our stay.  I asked the desk clerk one evening if we could get some coffee packets and he said he would sent them up when housekeeping gets back from "break."  I came back about 45 minutes later and asked about the coffee and the clerk said housekeeping still on break.  We waited over one hour and nothing.  I found a maintenance person and asked him if he could assist and he said yes.  He went straight to the housekeeping room and handed me several coffeee cups.  The housekeeper never made it to our room.  As a member of the Holiday Inn Priority Club, and a patron of Holiday Inn for years, this was the most unpleasant stay we have encountered at a Holiday Inn.  I would not stay at this hotel again but would stay in Avalon proper. As stated, the evening clerk was most unaccommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>ocasillas, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded May 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2017</t>
+  </si>
+  <si>
+    <t>My wife and I visited Avalon, Santa Catalina, CA for two days this month.  We checked in to the Holiday Inn Resort, asked the desk clerk for a room facing toward the ocean (even though it could not be seen).  The clerk said none was available.  He assigned us a room over the swimming pool.  The only problem with the room (403) is that the shower was extremely slow to drain.  I did not like standing in almost ankle deep water while showering.  When we made our reservations, the website said the hotel had both a restaurant and bar which we appreciated since my wife is unable to walk long distances.  After checking in, we were advised that the restaurant and bar were closed on Tuesday and Wednesday, the nights of our stay.  This should have been disclosed on its website.  As it was we had to take the hotel shuttle to/from downtown Avalon and then "walk" to a restaurant.  If we had known, we would have stayed in Avalon proper.  Also, the desk clerk telling us nothing was available on the top floor toward the ocean/Avalon was a ridiculous statement.  The hotel was almost deserted during our stay.  I asked the desk clerk one evening if we could get some coffee packets and he said he would sent them up when housekeeping gets back from "break."  I came back about 45 minutes later and asked about the coffee and...My wife and I visited Avalon, Santa Catalina, CA for two days this month.  We checked in to the Holiday Inn Resort, asked the desk clerk for a room facing toward the ocean (even though it could not be seen).  The clerk said none was available.  He assigned us a room over the swimming pool.  The only problem with the room (403) is that the shower was extremely slow to drain.  I did not like standing in almost ankle deep water while showering.  When we made our reservations, the website said the hotel had both a restaurant and bar which we appreciated since my wife is unable to walk long distances.  After checking in, we were advised that the restaurant and bar were closed on Tuesday and Wednesday, the nights of our stay.  This should have been disclosed on its website.  As it was we had to take the hotel shuttle to/from downtown Avalon and then "walk" to a restaurant.  If we had known, we would have stayed in Avalon proper.  Also, the desk clerk telling us nothing was available on the top floor toward the ocean/Avalon was a ridiculous statement.  The hotel was almost deserted during our stay.  I asked the desk clerk one evening if we could get some coffee packets and he said he would sent them up when housekeeping gets back from "break."  I came back about 45 minutes later and asked about the coffee and the clerk said housekeeping still on break.  We waited over one hour and nothing.  I found a maintenance person and asked him if he could assist and he said yes.  He went straight to the housekeeping room and handed me several coffeee cups.  The housekeeper never made it to our room.  As a member of the Holiday Inn Priority Club, and a patron of Holiday Inn for years, this was the most unpleasant stay we have encountered at a Holiday Inn.  I would not stay at this hotel again but would stay in Avalon proper. As stated, the evening clerk was most unaccommodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r471698610-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>471698610</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>3/24 - 3/27/17 Visit for first time to Catalina Island</t>
+  </si>
+  <si>
+    <t>It was very nice.  A bit worn on the outside of the room hallways, but of course the weather has a lot to do with that.  The room was very, very clean, I loved the patio area.  My grandaughters loved the pool and jacuzzi.  The restaurant service was slow, only one waiter, but the food was great.  They substituted Orange Juice for Tampico which isn't even close to Orange Juice.  Overall, it was very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>ocasillas, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded April 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2017</t>
+  </si>
+  <si>
+    <t>It was very nice.  A bit worn on the outside of the room hallways, but of course the weather has a lot to do with that.  The room was very, very clean, I loved the patio area.  My grandaughters loved the pool and jacuzzi.  The restaurant service was slow, only one waiter, but the food was great.  They substituted Orange Juice for Tampico which isn't even close to Orange Juice.  Overall, it was very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r461039721-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>461039721</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t>Awesome rooms</t>
+  </si>
+  <si>
+    <t>rooms were clean and comfortable. Beds are comfortable. Staff was very nice and helpful. Shuttle driver was an awesome guy. We arrived very early and was checked in quickly. Rooms are spacious and also had a balcony. Will stay here next timeMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>ocasillas, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded February 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2017</t>
+  </si>
+  <si>
+    <t>rooms were clean and comfortable. Beds are comfortable. Staff was very nice and helpful. Shuttle driver was an awesome guy. We arrived very early and was checked in quickly. Rooms are spacious and also had a balcony. Will stay here next timeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r459251045-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>459251045</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Newly Crowned Holiday Inn</t>
+  </si>
+  <si>
+    <t>One of the most affordable and possibly picturesque hotels on Catalina Island is the former Catalina Canyon Resort. The pluses include having a place to stay that is away from the hustle/bustle of Avalon, it has one of the Islands only swimming pools, the grounds are attractive and the landscaping is outstanding. It has a decent restaurant but the hours are somewhat limited. I have given it a 3 star because of the limited transportation options between the Avalon waterfront and the hotel. The walk back is about a mile of uphill which is taxing especially after a night on the town. There is a hotel shuttle but the wait can be up to 45 minutes and sometimes there is not enough room for everyone and the service stops at 9 pm. There are also taxis but they are expensive.I would recommend that the hotel provide golf carts for guests at a reasonable rate.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2017</t>
+  </si>
+  <si>
+    <t>One of the most affordable and possibly picturesque hotels on Catalina Island is the former Catalina Canyon Resort. The pluses include having a place to stay that is away from the hustle/bustle of Avalon, it has one of the Islands only swimming pools, the grounds are attractive and the landscaping is outstanding. It has a decent restaurant but the hours are somewhat limited. I have given it a 3 star because of the limited transportation options between the Avalon waterfront and the hotel. The walk back is about a mile of uphill which is taxing especially after a night on the town. There is a hotel shuttle but the wait can be up to 45 minutes and sometimes there is not enough room for everyone and the service stops at 9 pm. There are also taxis but they are expensive.I would recommend that the hotel provide golf carts for guests at a reasonable rate.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r458293732-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>458293732</t>
+  </si>
+  <si>
+    <t>02/09/2017</t>
+  </si>
+  <si>
+    <t>Awesome hotel</t>
+  </si>
+  <si>
+    <t>Stayed at this facility years ago and what a difference. The hotel has gone through a total renovation. Affordable, clean, excellent service, good for that special occasion, business, pleasure or just a get away. Enjoy!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2017</t>
+  </si>
+  <si>
+    <t>Stayed at this facility years ago and what a difference. The hotel has gone through a total renovation. Affordable, clean, excellent service, good for that special occasion, business, pleasure or just a get away. Enjoy!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r450203659-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>450203659</t>
+  </si>
+  <si>
+    <t>01/07/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel in secluded location</t>
+  </si>
+  <si>
+    <t>When we first arrived on the island, the shuttle to the hotel had just left. We called the hotel and they were quick and happy to send another.The hotel room was very clean and the bed was very comfortable. A microwave, keurig, and refrigerator were provided in the room. Only being a 10 minute walk from town, the secluded location offered a nice atmosphere for a weekend getaway.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>When we first arrived on the island, the shuttle to the hotel had just left. We called the hotel and they were quick and happy to send another.The hotel room was very clean and the bed was very comfortable. A microwave, keurig, and refrigerator were provided in the room. Only being a 10 minute walk from town, the secluded location offered a nice atmosphere for a weekend getaway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r448897418-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>448897418</t>
+  </si>
+  <si>
+    <t>01/03/2017</t>
+  </si>
+  <si>
+    <t>Would not recommend</t>
+  </si>
+  <si>
+    <t>First, when our boat landed we were guaranteed - ahead of time - that a shuttle would pick us up at the dock.  No shuttle was there so we tried calling the hotel, unsuccessfully, for thirty minutes.  We finally called a cab.  We get to the hotel and are told the driver was there and that we weren't.  Later, when going to dinner, I asked the driver and he said they told him to take lunch then.  They said they didn't answer because their phones were down, which was the truth as we didn't have phones for over a day.   They did refund me $15 of $20 for the cab.  Our rooms were average, but they didn't have enough coffee or any creamer for two people on the rooms.  The night wasn't restful because of the people above us, three rooms complained and the hotel didn't do anything until about 10:30 at night when we complained for the third or fourth time.   Those people checked out and the staff was nice enough not to put anyone above us the next night.  The wifi was slow as molasses and unusable.  The restaurant was never open (remodeling) and the hot tub was out of service.   These are all things we should have been told or given a discount because of these issues.  I am giving it two stars because the staff was nice about half the time and the rooms that opened...First, when our boat landed we were guaranteed - ahead of time - that a shuttle would pick us up at the dock.  No shuttle was there so we tried calling the hotel, unsuccessfully, for thirty minutes.  We finally called a cab.  We get to the hotel and are told the driver was there and that we weren't.  Later, when going to dinner, I asked the driver and he said they told him to take lunch then.  They said they didn't answer because their phones were down, which was the truth as we didn't have phones for over a day.   They did refund me $15 of $20 for the cab.  Our rooms were average, but they didn't have enough coffee or any creamer for two people on the rooms.  The night wasn't restful because of the people above us, three rooms complained and the hotel didn't do anything until about 10:30 at night when we complained for the third or fourth time.   Those people checked out and the staff was nice enough not to put anyone above us the next night.  The wifi was slow as molasses and unusable.  The restaurant was never open (remodeling) and the hot tub was out of service.   These are all things we should have been told or given a discount because of these issues.  I am giving it two stars because the staff was nice about half the time and the rooms that opened to the courtyard were nice and easy to relax in.  We have determined this will not be a destination hotel in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>First, when our boat landed we were guaranteed - ahead of time - that a shuttle would pick us up at the dock.  No shuttle was there so we tried calling the hotel, unsuccessfully, for thirty minutes.  We finally called a cab.  We get to the hotel and are told the driver was there and that we weren't.  Later, when going to dinner, I asked the driver and he said they told him to take lunch then.  They said they didn't answer because their phones were down, which was the truth as we didn't have phones for over a day.   They did refund me $15 of $20 for the cab.  Our rooms were average, but they didn't have enough coffee or any creamer for two people on the rooms.  The night wasn't restful because of the people above us, three rooms complained and the hotel didn't do anything until about 10:30 at night when we complained for the third or fourth time.   Those people checked out and the staff was nice enough not to put anyone above us the next night.  The wifi was slow as molasses and unusable.  The restaurant was never open (remodeling) and the hot tub was out of service.   These are all things we should have been told or given a discount because of these issues.  I am giving it two stars because the staff was nice about half the time and the rooms that opened...First, when our boat landed we were guaranteed - ahead of time - that a shuttle would pick us up at the dock.  No shuttle was there so we tried calling the hotel, unsuccessfully, for thirty minutes.  We finally called a cab.  We get to the hotel and are told the driver was there and that we weren't.  Later, when going to dinner, I asked the driver and he said they told him to take lunch then.  They said they didn't answer because their phones were down, which was the truth as we didn't have phones for over a day.   They did refund me $15 of $20 for the cab.  Our rooms were average, but they didn't have enough coffee or any creamer for two people on the rooms.  The night wasn't restful because of the people above us, three rooms complained and the hotel didn't do anything until about 10:30 at night when we complained for the third or fourth time.   Those people checked out and the staff was nice enough not to put anyone above us the next night.  The wifi was slow as molasses and unusable.  The restaurant was never open (remodeling) and the hot tub was out of service.   These are all things we should have been told or given a discount because of these issues.  I am giving it two stars because the staff was nice about half the time and the rooms that opened to the courtyard were nice and easy to relax in.  We have determined this will not be a destination hotel in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r448857887-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>448857887</t>
+  </si>
+  <si>
+    <t>Far from a "Resort" Hotel.</t>
+  </si>
+  <si>
+    <t>Wouldn't stay here again... Where to start?...
+For those that don't want to read this long novel I ended up typing while on my last day of vacation, I'll summarize with this: 
+The hotel does have some nice things about it, like a comfortable bed and nice hot showers, but that's about it. I wouldn't call this place a "resort" though and it's definitely not up to the Holiday Inn standards I expected. The staff, for the most part was nice, but slow to respond and very defensive to complaints - as if they didn't believe me...
+No restaurant
+No breakfast
+No hot tub
+Ice cold pool
+Thin walls
+Hot (or cold) room (no thermostat)
+Spotty shuttle service
+THE GOOD:
+Comfortable beds, somewhat clean room, nice hot showers, friendly staff. Sorry, that's about it. :-(
+THE BAD:
+Shuttle Service:
+Let's start with the call I made to the hotel a couple of days before our travel asking how we get from the ferry docks to the hotel. They said no need to call - not to worry, the hotel shuttle knows when all the ferry's arrive and it will be there waiting for us... How nice! So, it happens to be raining on arrival day and here we are waiting 30 minutes for the shuttle. All calls to the hotel now go un-answered. We end up taking a taxi. Upon arrival to the hotel, we naturally complain to the staff...Wouldn't stay here again... Where to start?...For those that don't want to read this long novel I ended up typing while on my last day of vacation, I'll summarize with this: The hotel does have some nice things about it, like a comfortable bed and nice hot showers, but that's about it. I wouldn't call this place a "resort" though and it's definitely not up to the Holiday Inn standards I expected. The staff, for the most part was nice, but slow to respond and very defensive to complaints - as if they didn't believe me...No restaurantNo breakfastNo hot tubIce cold poolThin wallsHot (or cold) room (no thermostat)Spotty shuttle serviceTHE GOOD:Comfortable beds, somewhat clean room, nice hot showers, friendly staff. Sorry, that's about it. :-(THE BAD:Shuttle Service:Let's start with the call I made to the hotel a couple of days before our travel asking how we get from the ferry docks to the hotel. They said no need to call - not to worry, the hotel shuttle knows when all the ferry's arrive and it will be there waiting for us... How nice! So, it happens to be raining on arrival day and here we are waiting 30 minutes for the shuttle. All calls to the hotel now go un-answered. We end up taking a taxi. Upon arrival to the hotel, we naturally complain to the staff at the front desk and they say that their phones are down. We ask for our $20 taxi refund (which the taxi driver said we should do) and the front desk guy says that he radioed the driver and the driver said he WAS there waiting for us, so no refund! I called "BS". If we were there, and he was there, how could we miss each other? it's a SMALL dock! But, whatever. Anyway, we are early (it's noon) so we check in and leave our luggage, but we can't get the room until 4pm so we decide to have lunch while we wait... Can't have lunch here, the hotel restaurant is closed for the season! So, we have no other option but to go back to town. Guess what! the hotel shuttle is outside so we get in and ask the driver on the way down the hill why he wasn't there to pick us up when we got off the ferry and he said he had to take lunch at that time he was supposed to pick us up! So he WASN'T there! Now, someone's lying... They did end up refunding us only $15 (not all $20) after calling them out on it.So, we walk around town for a couple of hours, we have lunch and then go to the "shuttle" stop to wait for the shuttle again (which is supposed to be every 15 to 30 minutes). 20 minutes go by... 30 minutes... we try to call the hotel, but still no answer. so we walk back to the hotel. At least without luggage, walking was an option. In the end, over the course of the 3 days there, we probably went to town 5 times and only found the shuttle twice or three times. One time, it was full and said it would have to come back to pick us up. We didn't wait, we walked.The Beds:The mattresses are nice, but about a foot smaller than the bed frames so expect a lot of bruises on the shins by the end of the stay. And my side of the bed was about 6 inches from the wall. Made for interesting exits when tired in the mornings and had to crawl in from the foot of the bed. For me the beds were very comfortable (my wife begs to differ, but mattresses did seem firm and new). The Room Heater:The heater works GREAT! In fact, too good. There is no thermostat so it's either on or off. Even on low it would super heat up the room so we'd have to turn it to vent, but then the room would get super cold so we'd have to turn it back to heat every now and then. Not so bad and not so often... unless you're trying to sleep!The Shower:Beautiful glass showers, nice shower heads and endless hot water. Ok, I tried to take 5 minute showers, but I think they went a little longer. The bad part is that all that white grout is turning black with mildew. I'm not sure if they are not allowed to use bleach or if they just don't know that a little bleach will go a long way in keeping those showers looking beautiful.While on the subject of the bathroom, I should mention that the vanity lighting, although really cool with the lights around the mirror), is very bad. Not bright enough at all.The Amenities:This is a “resort”, right? No restaurant, not hot tub, ice cold pool, no breakfast, no... ok, so there are no amenities. Maybe a workout room. I read somewhere that they have a fitness facility but I didn't see or use it. They also have a ping pong table, but we couldn't find where they keep the ball and paddles.THE UGLY!The BANGING! The constant Banging!!!!So, (back to check-in – day one) we get back to the hotel and the rooms are ready! We asked for adjoining rooms or at least rooms close together. They gave us rooms close together on the first floor, but not adjoining rooms. We asked if either of the flip side rooms that -was- an adjoining room was available and they said yes and switched us. But why didn't they just put us in adjoining rooms to begin with? As soon as we get into our rooms we hear the banging and running and jumping from the kids in the room above us. Non-stop, they kids were having a blast, but the noise in our rooms was insane! It was like a freight train above us, constantly! We couldn't really tell what room the banging was coming from, it was all over, everywhere. We could here it the same in both rooms. Remember, this is around 4pm, check-in time... 2 hours later, the banging never stopped. We left the noise behind as we went to town for dinner (ended up walking both ways). We came back around 9pm and those kids (I'm assuming kids) were still fully energized and running all over. Our friends in the adjoining room went to complain twice (actually, once before dinner), but it never stopped. Finally, at 10:30, I went to complain and within 15 minutes, it FINALLY stopped. For this part, I know, the staff may not to be blamed, they probably did go and tell the rooms above to be quite and finally threatened them at 10:30. And I realize that they never know what kind of people they are putting in rooms. So this complaint is that the floors do seem to be very thin (thinner than the walls even!), so if you do stay here, opt not for the patio rooms, but for a TOP floor room if you want a good nights sleep.The next day we told the front desk that they HAVE to move us, but they said that the people above had checked out and they promised not to put anyone above us for the rest of our stay. It was blissful not to hear constant banging and running the next night.No Coffee!?Day two (checked in the day before), we are getting up early because we have an early morning dive! I go to make coffee and there ISN'T any! They have those cool Keurig coffee machines, but no coffee, no cream, or sugar. I figure they've gotta have coffee in the lobby then! So I go to the lobby with my coffee cup and ask where the coffee is and I'm told they -don't- have coffee in the lobby, but that it's in the room! I tell the guy that there was no coffee in the room and he gives me that “yah, right!” look. So I ask him, if there is no coffee in the room, and there is no coffee in the lobby, HOW AM I SUPPOSED TO GET MY COFFEE!!??!! Mind you,  I NEED MY COFFEE! I'm not sure if he thought I was lying at first, but by now he realized he'd better solve the problem QUICK and gave me two Keurig pods (or whatever you call them). No sugar, no cream, but that's ok, at least I got my coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Wouldn't stay here again... Where to start?...
+For those that don't want to read this long novel I ended up typing while on my last day of vacation, I'll summarize with this: 
+The hotel does have some nice things about it, like a comfortable bed and nice hot showers, but that's about it. I wouldn't call this place a "resort" though and it's definitely not up to the Holiday Inn standards I expected. The staff, for the most part was nice, but slow to respond and very defensive to complaints - as if they didn't believe me...
+No restaurant
+No breakfast
+No hot tub
+Ice cold pool
+Thin walls
+Hot (or cold) room (no thermostat)
+Spotty shuttle service
+THE GOOD:
+Comfortable beds, somewhat clean room, nice hot showers, friendly staff. Sorry, that's about it. :-(
+THE BAD:
+Shuttle Service:
+Let's start with the call I made to the hotel a couple of days before our travel asking how we get from the ferry docks to the hotel. They said no need to call - not to worry, the hotel shuttle knows when all the ferry's arrive and it will be there waiting for us... How nice! So, it happens to be raining on arrival day and here we are waiting 30 minutes for the shuttle. All calls to the hotel now go un-answered. We end up taking a taxi. Upon arrival to the hotel, we naturally complain to the staff...Wouldn't stay here again... Where to start?...For those that don't want to read this long novel I ended up typing while on my last day of vacation, I'll summarize with this: The hotel does have some nice things about it, like a comfortable bed and nice hot showers, but that's about it. I wouldn't call this place a "resort" though and it's definitely not up to the Holiday Inn standards I expected. The staff, for the most part was nice, but slow to respond and very defensive to complaints - as if they didn't believe me...No restaurantNo breakfastNo hot tubIce cold poolThin wallsHot (or cold) room (no thermostat)Spotty shuttle serviceTHE GOOD:Comfortable beds, somewhat clean room, nice hot showers, friendly staff. Sorry, that's about it. :-(THE BAD:Shuttle Service:Let's start with the call I made to the hotel a couple of days before our travel asking how we get from the ferry docks to the hotel. They said no need to call - not to worry, the hotel shuttle knows when all the ferry's arrive and it will be there waiting for us... How nice! So, it happens to be raining on arrival day and here we are waiting 30 minutes for the shuttle. All calls to the hotel now go un-answered. We end up taking a taxi. Upon arrival to the hotel, we naturally complain to the staff at the front desk and they say that their phones are down. We ask for our $20 taxi refund (which the taxi driver said we should do) and the front desk guy says that he radioed the driver and the driver said he WAS there waiting for us, so no refund! I called "BS". If we were there, and he was there, how could we miss each other? it's a SMALL dock! But, whatever. Anyway, we are early (it's noon) so we check in and leave our luggage, but we can't get the room until 4pm so we decide to have lunch while we wait... Can't have lunch here, the hotel restaurant is closed for the season! So, we have no other option but to go back to town. Guess what! the hotel shuttle is outside so we get in and ask the driver on the way down the hill why he wasn't there to pick us up when we got off the ferry and he said he had to take lunch at that time he was supposed to pick us up! So he WASN'T there! Now, someone's lying... They did end up refunding us only $15 (not all $20) after calling them out on it.So, we walk around town for a couple of hours, we have lunch and then go to the "shuttle" stop to wait for the shuttle again (which is supposed to be every 15 to 30 minutes). 20 minutes go by... 30 minutes... we try to call the hotel, but still no answer. so we walk back to the hotel. At least without luggage, walking was an option. In the end, over the course of the 3 days there, we probably went to town 5 times and only found the shuttle twice or three times. One time, it was full and said it would have to come back to pick us up. We didn't wait, we walked.The Beds:The mattresses are nice, but about a foot smaller than the bed frames so expect a lot of bruises on the shins by the end of the stay. And my side of the bed was about 6 inches from the wall. Made for interesting exits when tired in the mornings and had to crawl in from the foot of the bed. For me the beds were very comfortable (my wife begs to differ, but mattresses did seem firm and new). The Room Heater:The heater works GREAT! In fact, too good. There is no thermostat so it's either on or off. Even on low it would super heat up the room so we'd have to turn it to vent, but then the room would get super cold so we'd have to turn it back to heat every now and then. Not so bad and not so often... unless you're trying to sleep!The Shower:Beautiful glass showers, nice shower heads and endless hot water. Ok, I tried to take 5 minute showers, but I think they went a little longer. The bad part is that all that white grout is turning black with mildew. I'm not sure if they are not allowed to use bleach or if they just don't know that a little bleach will go a long way in keeping those showers looking beautiful.While on the subject of the bathroom, I should mention that the vanity lighting, although really cool with the lights around the mirror), is very bad. Not bright enough at all.The Amenities:This is a “resort”, right? No restaurant, not hot tub, ice cold pool, no breakfast, no... ok, so there are no amenities. Maybe a workout room. I read somewhere that they have a fitness facility but I didn't see or use it. They also have a ping pong table, but we couldn't find where they keep the ball and paddles.THE UGLY!The BANGING! The constant Banging!!!!So, (back to check-in – day one) we get back to the hotel and the rooms are ready! We asked for adjoining rooms or at least rooms close together. They gave us rooms close together on the first floor, but not adjoining rooms. We asked if either of the flip side rooms that -was- an adjoining room was available and they said yes and switched us. But why didn't they just put us in adjoining rooms to begin with? As soon as we get into our rooms we hear the banging and running and jumping from the kids in the room above us. Non-stop, they kids were having a blast, but the noise in our rooms was insane! It was like a freight train above us, constantly! We couldn't really tell what room the banging was coming from, it was all over, everywhere. We could here it the same in both rooms. Remember, this is around 4pm, check-in time... 2 hours later, the banging never stopped. We left the noise behind as we went to town for dinner (ended up walking both ways). We came back around 9pm and those kids (I'm assuming kids) were still fully energized and running all over. Our friends in the adjoining room went to complain twice (actually, once before dinner), but it never stopped. Finally, at 10:30, I went to complain and within 15 minutes, it FINALLY stopped. For this part, I know, the staff may not to be blamed, they probably did go and tell the rooms above to be quite and finally threatened them at 10:30. And I realize that they never know what kind of people they are putting in rooms. So this complaint is that the floors do seem to be very thin (thinner than the walls even!), so if you do stay here, opt not for the patio rooms, but for a TOP floor room if you want a good nights sleep.The next day we told the front desk that they HAVE to move us, but they said that the people above had checked out and they promised not to put anyone above us for the rest of our stay. It was blissful not to hear constant banging and running the next night.No Coffee!?Day two (checked in the day before), we are getting up early because we have an early morning dive! I go to make coffee and there ISN'T any! They have those cool Keurig coffee machines, but no coffee, no cream, or sugar. I figure they've gotta have coffee in the lobby then! So I go to the lobby with my coffee cup and ask where the coffee is and I'm told they -don't- have coffee in the lobby, but that it's in the room! I tell the guy that there was no coffee in the room and he gives me that “yah, right!” look. So I ask him, if there is no coffee in the room, and there is no coffee in the lobby, HOW AM I SUPPOSED TO GET MY COFFEE!!??!! Mind you,  I NEED MY COFFEE! I'm not sure if he thought I was lying at first, but by now he realized he'd better solve the problem QUICK and gave me two Keurig pods (or whatever you call them). No sugar, no cream, but that's ok, at least I got my coffee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r438202132-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>438202132</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>Fabulous Getaway</t>
+  </si>
+  <si>
+    <t>We had a wonderful time thanks to Ophelia, who gave us a wonderful room. The front desk couldn't have been more helpful. The shuttle was always there for us, and the food at the restaurant was beyond belief. Chef Greg came out to meet us, and I even bought his own seasoning, which was sold in the restaurant. His fried chicken was to die for. I loved our two days away. Best deal on the IslandMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2017</t>
+  </si>
+  <si>
+    <t>We had a wonderful time thanks to Ophelia, who gave us a wonderful room. The front desk couldn't have been more helpful. The shuttle was always there for us, and the food at the restaurant was beyond belief. Chef Greg came out to meet us, and I even bought his own seasoning, which was sold in the restaurant. His fried chicken was to die for. I loved our two days away. Best deal on the IslandMore</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1472,1983 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>132</v>
+      </c>
+      <c r="X11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>140</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>141</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>150</v>
+      </c>
+      <c r="X13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>158</v>
+      </c>
+      <c r="X15" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" t="s">
+        <v>169</v>
+      </c>
+      <c r="L16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>171</v>
+      </c>
+      <c r="X16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>140</v>
+      </c>
+      <c r="O17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>179</v>
+      </c>
+      <c r="X17" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" t="s">
+        <v>184</v>
+      </c>
+      <c r="K18" t="s">
+        <v>185</v>
+      </c>
+      <c r="L18" t="s">
+        <v>186</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>187</v>
+      </c>
+      <c r="O18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>188</v>
+      </c>
+      <c r="X18" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>192</v>
+      </c>
+      <c r="J19" t="s">
+        <v>193</v>
+      </c>
+      <c r="K19" t="s">
+        <v>194</v>
+      </c>
+      <c r="L19" t="s">
+        <v>195</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>105</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>196</v>
+      </c>
+      <c r="X19" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>200</v>
+      </c>
+      <c r="J20" t="s">
+        <v>201</v>
+      </c>
+      <c r="K20" t="s">
+        <v>202</v>
+      </c>
+      <c r="L20" t="s">
+        <v>203</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>105</v>
+      </c>
+      <c r="O20" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>204</v>
+      </c>
+      <c r="X20" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>208</v>
+      </c>
+      <c r="J21" t="s">
+        <v>209</v>
+      </c>
+      <c r="K21" t="s">
+        <v>210</v>
+      </c>
+      <c r="L21" t="s">
+        <v>211</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>212</v>
+      </c>
+      <c r="O21" t="s">
+        <v>78</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>213</v>
+      </c>
+      <c r="X21" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>217</v>
+      </c>
+      <c r="J22" t="s">
+        <v>218</v>
+      </c>
+      <c r="K22" t="s">
+        <v>219</v>
+      </c>
+      <c r="L22" t="s">
+        <v>220</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>212</v>
+      </c>
+      <c r="O22" t="s">
+        <v>78</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>221</v>
+      </c>
+      <c r="X22" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>225</v>
+      </c>
+      <c r="J23" t="s">
+        <v>226</v>
+      </c>
+      <c r="K23" t="s">
+        <v>227</v>
+      </c>
+      <c r="L23" t="s">
+        <v>228</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>229</v>
+      </c>
+      <c r="O23" t="s">
+        <v>88</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>230</v>
+      </c>
+      <c r="X23" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>234</v>
+      </c>
+      <c r="J24" t="s">
+        <v>235</v>
+      </c>
+      <c r="K24" t="s">
+        <v>236</v>
+      </c>
+      <c r="L24" t="s">
+        <v>237</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>229</v>
+      </c>
+      <c r="O24" t="s">
+        <v>88</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>238</v>
+      </c>
+      <c r="X24" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>242</v>
+      </c>
+      <c r="J25" t="s">
+        <v>243</v>
+      </c>
+      <c r="K25" t="s">
+        <v>244</v>
+      </c>
+      <c r="L25" t="s">
+        <v>245</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>187</v>
+      </c>
+      <c r="O25" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>246</v>
+      </c>
+      <c r="X25" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>249</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>250</v>
+      </c>
+      <c r="J26" t="s">
+        <v>251</v>
+      </c>
+      <c r="K26" t="s">
+        <v>252</v>
+      </c>
+      <c r="L26" t="s">
+        <v>253</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>254</v>
+      </c>
+      <c r="O26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>255</v>
+      </c>
+      <c r="X26" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>258</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>259</v>
+      </c>
+      <c r="J27" t="s">
+        <v>260</v>
+      </c>
+      <c r="K27" t="s">
+        <v>261</v>
+      </c>
+      <c r="L27" t="s">
+        <v>262</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>263</v>
+      </c>
+      <c r="X27" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>267</v>
+      </c>
+      <c r="J28" t="s">
+        <v>268</v>
+      </c>
+      <c r="K28" t="s">
+        <v>269</v>
+      </c>
+      <c r="L28" t="s">
+        <v>270</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>254</v>
+      </c>
+      <c r="O28" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>271</v>
+      </c>
+      <c r="X28" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>274</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>275</v>
+      </c>
+      <c r="J29" t="s">
+        <v>276</v>
+      </c>
+      <c r="K29" t="s">
+        <v>277</v>
+      </c>
+      <c r="L29" t="s">
+        <v>278</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>279</v>
+      </c>
+      <c r="O29" t="s">
+        <v>88</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>271</v>
+      </c>
+      <c r="X29" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>281</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>282</v>
+      </c>
+      <c r="J30" t="s">
+        <v>283</v>
+      </c>
+      <c r="K30" t="s">
+        <v>284</v>
+      </c>
+      <c r="L30" t="s">
+        <v>285</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>279</v>
+      </c>
+      <c r="O30" t="s">
+        <v>78</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>287</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>288</v>
+      </c>
+      <c r="J31" t="s">
+        <v>283</v>
+      </c>
+      <c r="K31" t="s">
+        <v>289</v>
+      </c>
+      <c r="L31" t="s">
+        <v>290</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>291</v>
+      </c>
+      <c r="O31" t="s">
+        <v>78</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>293</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>294</v>
+      </c>
+      <c r="J32" t="s">
+        <v>295</v>
+      </c>
+      <c r="K32" t="s">
+        <v>296</v>
+      </c>
+      <c r="L32" t="s">
+        <v>297</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>298</v>
+      </c>
+      <c r="O32" t="s">
+        <v>88</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>299</v>
+      </c>
+      <c r="X32" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>301</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_388.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_388.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="333">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>kathyh303</t>
+  </si>
+  <si>
     <t>07/04/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>You won't be able to stumble home to your hotel after drinking all night at Luah Larry's so prepare to take the shuttle or a cab to the Holiday Inn.  At least you will have a nice room, great food at the restaurant, and an isolated resort with a pool.  We book here because the other hotels on Catalina Island are not normal hotels.  They require a full deposit, you pay fees if you have to cancel, and they have tiny rooms with NO AIR CONDITIONING!  You also can't get two queen beds and you won't have a pool for the kids to play in.  The chef is awesome, worth the Sunday brunch or dinner at night.  Sometimes you can book for one night, which is a huge bonus.More</t>
   </si>
   <si>
+    <t>flgirly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r587283767-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>Stayed for 2 nights and there was 4 of us. The room was very nice, clean and comfortable. The four of us never felt overcrowded. Loved that there was a balcony!  Check in was super easy and front desk clerk was friendly. I didn't really like the food at the restaurant in the hotel other than the fries. We tried the chicken wings, and calamari  and neither one was good. Drinks we good though and the the staff was friendly. The pool is big enough. I appreciated the complimentary shuttle which was convenient. Overall great stay!More</t>
   </si>
   <si>
+    <t>Karen W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r584931991-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t>While Catalina Island is the epitome of quaint, this hotel is in need of a serious makeover! From the unseemly smells on the rear of the third floor lobby to the horribly stained carpet on each floor, this property screams "Groom Service!" Fortunately, the rooms have spare but decent decor, with beds attired with clean washable linens. Just don't look too closely or you'll realize how worn everything is, from the furniture to the faucets.Surprisingly enough, breakfast at the onsite restaurant made my day. The chorizo and eggs was the best I've had, and the coffee was decent.In such a beautiful island environment, one can only hope for a similar hotel experience. Not at this property! Take their shuttle and find another place to stay!More</t>
   </si>
   <si>
+    <t>ddonati</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r573765162-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -264,6 +276,9 @@
     <t>Kind of a last minute trio idea as we wanted to get out of town for Spring Break with only one night to spare. Maybe it was a last minute deal and we were lucky? We booked the Family Room at the Holiday Inn that included 2 bunks beds and a King in a room that sat above the pool, not in the main buildings. It was the most pleasant surprise! Super cute room with new fixtures, microwave and a fridge. We spent the day hiking and ended with a twilight tour of the Casino ( highly recommended as well! ) and had no time to get dinner once the tour was done. Made a quick grocery stop and was able to feed the family in our cozy room. Another great benefit was the free shuttle service. They pick up from the dock as well as a park near downtown. While Avalon is not that big, it was nice to have the service to take us up and down the hill. The hot tub near the pool could have used more water in the evening and the little store in the lobby was not that great. Loved that we could store our luggage all day although it was in an unsecured space. It still seemed safe enough as we had nothing of value. Highly recommended and could have been happy there for another night.More</t>
   </si>
   <si>
+    <t>mlpbjm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r569955037-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -294,6 +309,9 @@
     <t>One night stay while on Catalina Island. This Holiday Inn was quite nice in some regards, not so much in others. It was, I believe, not purpose built as a Holiday Inn but taken over by the chain at some point. The room decor and comfort were nice, clean, and well laid out. Our room unfortunately had some issues. A shower door that would not close completely-leading to much water on the floor. A bulb out in one of the wall mount bed reading lights.(a nice touch though) And a view from the balcony of broken golf carts and what appeared to be refrigeration parts strewn about. Additionally, the service agent at the desk was not very helpful on these issues or in passing along any property details such as restaurant hours, pool/spa info or the local area. Finally, the biggest disappointment here was that the hotel shuttle, while nice to have due to uphill location, could not be scheduled for specific times in either direction. To use going into town or returning from town you had to wait for the shuttle to complete his "rounds". Which mean't waiting for an undetermined time at a bus stop area in town before the ride back up at night. Or hoping it was available in time for you to get from the hotel to the ferry dock upon departure from the island. Really seems like a inefficient way to transport your customers....One night stay while on Catalina Island. This Holiday Inn was quite nice in some regards, not so much in others. It was, I believe, not purpose built as a Holiday Inn but taken over by the chain at some point. The room decor and comfort were nice, clean, and well laid out. Our room unfortunately had some issues. A shower door that would not close completely-leading to much water on the floor. A bulb out in one of the wall mount bed reading lights.(a nice touch though) And a view from the balcony of broken golf carts and what appeared to be refrigeration parts strewn about. Additionally, the service agent at the desk was not very helpful on these issues or in passing along any property details such as restaurant hours, pool/spa info or the local area. Finally, the biggest disappointment here was that the hotel shuttle, while nice to have due to uphill location, could not be scheduled for specific times in either direction. To use going into town or returning from town you had to wait for the shuttle to complete his "rounds". Which mean't waiting for an undetermined time at a bus stop area in town before the ride back up at night. Or hoping it was available in time for you to get from the hotel to the ferry dock upon departure from the island. Really seems like a inefficient way to transport your customers. I would recommend for one night if you know this going in.More</t>
   </si>
   <si>
+    <t>DondeEstaMiSamosa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r568624234-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -318,6 +336,9 @@
     <t>We are IHG members so it was an easy choice for our one night stay in Catalina. We arrived by boat and the free hotel shuttle arrived in the parking lot as promised. The hotel is nestled up on a hill, check in was quick and we loved seeing all the palm trees on the property. There is s Restaurant on sight. Lobby sells snacks. Our room had a balcony, bathroom was spacious and everything was clean and well kept. The service was friendly and informative. Shout out to Tyler for our speedy check in and to Tim, just coming off the night shift for our early check out. Tim could not have been more fun to chat with before the 7am shuttle took off. He’s a local, quite fun &amp; gave us some interesting information about the Island. Thank you Tim!! More</t>
   </si>
   <si>
+    <t>Pam W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r541651914-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -345,6 +366,9 @@
     <t>This hotel was very nice and had a shuttle service to take you from Avalon to the hotel.  It ran all the time and never had to wait very long.  We had nice size room overlooking the pool area with a balcony.  Pool was extremely busy, so never went to it.  Nice restaurant at the hotel, that served very good food.More</t>
   </si>
   <si>
+    <t>NatHunt1572</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r539717331-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -372,6 +396,9 @@
     <t>The Holiday Inn was affordable and comfortable to stay whilst exploring Catalina Island over a weekend.  From the pier it is approx. 30 min walk to the resort, a little hike up a hill if you are up for walking. Alternatively if you contact the resort ahead of time they will arrange a pick up from the pier to the resort. The driver was very accommodating. Check in time was late - 4pm/16:00 which we found inconvenient because we arrived prior to 12 noon and had to leave personal belongings in a storage room available for all guests to enter and exit - and the resort takes no responsibility for loss or damage. So we had to carry our passports and electronic devices as there was no security box or locker to store these in whilst we were waiting for our check in. The room was comfortable, and i like how the resort is environmentally friendly and conscious of water use to sustain the islands water supply.  Wifi accessible and reception great!The Holiday Inn restaurant - Seaport Bistro is a fantastic place to enjoy a meal - the chef "Greg" came out to see how we enjoyed our meal, the customer service - excellent. Truly recommend the restaurant even if you choose not to stay at the Holiday Inn. Certain days they offer all you can eat chicken wings $17 USD with fries.More</t>
   </si>
   <si>
+    <t>Rebecca H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r535536584-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -399,6 +426,9 @@
     <t>Looked clean.  Is located on a hill.  The hotel shuttle picks up from the boat dock and takes you to the hotel.  It also will take you back down the hill and drops you off in town and picks up again from this location to go back to the hotel.  Shuttle can get crowded at times, and sometimes you have to wait for the next one, but it is not usually a long wait.  Saw deer right next to hotel.  Microwave and refrigerator are in room.  No breakfast is included.  There is a restaurant on site.  They store your luggage if you arrive early your day of check in.  They do not store it after you check out which is at 11:00, but if you have a later boat, Blue Line luggage close to the Catalina Island boat dock will pick it up for you from the hotel and store it until your boat leaves for a small fee per bag.More</t>
   </si>
   <si>
+    <t>Brenda F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r531211330-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -423,6 +453,9 @@
     <t>Since the hotel is away from the beach, it's very quiet. The complementary shuttle to the hotel is definitely a plus!  The rooms are very nice, and it's one of only a few hotels in Catalina that has a pool. Sadly, the restaurant was not open during our stay, so I cannot comment on the food.More</t>
   </si>
   <si>
+    <t>zippy1717</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r529257367-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -450,6 +483,9 @@
     <t>This Holiday Inn could be a nice hotel but the management and staff ruin the entire experience with their lack of hospitality and effort in trying to accommodate guests' requests.  I already knew it was going to be a disaster when I called ahead of time to request certain things and was always immediately put on hold each and every time I called.  I'm talking 10 min holds, not seconds.  And then untrained staff putting me on hold again to ask Ophelia the manager for anything only to be told after a long hold they can't accommodate any of my requests.  Ophelia is equally as unhelpful in person. I booked a "double room" online thinking it was double beds but instead it's one queen bed.  Why not call it a "queen bed" to not mislead guests?They couldn't even bring me a roll away cot citing fire codes.  None of their rooms are big enough for a cot to legally fit in them?  The room itself was renovated not too long ago but already showing lots of wear and tear.  The tiled shower has black mold growing in some spots as prior reviews mention.  The balcony floor for some reason is flooded with water even though it didn't rain.  The front desk is a mess.  Every time I had to pass by it, there's guests waiting in line getting more impatient as the staff keep getting interrupted to answer the phones...This Holiday Inn could be a nice hotel but the management and staff ruin the entire experience with their lack of hospitality and effort in trying to accommodate guests' requests.  I already knew it was going to be a disaster when I called ahead of time to request certain things and was always immediately put on hold each and every time I called.  I'm talking 10 min holds, not seconds.  And then untrained staff putting me on hold again to ask Ophelia the manager for anything only to be told after a long hold they can't accommodate any of my requests.  Ophelia is equally as unhelpful in person. I booked a "double room" online thinking it was double beds but instead it's one queen bed.  Why not call it a "queen bed" to not mislead guests?They couldn't even bring me a roll away cot citing fire codes.  None of their rooms are big enough for a cot to legally fit in them?  The room itself was renovated not too long ago but already showing lots of wear and tear.  The tiled shower has black mold growing in some spots as prior reviews mention.  The balcony floor for some reason is flooded with water even though it didn't rain.  The front desk is a mess.  Every time I had to pass by it, there's guests waiting in line getting more impatient as the staff keep getting interrupted to answer the phones (and place them on hold) or stare at their screens.  People waiting to get a pool towel, waiting to check in/out, waiting to purchase a convenience item, waiting to make any simple request.  The staff here are just plain rude and could care less if their guests are receiving good service.  Not once did I see any front desk staff smiling and acting courteously to the guests.  It truly has no signs of being managed properly like a typical Holiday Inn.  The breakfast was good but trying to sit outside with all the wasps was terrible. They had hanging traps in full view that were overfilled with dead wasps and more swarming around attracted by them. Use some common sense and hang the traps away from the dining tables!  This hotel has so many bad reviews and the same canned responses it's a joke.  Buyer beware!More</t>
   </si>
   <si>
+    <t>dayzpen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r528574513-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -477,6 +513,9 @@
     <t>We were here for a wedding and stayed two nights.  The Holiday Inn grounds are very nice.  We sat outside the room, on a nice size walk-way patio surrounded by trees.  The room is nice size.  The hotel is up on the hill, but they provide a shuttle to and from the dock and the town.  Very prompt service by the shuttle drivers.  There was no complimentary breakfast, but they provided coffee in the rooms.  A few minor problems (toilet paper holder coming away from the wall and the bathroom sink did not drain.  Even after mentioning these things, they were not taken care of by the end of the day.  Prompt attention would have been nice.More</t>
   </si>
   <si>
+    <t>Deb S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r522455853-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -501,6 +540,9 @@
     <t>Mostly rude staff, moldy smelling dirty rooms.  Bedding was DISGUSTING had to have someone come and change it.  Frames for the bed are to large for the mattresses which results in a catch all for dirt and hair.  Fabric around said frame is stained and dirty.  Mildew on tiles in shower.  Lock on the door to courtyard is a  old chain lock, that's it.  Just over all run down and out dated.  WORST experience EVER at a Holiday Inn!!!More</t>
   </si>
   <si>
+    <t>IMDOCNC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r522312225-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -516,6 +558,9 @@
     <t>The hotel has good clean rooms with no major frills in the amenities area.  Only issue some people may have is that it is quite a hike from the bayfront area.  Some of the hike is uphill.  They do have a shuttle van but you have to plan around the times of the shuttle and it is difficult to be spontaneous.  A golf cart would help but would require overnight or daily rental.The views are limited as it is very far away from the bay but you can get a peak of the ocean on a high floor facing the right direction.More</t>
   </si>
   <si>
+    <t>Kathleen L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r520900912-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -540,6 +585,9 @@
     <t>The Holiday Inn on Catalina Island provided wonderful accommodations for a birthday getaway. The room was well kept, soap/shampoo/lotion provided, in-room coffee maker/ refrigerator, and comfortable beds. Our room deck overlooked the pool area and canyon.The shuttle was at the dock upon arrival of our boat (Catalina Flyer from Newport) and Juan loaded our suitcases into the van. The shuttle is well labeled and easy to find. It runs back and forth throughout the day from the dock- center of Avalon- hotel. We never had to wait more than 10-15 minutes.We also dined at the on site Seaport Bistro during our stay. The food was delicious and our server was attentive and personable. It was nice to sit on the patio and enjoy the summer evening air - and extremely convenient after we had a long day in Avalon.More</t>
   </si>
   <si>
+    <t>Elizabeth U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r515730477-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -562,6 +610,9 @@
   </si>
   <si>
     <t>Overall decent hotel.  It is an uphill wall from town, but not bad.  The shuttle service is great and he drivers are all very friendly.  The hotel has a nice outdoor patio with lights and plenty of chairs and tables.  The rooms need improvement, the shower drain has an issue and there was a pool of water during every shower.  The prices for a room are a little steep and for that price and it being a holiday inn the rooms should be serviced daily.  Doing my 4 day stay my room was not serviced one day, I called it in before going out for dinner and was told it would be made.  Got back from dinner late and the room was not made.  I called it in to at the least request clean towels, I had to call twice and was told they only had one person working that could assist me hence the wait.  All I wanted were clean towels so I could shower and call it a night. Next trip I will probably try a different hotel that has comparable pricing but better reviews. More</t>
+  </si>
+  <si>
+    <t>fyremaven</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r514207474-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
@@ -599,6 +650,9 @@
 People have wrote similar reviews saying the walls of the hotel are "paper thin" but I have never stayed at hotels where you couldn't hear the next door neighbors IF they were being overly loud. We had a great stay here and could...Sitting at the top of a hill, this hotel offers great rooms for families and couples, too! They have their own small restaurant so if you want to eat there, you can. Limited hours on their restaurant but very convenient if you are up early.Very nice of them to offer a free shuttle down to the main shopping area otherwise the walk UP to the hotel might be a bit hard on some people. It can be done but it is steep and if you have any arthritis or other mobility issues it would be a problem. The rates are reasonable for Catalina island and can be booked well in advance. Try to avoid special holidays and/or special event weekends otherwise the island as a whole is very crowded and it can be hard to get around. It is much more pleasant mid-week or on non-holiday weekends. In general, mid-week is always more pleasant because it seems less crowded but sometimes it is crowded all week. This is a very popular destination and with Catalina Express offering free passage on their ships on your birthday (buy one get one free) this has increased traffic to Catalina.People have wrote similar reviews saying the walls of the hotel are "paper thin" but I have never stayed at hotels where you couldn't hear the next door neighbors IF they were being overly loud. We had a great stay here and could NOT hear our neighbors but maybe it was because they were considerate? Something to consider. Try this place you won't be disappointed.More</t>
   </si>
   <si>
+    <t>Ingrid2a</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r503681323-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -623,6 +677,9 @@
     <t>We decided to spend a couple of days on Catalina Island and had our little dog with us so our choice of places to stay was limited. It was a good decision to stay at the Holiday Inn. Yes, the walls are thin but this isn't what I will remember about our stay. It is a clean and friendly place to stay. The hotel isn't right in town but it's easy to walk into town. We went to Catalina to spend time outdoors and the walk was a good way to check out the area. There is, however, also a frequent shuttle that takes you back and forth. The driver was friendly and gave us some pointers. The front desk staff was helpful and efficient. Our room was the perfect size (large enough for a king-size bed and two visitor chairs in the corners. The bathroom was modern (shower only). As so often, the shower door didn't close properly so it was impossible not to create a little puddle. The balcony was perfect for relaxing at the end of the day. We had a late breakfast at the hotel restaurant. The service was good. The food was ok.More</t>
   </si>
   <si>
+    <t>Helen H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r500418223-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -645,6 +702,9 @@
   </si>
   <si>
     <t>The newly remodeled Holiday Inn Resort Catalina Island, provided a very nice stay for two nights.  The rooms are nicely done and ours came with a microwave and refrigerator.  We had a balcony with two chairs overlooking the pool area and a small view of the ocean.  Beds were very comfortable and the bathroom was well appointed with a nice big walk in shower.  No tub however.  The hotel was quiet-its located .4 miles from the waterfront and is an easy walk.  There is also a shuttle that runs frequently and we used that once.  There is a restaurant at the hotel, but we only ordered coffee to go, so I can't comment on the food.  There is also a small area to buy snacks near the check in area.  The only negative about our room is that the air conditioning unit was just inches from one of the beds and blows cold air on whoever is sleeping in that bed.  But after strategically placing some pillows to block the air, we managed to have a cool room and everyone was comfortable.More</t>
+  </si>
+  <si>
+    <t>Ozinvegas</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r496695956-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
@@ -678,6 +738,9 @@
 If you're expecting a good night's sleep, FOGETTABOTTIT!! Walls are paper thin. If you're lucky enough to have neighbors with little kids that are allowed to run wild, you will clearly hear the pounding of little feet and screams of joy when mommy and daddy let the children rock and roll all night and party every day!
 Why not call the front desk for assistance you might ask. It's hard to call when the phone doesn't work. Push the buttons for front desk or housekeeping and you get......you get......yup...nothing. Dial any number or wait for a dial tone......yup...nothing. Whoo who!
 I'm about to burn my IHG membership if this how Holiday Inn monitors its chain. You aren't actually wondering about any...Supposedly, this is a high end hotel here on the island. Well, if you like mold, it will be nearby during your stay at this place. The shower floor was disgusting. You'd think custodial had never heard of mildew remover or a new discovery called bleach.How do you charge $220 a night and allow this to happen? The carpet was also grungy so my family had to wear slippers to avoid feeling the gross sensation caused by walking in the room. The closet door had some sticky substance on it when I went to put clothing in the closet. I had to use medical tape to cover the stuff that wouldn't wipe off. Are you feeling the creeps yet?If you're expecting a good night's sleep, FOGETTABOTTIT!! Walls are paper thin. If you're lucky enough to have neighbors with little kids that are allowed to run wild, you will clearly hear the pounding of little feet and screams of joy when mommy and daddy let the children rock and roll all night and party every day!Why not call the front desk for assistance you might ask. It's hard to call when the phone doesn't work. Push the buttons for front desk or housekeeping and you get......you get......yup...nothing. Dial any number or wait for a dial tone......yup...nothing. Whoo who!I'm about to burn my IHG membership if this how Holiday Inn monitors its chain. You aren't actually wondering about any recommendation are you. Stephen King couldn't come up with much more chilling than this horror story. Be afraid dear friends, be very, very afraid.Before I end this tale of woe and misspent fortune, I did want to recognize the shuttle drivers who were the only highlight of this 3 night fiasco. They were all very polite and helpful. I really appreciate the service and information they provided. If everyone else at this shipwreck of a hotel did their job as well, my review would have been much different. Stay away from this entrance into the pit of Hades my friends. There is a boogeyman and he can be found in the showers of the 3rd floor of this Dante's inferno.More</t>
+  </si>
+  <si>
+    <t>Larry F</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r493641732-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
@@ -712,6 +775,9 @@
 The bed was comfortable.  Another reviewer mentions thumping noises from overhead guest rooms and we can attest that this is an annoying problem, constant until they go to bed. Wifi is free and slow with only email...Where to start this review?  I stay in 16 Hotel rooms per month all around the world as an International Airline Captain.  In my opinion, This place does not deserve your business.  The reservation process was sketchy with the front desk saying they were sold out.  The national reservation representative said she showed some availability, but confirmed with the front desk that they were sold out as well WHILE I simultaneously booked two rooms online.  Go figure! That's just the beginning.  The ground transportation shuttle (Which is supposed to meet every ferry) is essential because the hotel is way up the canyon approximately two miles from the ferry dock.  We had to call twice and got the typical "He's on his way..." from the front desk.Our rooms were not clean.  One had over twenty empty beer and empty water bottles in our room that had never been collected or removed by housekeeping.  Surfaces of our dresser and night tables were soiled.  One room had the AC running and the thermostat showed 63 degrees....it was colder than a meat locker in that room.  The rooms had not been thoroughly cleaned and we found a toothpick from a previous guest, etc. (See my pictures)The bed was comfortable.  Another reviewer mentions thumping noises from overhead guest rooms and we can attest that this is an annoying problem, constant until they go to bed. Wifi is free and slow with only email or website checking capability.  The shower pan in the bathroom is loose and you will drop an inch standing in the right side.Spending over $1100.00 for two rooms for two nights you might expect that your room would at least be serviced and cleaned before 5 PM your second day there.  We had spent the day sightseeing and were very disappointed to return to unserviced rooms.  We had to muster the housekeeper and her supervisor to get service.....apparently they are way understaffed.  To cap this all off we complained to the front desk and asked to speak to the General Manager.  They never contacted the GM even after repeated requests.  The front desk was indifferent every time we asked questions or raised concerns.  Our request to have a late checkout of 1 PM instead of 11 AM was flatly and repeatedly denied,even for just one of our rooms.  You might assume that if they can't clean a room until 5 PM that staying just two hours past 11 AM wouldn't be a hardship but you would be wrong.We ate in their onsite restaurant and the wait staff is disorganized and forgot about us.  We sat there after the hostess seated us and thereafter nobody brought us menus or even checked on us.  This is a very small restaurant so it amazes us that the wait staff could walk by us so many times and never acknowledge us until we flagged them down.  The food was good.We mentioned to several staff members that we are IHG Members and long time experienced TripAdvisor reviewers (Almost 400 Reviews) and gave them an opportunity to address our concerns and requests and were ignored anyway.  Attention: Ophelia, the Front Desk Manager:  No response you can write can cover the poor experience and poor value we experienced during this stay.  Your staff stonewalled us and couldn't care less about our concerns or requests.  Nobody ever offered even an apology or sympathy for the cleanliness issues in our room.  Apparently it's okay to leave empty beer bottles in the room for subsequent guests.Wow!  If you want a nice stay in Avalon, Catalina, BOOK somewhere else!More</t>
   </si>
   <si>
+    <t>Art M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r484516199-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -739,6 +805,9 @@
     <t>I reviewed a bunch of hotels before choosing Holiday Inn. This is a bit off the path but that makes it great because you don't have so much foot traffic. We upgraded our room since I did hear some negative feedback on the standard rooms and we were very impressed. It was a very nice room, large bathroom, a tub and a stand up shower. It has a Santa Barbara feel to it. Great court yard to sit out in, well lit late at night. The pool was great and the hot tub was perfect when it got later. They have their own shuttle that will pick you up from the Port, it comes up and down the hill every 30 mins. So after we checked in we had them drive us back down the hill, then they came back and picked us up. We also noticed that they were repainting several of the rooms. Very modern feel!More</t>
   </si>
   <si>
+    <t>max1111111</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r482389351-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -763,6 +832,9 @@
     <t>My wife and I visited Avalon, Santa Catalina, CA for two days this month.  We checked in to the Holiday Inn Resort, asked the desk clerk for a room facing toward the ocean (even though it could not be seen).  The clerk said none was available.  He assigned us a room over the swimming pool.  The only problem with the room (403) is that the shower was extremely slow to drain.  I did not like standing in almost ankle deep water while showering.  When we made our reservations, the website said the hotel had both a restaurant and bar which we appreciated since my wife is unable to walk long distances.  After checking in, we were advised that the restaurant and bar were closed on Tuesday and Wednesday, the nights of our stay.  This should have been disclosed on its website.  As it was we had to take the hotel shuttle to/from downtown Avalon and then "walk" to a restaurant.  If we had known, we would have stayed in Avalon proper.  Also, the desk clerk telling us nothing was available on the top floor toward the ocean/Avalon was a ridiculous statement.  The hotel was almost deserted during our stay.  I asked the desk clerk one evening if we could get some coffee packets and he said he would sent them up when housekeeping gets back from "break."  I came back about 45 minutes later and asked about the coffee and...My wife and I visited Avalon, Santa Catalina, CA for two days this month.  We checked in to the Holiday Inn Resort, asked the desk clerk for a room facing toward the ocean (even though it could not be seen).  The clerk said none was available.  He assigned us a room over the swimming pool.  The only problem with the room (403) is that the shower was extremely slow to drain.  I did not like standing in almost ankle deep water while showering.  When we made our reservations, the website said the hotel had both a restaurant and bar which we appreciated since my wife is unable to walk long distances.  After checking in, we were advised that the restaurant and bar were closed on Tuesday and Wednesday, the nights of our stay.  This should have been disclosed on its website.  As it was we had to take the hotel shuttle to/from downtown Avalon and then "walk" to a restaurant.  If we had known, we would have stayed in Avalon proper.  Also, the desk clerk telling us nothing was available on the top floor toward the ocean/Avalon was a ridiculous statement.  The hotel was almost deserted during our stay.  I asked the desk clerk one evening if we could get some coffee packets and he said he would sent them up when housekeeping gets back from "break."  I came back about 45 minutes later and asked about the coffee and the clerk said housekeeping still on break.  We waited over one hour and nothing.  I found a maintenance person and asked him if he could assist and he said yes.  He went straight to the housekeeping room and handed me several coffeee cups.  The housekeeper never made it to our room.  As a member of the Holiday Inn Priority Club, and a patron of Holiday Inn for years, this was the most unpleasant stay we have encountered at a Holiday Inn.  I would not stay at this hotel again but would stay in Avalon proper. As stated, the evening clerk was most unaccommodating.More</t>
   </si>
   <si>
+    <t>Estella M V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r471698610-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -787,6 +859,9 @@
     <t>It was very nice.  A bit worn on the outside of the room hallways, but of course the weather has a lot to do with that.  The room was very, very clean, I loved the patio area.  My grandaughters loved the pool and jacuzzi.  The restaurant service was slow, only one waiter, but the food was great.  They substituted Orange Juice for Tampico which isn't even close to Orange Juice.  Overall, it was very nice.More</t>
   </si>
   <si>
+    <t>Mike M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r461039721-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -814,6 +889,9 @@
     <t>rooms were clean and comfortable. Beds are comfortable. Staff was very nice and helpful. Shuttle driver was an awesome guy. We arrived very early and was checked in quickly. Rooms are spacious and also had a balcony. Will stay here next timeMore</t>
   </si>
   <si>
+    <t>Richard B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r459251045-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -838,6 +916,9 @@
     <t>One of the most affordable and possibly picturesque hotels on Catalina Island is the former Catalina Canyon Resort. The pluses include having a place to stay that is away from the hustle/bustle of Avalon, it has one of the Islands only swimming pools, the grounds are attractive and the landscaping is outstanding. It has a decent restaurant but the hours are somewhat limited. I have given it a 3 star because of the limited transportation options between the Avalon waterfront and the hotel. The walk back is about a mile of uphill which is taxing especially after a night on the town. There is a hotel shuttle but the wait can be up to 45 minutes and sometimes there is not enough room for everyone and the service stops at 9 pm. There are also taxis but they are expensive.I would recommend that the hotel provide golf carts for guests at a reasonable rate.  More</t>
   </si>
   <si>
+    <t>Debbie W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r458293732-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -862,6 +943,9 @@
     <t>Stayed at this facility years ago and what a difference. The hotel has gone through a total renovation. Affordable, clean, excellent service, good for that special occasion, business, pleasure or just a get away. Enjoy!!! More</t>
   </si>
   <si>
+    <t>Codee H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r450203659-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -883,6 +967,9 @@
     <t>When we first arrived on the island, the shuttle to the hotel had just left. We called the hotel and they were quick and happy to send another.The hotel room was very clean and the bed was very comfortable. A microwave, keurig, and refrigerator were provided in the room. Only being a 10 minute walk from town, the secluded location offered a nice atmosphere for a weekend getaway.More</t>
   </si>
   <si>
+    <t>Graphmaster</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r448897418-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -899,6 +986,9 @@
   </si>
   <si>
     <t>First, when our boat landed we were guaranteed - ahead of time - that a shuttle would pick us up at the dock.  No shuttle was there so we tried calling the hotel, unsuccessfully, for thirty minutes.  We finally called a cab.  We get to the hotel and are told the driver was there and that we weren't.  Later, when going to dinner, I asked the driver and he said they told him to take lunch then.  They said they didn't answer because their phones were down, which was the truth as we didn't have phones for over a day.   They did refund me $15 of $20 for the cab.  Our rooms were average, but they didn't have enough coffee or any creamer for two people on the rooms.  The night wasn't restful because of the people above us, three rooms complained and the hotel didn't do anything until about 10:30 at night when we complained for the third or fourth time.   Those people checked out and the staff was nice enough not to put anyone above us the next night.  The wifi was slow as molasses and unusable.  The restaurant was never open (remodeling) and the hot tub was out of service.   These are all things we should have been told or given a discount because of these issues.  I am giving it two stars because the staff was nice about half the time and the rooms that opened...First, when our boat landed we were guaranteed - ahead of time - that a shuttle would pick us up at the dock.  No shuttle was there so we tried calling the hotel, unsuccessfully, for thirty minutes.  We finally called a cab.  We get to the hotel and are told the driver was there and that we weren't.  Later, when going to dinner, I asked the driver and he said they told him to take lunch then.  They said they didn't answer because their phones were down, which was the truth as we didn't have phones for over a day.   They did refund me $15 of $20 for the cab.  Our rooms were average, but they didn't have enough coffee or any creamer for two people on the rooms.  The night wasn't restful because of the people above us, three rooms complained and the hotel didn't do anything until about 10:30 at night when we complained for the third or fourth time.   Those people checked out and the staff was nice enough not to put anyone above us the next night.  The wifi was slow as molasses and unusable.  The restaurant was never open (remodeling) and the hot tub was out of service.   These are all things we should have been told or given a discount because of these issues.  I am giving it two stars because the staff was nice about half the time and the rooms that opened to the courtyard were nice and easy to relax in.  We have determined this will not be a destination hotel in the future.More</t>
+  </si>
+  <si>
+    <t>Jim S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r448857887-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
@@ -945,6 +1035,9 @@
 THE BAD:
 Shuttle Service:
 Let's start with the call I made to the hotel a couple of days before our travel asking how we get from the ferry docks to the hotel. They said no need to call - not to worry, the hotel shuttle knows when all the ferry's arrive and it will be there waiting for us... How nice! So, it happens to be raining on arrival day and here we are waiting 30 minutes for the shuttle. All calls to the hotel now go un-answered. We end up taking a taxi. Upon arrival to the hotel, we naturally complain to the staff...Wouldn't stay here again... Where to start?...For those that don't want to read this long novel I ended up typing while on my last day of vacation, I'll summarize with this: The hotel does have some nice things about it, like a comfortable bed and nice hot showers, but that's about it. I wouldn't call this place a "resort" though and it's definitely not up to the Holiday Inn standards I expected. The staff, for the most part was nice, but slow to respond and very defensive to complaints - as if they didn't believe me...No restaurantNo breakfastNo hot tubIce cold poolThin wallsHot (or cold) room (no thermostat)Spotty shuttle serviceTHE GOOD:Comfortable beds, somewhat clean room, nice hot showers, friendly staff. Sorry, that's about it. :-(THE BAD:Shuttle Service:Let's start with the call I made to the hotel a couple of days before our travel asking how we get from the ferry docks to the hotel. They said no need to call - not to worry, the hotel shuttle knows when all the ferry's arrive and it will be there waiting for us... How nice! So, it happens to be raining on arrival day and here we are waiting 30 minutes for the shuttle. All calls to the hotel now go un-answered. We end up taking a taxi. Upon arrival to the hotel, we naturally complain to the staff at the front desk and they say that their phones are down. We ask for our $20 taxi refund (which the taxi driver said we should do) and the front desk guy says that he radioed the driver and the driver said he WAS there waiting for us, so no refund! I called "BS". If we were there, and he was there, how could we miss each other? it's a SMALL dock! But, whatever. Anyway, we are early (it's noon) so we check in and leave our luggage, but we can't get the room until 4pm so we decide to have lunch while we wait... Can't have lunch here, the hotel restaurant is closed for the season! So, we have no other option but to go back to town. Guess what! the hotel shuttle is outside so we get in and ask the driver on the way down the hill why he wasn't there to pick us up when we got off the ferry and he said he had to take lunch at that time he was supposed to pick us up! So he WASN'T there! Now, someone's lying... They did end up refunding us only $15 (not all $20) after calling them out on it.So, we walk around town for a couple of hours, we have lunch and then go to the "shuttle" stop to wait for the shuttle again (which is supposed to be every 15 to 30 minutes). 20 minutes go by... 30 minutes... we try to call the hotel, but still no answer. so we walk back to the hotel. At least without luggage, walking was an option. In the end, over the course of the 3 days there, we probably went to town 5 times and only found the shuttle twice or three times. One time, it was full and said it would have to come back to pick us up. We didn't wait, we walked.The Beds:The mattresses are nice, but about a foot smaller than the bed frames so expect a lot of bruises on the shins by the end of the stay. And my side of the bed was about 6 inches from the wall. Made for interesting exits when tired in the mornings and had to crawl in from the foot of the bed. For me the beds were very comfortable (my wife begs to differ, but mattresses did seem firm and new). The Room Heater:The heater works GREAT! In fact, too good. There is no thermostat so it's either on or off. Even on low it would super heat up the room so we'd have to turn it to vent, but then the room would get super cold so we'd have to turn it back to heat every now and then. Not so bad and not so often... unless you're trying to sleep!The Shower:Beautiful glass showers, nice shower heads and endless hot water. Ok, I tried to take 5 minute showers, but I think they went a little longer. The bad part is that all that white grout is turning black with mildew. I'm not sure if they are not allowed to use bleach or if they just don't know that a little bleach will go a long way in keeping those showers looking beautiful.While on the subject of the bathroom, I should mention that the vanity lighting, although really cool with the lights around the mirror), is very bad. Not bright enough at all.The Amenities:This is a “resort”, right? No restaurant, not hot tub, ice cold pool, no breakfast, no... ok, so there are no amenities. Maybe a workout room. I read somewhere that they have a fitness facility but I didn't see or use it. They also have a ping pong table, but we couldn't find where they keep the ball and paddles.THE UGLY!The BANGING! The constant Banging!!!!So, (back to check-in – day one) we get back to the hotel and the rooms are ready! We asked for adjoining rooms or at least rooms close together. They gave us rooms close together on the first floor, but not adjoining rooms. We asked if either of the flip side rooms that -was- an adjoining room was available and they said yes and switched us. But why didn't they just put us in adjoining rooms to begin with? As soon as we get into our rooms we hear the banging and running and jumping from the kids in the room above us. Non-stop, they kids were having a blast, but the noise in our rooms was insane! It was like a freight train above us, constantly! We couldn't really tell what room the banging was coming from, it was all over, everywhere. We could here it the same in both rooms. Remember, this is around 4pm, check-in time... 2 hours later, the banging never stopped. We left the noise behind as we went to town for dinner (ended up walking both ways). We came back around 9pm and those kids (I'm assuming kids) were still fully energized and running all over. Our friends in the adjoining room went to complain twice (actually, once before dinner), but it never stopped. Finally, at 10:30, I went to complain and within 15 minutes, it FINALLY stopped. For this part, I know, the staff may not to be blamed, they probably did go and tell the rooms above to be quite and finally threatened them at 10:30. And I realize that they never know what kind of people they are putting in rooms. So this complaint is that the floors do seem to be very thin (thinner than the walls even!), so if you do stay here, opt not for the patio rooms, but for a TOP floor room if you want a good nights sleep.The next day we told the front desk that they HAVE to move us, but they said that the people above had checked out and they promised not to put anyone above us for the rest of our stay. It was blissful not to hear constant banging and running the next night.No Coffee!?Day two (checked in the day before), we are getting up early because we have an early morning dive! I go to make coffee and there ISN'T any! They have those cool Keurig coffee machines, but no coffee, no cream, or sugar. I figure they've gotta have coffee in the lobby then! So I go to the lobby with my coffee cup and ask where the coffee is and I'm told they -don't- have coffee in the lobby, but that it's in the room! I tell the guy that there was no coffee in the room and he gives me that “yah, right!” look. So I ask him, if there is no coffee in the room, and there is no coffee in the lobby, HOW AM I SUPPOSED TO GET MY COFFEE!!??!! Mind you,  I NEED MY COFFEE! I'm not sure if he thought I was lying at first, but by now he realized he'd better solve the problem QUICK and gave me two Keurig pods (or whatever you call them). No sugar, no cream, but that's ok, at least I got my coffee.More</t>
+  </si>
+  <si>
+    <t>amfancy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r438202132-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
@@ -1476,34 +1569,38 @@
       <c r="A2" t="n">
         <v>19503</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>193165</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
@@ -1520,56 +1617,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>19503</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>193166</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1587,56 +1688,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>19503</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>8300</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1648,56 +1753,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>19503</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>193167</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1715,56 +1824,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>19503</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>193168</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1780,56 +1893,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>19503</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>193169</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1841,56 +1958,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>19503</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>20503</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1906,56 +2027,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>19503</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>193170</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1971,56 +2096,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="X9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>19503</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>10808</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2038,56 +2167,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>19503</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>12433</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2103,56 +2236,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>19503</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>193171</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2164,56 +2301,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>19503</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>193172</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="O13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2229,56 +2370,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="X13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>19503</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>64967</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2290,56 +2435,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="X14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Y14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>19503</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>193173</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2357,56 +2506,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="X15" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>19503</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>29546</v>
+      </c>
+      <c r="C16" t="s">
+        <v>180</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="J16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="K16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2424,56 +2577,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="X16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="Y16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>19503</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>66894</v>
+      </c>
+      <c r="C17" t="s">
+        <v>189</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="K17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2485,56 +2642,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="X17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Y17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>19503</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>193174</v>
+      </c>
+      <c r="C18" t="s">
+        <v>198</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="O18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2550,56 +2711,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="X18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="Y18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>19503</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>193175</v>
+      </c>
+      <c r="C19" t="s">
+        <v>208</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="J19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="K19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -2617,56 +2782,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="X19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="Y19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19503</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>193176</v>
+      </c>
+      <c r="C20" t="s">
+        <v>217</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="J20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="K20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -2682,56 +2851,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="X20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="Y20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>19503</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>193177</v>
+      </c>
+      <c r="C21" t="s">
+        <v>226</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="J21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="K21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="L21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="O21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -2749,56 +2922,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="X21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="Y21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>19503</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>55667</v>
+      </c>
+      <c r="C22" t="s">
+        <v>236</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="J22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="K22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="L22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="O22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2810,56 +2987,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="X22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="Y22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>19503</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>20087</v>
+      </c>
+      <c r="C23" t="s">
+        <v>245</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="J23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="K23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="L23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="O23" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -2877,56 +3058,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="X23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="Y23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>19503</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>97759</v>
+      </c>
+      <c r="C24" t="s">
+        <v>255</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="J24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="K24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="L24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="O24" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -2942,56 +3127,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="X24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="Y24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>19503</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>193178</v>
+      </c>
+      <c r="C25" t="s">
+        <v>264</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="J25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="K25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="L25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="O25" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3007,56 +3196,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="X25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="Y25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>19503</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>3220</v>
+      </c>
+      <c r="C26" t="s">
+        <v>273</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="J26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="K26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="L26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="O26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3068,47 +3261,51 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="X26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="Y26" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>19503</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>1369</v>
+      </c>
+      <c r="C27" t="s">
+        <v>283</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="J27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="K27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="L27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
@@ -3125,56 +3322,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="X27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="Y27" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>19503</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>9540</v>
+      </c>
+      <c r="C28" t="s">
+        <v>292</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="J28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="K28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="L28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="O28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3186,56 +3387,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="X28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="Y28" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>19503</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>193179</v>
+      </c>
+      <c r="C29" t="s">
+        <v>301</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="J29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="K29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="L29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="O29" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3253,56 +3458,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="X29" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="Y29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>19503</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>193180</v>
+      </c>
+      <c r="C30" t="s">
+        <v>309</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="J30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="K30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="L30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="O30" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3316,50 +3525,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>19503</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>2907</v>
+      </c>
+      <c r="C31" t="s">
+        <v>316</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="J31" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="K31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="L31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="O31" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3379,50 +3592,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>19503</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>193181</v>
+      </c>
+      <c r="C32" t="s">
+        <v>323</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="J32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="K32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="L32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="O32" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -3440,13 +3657,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="X32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="Y32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_388.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_388.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="497">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,154 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>kathyh303</t>
-  </si>
-  <si>
-    <t>07/04/2018</t>
+    <t>09/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r609866665-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>29121</t>
+  </si>
+  <si>
+    <t>78761</t>
+  </si>
+  <si>
+    <t>609866665</t>
+  </si>
+  <si>
+    <t>08/24/2018</t>
+  </si>
+  <si>
+    <t>The shuttle was the best!!!</t>
+  </si>
+  <si>
+    <t>We were able to stay in the suite and oh my goodness!!! It was beautiful; we had TWO BALCONIES!!! The staff was very friendly and helpful; the shuttle guys were the best (Thanks Juan, Rueben, etc!), we got so much use out of it. Even though it’s a bit far from the downtown area, the shuttle really helps out. We enjoyed our stay and recommend the restaurant for a lovely breakfast. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>ocasillas, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>We were able to stay in the suite and oh my goodness!!! It was beautiful; we had TWO BALCONIES!!! The staff was very friendly and helpful; the shuttle guys were the best (Thanks Juan, Rueben, etc!), we got so much use out of it. Even though it’s a bit far from the downtown area, the shuttle really helps out. We enjoyed our stay and recommend the restaurant for a lovely breakfast. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r561610084-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>561610084</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>Very comfortable hotel in the foothills of Avalon</t>
+  </si>
+  <si>
+    <t>We luckily booked a 2-queen room for a long weekend using IHG points. (This hotel usually has no available reward nights on weekends.) We're a family of 4.  
+The room was updated and comfortable, photos in website are accurate. My daughter noted that the room is "smaller" than usual Holiday Inn hotels, but we know space is a premium in this island. Bathroom only has a shower, no tub. Everything working in the room, wi-fi slow though. Staff all very helpful and pleasant. Onsite convenience shop has a lot of snacks, refrigerated entrees, drinks, wine (pricey but saves you a trip to town when you're worn out). Restaurant onsite Seaport Bistro is relaxed, breakfast food is standard and costs the same as the restaurants in town. They only open for breakfast on weekends and dinner some weeknights (we didn't try dinner). The hotel gave us a free kid's breakfast coupon; I was told they also give out a free kid's dinner coupon. 
+The hotel has 2 shuttles--each carries 6 passengers max--that pick up guests arriving at the Avalon dock. Same shuttles bring guests to the "town," specifically at the bus stop along Catalina Avenue; pick up is in the same location. Our own wait times for the shuttles is around 10-15 minutes, likely longer when tourist season is in full swing. Hiking to the hotel from the town dropoff takes 12 minutes at a leisurely pace (some uphill); hiking downhill...We luckily booked a 2-queen room for a long weekend using IHG points. (This hotel usually has no available reward nights on weekends.) We're a family of 4.  The room was updated and comfortable, photos in website are accurate. My daughter noted that the room is "smaller" than usual Holiday Inn hotels, but we know space is a premium in this island. Bathroom only has a shower, no tub. Everything working in the room, wi-fi slow though. Staff all very helpful and pleasant. Onsite convenience shop has a lot of snacks, refrigerated entrees, drinks, wine (pricey but saves you a trip to town when you're worn out). Restaurant onsite Seaport Bistro is relaxed, breakfast food is standard and costs the same as the restaurants in town. They only open for breakfast on weekends and dinner some weeknights (we didn't try dinner). The hotel gave us a free kid's breakfast coupon; I was told they also give out a free kid's dinner coupon. The hotel has 2 shuttles--each carries 6 passengers max--that pick up guests arriving at the Avalon dock. Same shuttles bring guests to the "town," specifically at the bus stop along Catalina Avenue; pick up is in the same location. Our own wait times for the shuttles is around 10-15 minutes, likely longer when tourist season is in full swing. Hiking to the hotel from the town dropoff takes 12 minutes at a leisurely pace (some uphill); hiking downhill from the hotel is faster/easier. Walking back and forth was no hardship, though we did use the shuttles when we found them available.For families with children and pets, this is a very comfortable hotel. As it is in the foothills, it occurred to us to explore further than the main oceanfront spots. We rented a golf cart and drove everywhere. We also walked in the surrounding areas. A group of 4 deer crossed in front of us, on the footpath beside the hotel. This was a very fun trip for us, and the hotel stay made it very pleasant. It is not an impressive "resort" in the usual sense, but it's an excellent hotel for its category. Besides, Avalon is a big resort already!  MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn Res... C, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded February 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2018</t>
+  </si>
+  <si>
+    <t>We luckily booked a 2-queen room for a long weekend using IHG points. (This hotel usually has no available reward nights on weekends.) We're a family of 4.  
+The room was updated and comfortable, photos in website are accurate. My daughter noted that the room is "smaller" than usual Holiday Inn hotels, but we know space is a premium in this island. Bathroom only has a shower, no tub. Everything working in the room, wi-fi slow though. Staff all very helpful and pleasant. Onsite convenience shop has a lot of snacks, refrigerated entrees, drinks, wine (pricey but saves you a trip to town when you're worn out). Restaurant onsite Seaport Bistro is relaxed, breakfast food is standard and costs the same as the restaurants in town. They only open for breakfast on weekends and dinner some weeknights (we didn't try dinner). The hotel gave us a free kid's breakfast coupon; I was told they also give out a free kid's dinner coupon. 
+The hotel has 2 shuttles--each carries 6 passengers max--that pick up guests arriving at the Avalon dock. Same shuttles bring guests to the "town," specifically at the bus stop along Catalina Avenue; pick up is in the same location. Our own wait times for the shuttles is around 10-15 minutes, likely longer when tourist season is in full swing. Hiking to the hotel from the town dropoff takes 12 minutes at a leisurely pace (some uphill); hiking downhill...We luckily booked a 2-queen room for a long weekend using IHG points. (This hotel usually has no available reward nights on weekends.) We're a family of 4.  The room was updated and comfortable, photos in website are accurate. My daughter noted that the room is "smaller" than usual Holiday Inn hotels, but we know space is a premium in this island. Bathroom only has a shower, no tub. Everything working in the room, wi-fi slow though. Staff all very helpful and pleasant. Onsite convenience shop has a lot of snacks, refrigerated entrees, drinks, wine (pricey but saves you a trip to town when you're worn out). Restaurant onsite Seaport Bistro is relaxed, breakfast food is standard and costs the same as the restaurants in town. They only open for breakfast on weekends and dinner some weeknights (we didn't try dinner). The hotel gave us a free kid's breakfast coupon; I was told they also give out a free kid's dinner coupon. The hotel has 2 shuttles--each carries 6 passengers max--that pick up guests arriving at the Avalon dock. Same shuttles bring guests to the "town," specifically at the bus stop along Catalina Avenue; pick up is in the same location. Our own wait times for the shuttles is around 10-15 minutes, likely longer when tourist season is in full swing. Hiking to the hotel from the town dropoff takes 12 minutes at a leisurely pace (some uphill); hiking downhill from the hotel is faster/easier. Walking back and forth was no hardship, though we did use the shuttles when we found them available.For families with children and pets, this is a very comfortable hotel. As it is in the foothills, it occurred to us to explore further than the main oceanfront spots. We rented a golf cart and drove everywhere. We also walked in the surrounding areas. A group of 4 deer crossed in front of us, on the footpath beside the hotel. This was a very fun trip for us, and the hotel stay made it very pleasant. It is not an impressive "resort" in the usual sense, but it's an excellent hotel for its category. Besides, Avalon is a big resort already!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r605122854-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>605122854</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rather  tired </t>
+  </si>
+  <si>
+    <t>For  the money we paid, we would’ve expected a resort that wasn’t so tired looking, with stains on the rugs and really kind of dirty. Also I called front desk our first night, to ask that housekeeping remove the cigarette butts from our balcony, obviously from a previous guest, and they never did. The best thing was the van service to and from the middle of town. The drivers were efficient and super friendly.  If you do stay there, make sure you take their van service from the ferry! They seem close but there’s a steep hill and it’s brutal with your luggage.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>ocasillas, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>For  the money we paid, we would’ve expected a resort that wasn’t so tired looking, with stains on the rugs and really kind of dirty. Also I called front desk our first night, to ask that housekeeping remove the cigarette butts from our balcony, obviously from a previous guest, and they never did. The best thing was the van service to and from the middle of town. The drivers were efficient and super friendly.  If you do stay there, make sure you take their van service from the ferry! They seem close but there’s a steep hill and it’s brutal with your luggage.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r600312685-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>600312685</t>
+  </si>
+  <si>
+    <t>07/27/2018</t>
+  </si>
+  <si>
+    <t>Lovely stay in Avalon</t>
+  </si>
+  <si>
+    <t>I booked a last minute stay at the Holiday Inn with my parents who were visiting from out of state so we could escape the SoCal heat wave. The shuttle arrived shortly after we arrived at the ferry terminal which was convenient because it is a bit of an uphill hike (doable but if you have bags wait for the shuttle). The driver was very friendly and we had a nice chat on our way to the hotel.  Ophelia greeted us at reception and she  couldn't have been nicer! We arrived early so we could maximize the day and only hoping to store our luggage but a room was available (even better than the room we had booked that was the only room available since we booked last minute) and Ophelia took the time to check us in early.  Thanks again Ophelia!  We had a room on the 4th floor by the road. I think I would prefer to be back there because it was quiet but there may be better views on the other side by the pool. The room was clean and had a nice patio sitting area that I wish we had more time to enjoy.  We spent most of the day out and about enjoying the town but did come back late afternoon for some pool and hot tub time. The pool area was nice with loungers and a couple tables with umbrellas. In my opinion,...I booked a last minute stay at the Holiday Inn with my parents who were visiting from out of state so we could escape the SoCal heat wave. The shuttle arrived shortly after we arrived at the ferry terminal which was convenient because it is a bit of an uphill hike (doable but if you have bags wait for the shuttle). The driver was very friendly and we had a nice chat on our way to the hotel.  Ophelia greeted us at reception and she  couldn't have been nicer! We arrived early so we could maximize the day and only hoping to store our luggage but a room was available (even better than the room we had booked that was the only room available since we booked last minute) and Ophelia took the time to check us in early.  Thanks again Ophelia!  We had a room on the 4th floor by the road. I think I would prefer to be back there because it was quiet but there may be better views on the other side by the pool. The room was clean and had a nice patio sitting area that I wish we had more time to enjoy.  We spent most of the day out and about enjoying the town but did come back late afternoon for some pool and hot tub time. The pool area was nice with loungers and a couple tables with umbrellas. In my opinion, the loungers could be updated a bit but they were comfortable. The pool and hot tub were clean and I noticed a worker checking in to make sure towels were stocked. He was also kind enough to turn the hot tub bubbles on for me when they turned off. The pool got pretty crowded late afternoon with a mix of families and men working on the island and staying at the hotel but everyone was respectable and just enjoying the beautiful weather. The restaurant was open for dinner and we read the chef had great reviews but the menu didn't interest us and we wanted to eat in town so I can't comment on the food.  I didn't go into the restaurant but my mom said there was also a little bar if you just wanted a drink. In addition to the restaurant, there is a nice selection of food and drinks to purchase in reception. I would suggest picking up snacks and food at the Von's in town if you are staying for a few days. Some con's for me for this hotel would be some of the added charges. I understand there are limited places to stay in Avalon so it is to be expected prices will be a bit higher during high season, however, they do charge 10$ extra for each person after the second adult. It may just apply to adults but double check if you are a family 2+. The other charge that I feel was a bit steep  is the "resort" fee. I believe that fee was 49$. I assume that fee goes toward free wifi, towels at the pool, and shuttle service. I have stayed at hotels and paid a lower fee at places that had more ammenities and maybe there were more things available but we weren't aware??  I think if you are going to charge a resort fee, you should offer more resort ammenities (nicer pool towels, bar/restaurant service during pool hours, activities, etc.) . The only other suggestion would be to offer one additional nightly shuttle from town. The last pickup is at 1045 and although the town quiets down in the evening, there were still bars/restaurants with music and activity still going into the later evening hours.  Overall, we had a fabulous stay at the Holiday Inn and absolutely loved our short little stay in Avalon. Rent a golf cart, drink a Buffalo Milk, and enjoy the town!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>ocasillas, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded July 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2018</t>
+  </si>
+  <si>
+    <t>I booked a last minute stay at the Holiday Inn with my parents who were visiting from out of state so we could escape the SoCal heat wave. The shuttle arrived shortly after we arrived at the ferry terminal which was convenient because it is a bit of an uphill hike (doable but if you have bags wait for the shuttle). The driver was very friendly and we had a nice chat on our way to the hotel.  Ophelia greeted us at reception and she  couldn't have been nicer! We arrived early so we could maximize the day and only hoping to store our luggage but a room was available (even better than the room we had booked that was the only room available since we booked last minute) and Ophelia took the time to check us in early.  Thanks again Ophelia!  We had a room on the 4th floor by the road. I think I would prefer to be back there because it was quiet but there may be better views on the other side by the pool. The room was clean and had a nice patio sitting area that I wish we had more time to enjoy.  We spent most of the day out and about enjoying the town but did come back late afternoon for some pool and hot tub time. The pool area was nice with loungers and a couple tables with umbrellas. In my opinion,...I booked a last minute stay at the Holiday Inn with my parents who were visiting from out of state so we could escape the SoCal heat wave. The shuttle arrived shortly after we arrived at the ferry terminal which was convenient because it is a bit of an uphill hike (doable but if you have bags wait for the shuttle). The driver was very friendly and we had a nice chat on our way to the hotel.  Ophelia greeted us at reception and she  couldn't have been nicer! We arrived early so we could maximize the day and only hoping to store our luggage but a room was available (even better than the room we had booked that was the only room available since we booked last minute) and Ophelia took the time to check us in early.  Thanks again Ophelia!  We had a room on the 4th floor by the road. I think I would prefer to be back there because it was quiet but there may be better views on the other side by the pool. The room was clean and had a nice patio sitting area that I wish we had more time to enjoy.  We spent most of the day out and about enjoying the town but did come back late afternoon for some pool and hot tub time. The pool area was nice with loungers and a couple tables with umbrellas. In my opinion, the loungers could be updated a bit but they were comfortable. The pool and hot tub were clean and I noticed a worker checking in to make sure towels were stocked. He was also kind enough to turn the hot tub bubbles on for me when they turned off. The pool got pretty crowded late afternoon with a mix of families and men working on the island and staying at the hotel but everyone was respectable and just enjoying the beautiful weather. The restaurant was open for dinner and we read the chef had great reviews but the menu didn't interest us and we wanted to eat in town so I can't comment on the food.  I didn't go into the restaurant but my mom said there was also a little bar if you just wanted a drink. In addition to the restaurant, there is a nice selection of food and drinks to purchase in reception. I would suggest picking up snacks and food at the Von's in town if you are staying for a few days. Some con's for me for this hotel would be some of the added charges. I understand there are limited places to stay in Avalon so it is to be expected prices will be a bit higher during high season, however, they do charge 10$ extra for each person after the second adult. It may just apply to adults but double check if you are a family 2+. The other charge that I feel was a bit steep  is the "resort" fee. I believe that fee was 49$. I assume that fee goes toward free wifi, towels at the pool, and shuttle service. I have stayed at hotels and paid a lower fee at places that had more ammenities and maybe there were more things available but we weren't aware??  I think if you are going to charge a resort fee, you should offer more resort ammenities (nicer pool towels, bar/restaurant service during pool hours, activities, etc.) . The only other suggestion would be to offer one additional nightly shuttle from town. The last pickup is at 1045 and although the town quiets down in the evening, there were still bars/restaurants with music and activity still going into the later evening hours.  Overall, we had a fabulous stay at the Holiday Inn and absolutely loved our short little stay in Avalon. Rent a golf cart, drink a Buffalo Milk, and enjoy the town!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r592878736-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>592878736</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t>Difficult venue in Avalon</t>
+  </si>
+  <si>
+    <t>The room and facility and staff are fine but the location is 1000 feet straight up from the town and limited shuttle access. Almost impossible if you are not completely fit.  If you are able and up for a lot of walking, or want to pay for cabs or golf carts, it is a nice quiet place.  Right next to the golf course.  MoreShow less</t>
+  </si>
+  <si>
+    <t>ocasillas, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded July 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2018</t>
+  </si>
+  <si>
+    <t>The room and facility and staff are fine but the location is 1000 feet straight up from the town and limited shuttle access. Almost impossible if you are not completely fit.  If you are able and up for a lot of walking, or want to pay for cabs or golf carts, it is a nice quiet place.  Right next to the golf course.  More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r587528302-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
-    <t>29121</t>
-  </si>
-  <si>
-    <t>78761</t>
-  </si>
-  <si>
     <t>587528302</t>
   </si>
   <si>
@@ -177,18 +310,15 @@
     <t>You won't be able to stumble home to your hotel after drinking all night at Luah Larry's so prepare to take the shuttle or a cab to the Holiday Inn.  At least you will have a nice room, great food at the restaurant, and an isolated resort with a pool.  We book here because the other hotels on Catalina Island are not normal hotels.  They require a full deposit, you pay fees if you have to cancel, and they have tiny rooms with NO AIR CONDITIONING!  You also can't get two queen beds and you won't have a pool for the kids to play in.  The chef is awesome, worth the Sunday brunch or dinner at night.  Sometimes you can book for one night, which is a huge bonus.MoreShow less</t>
   </si>
   <si>
-    <t>ocasillas, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>ocasillas, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded June 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2018</t>
   </si>
   <si>
     <t>You won't be able to stumble home to your hotel after drinking all night at Luah Larry's so prepare to take the shuttle or a cab to the Holiday Inn.  At least you will have a nice room, great food at the restaurant, and an isolated resort with a pool.  We book here because the other hotels on Catalina Island are not normal hotels.  They require a full deposit, you pay fees if you have to cancel, and they have tiny rooms with NO AIR CONDITIONING!  You also can't get two queen beds and you won't have a pool for the kids to play in.  The chef is awesome, worth the Sunday brunch or dinner at night.  Sometimes you can book for one night, which is a huge bonus.More</t>
   </si>
   <si>
-    <t>flgirly</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r587283767-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -213,9 +343,6 @@
     <t>Stayed for 2 nights and there was 4 of us. The room was very nice, clean and comfortable. The four of us never felt overcrowded. Loved that there was a balcony!  Check in was super easy and front desk clerk was friendly. I didn't really like the food at the restaurant in the hotel other than the fries. We tried the chicken wings, and calamari  and neither one was good. Drinks we good though and the the staff was friendly. The pool is big enough. I appreciated the complimentary shuttle which was convenient. Overall great stay!More</t>
   </si>
   <si>
-    <t>Karen W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r584931991-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -234,16 +361,58 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>ocasillas, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
+    <t>ocasillas, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2018</t>
   </si>
   <si>
     <t>While Catalina Island is the epitome of quaint, this hotel is in need of a serious makeover! From the unseemly smells on the rear of the third floor lobby to the horribly stained carpet on each floor, this property screams "Groom Service!" Fortunately, the rooms have spare but decent decor, with beds attired with clean washable linens. Just don't look too closely or you'll realize how worn everything is, from the furniture to the faucets.Surprisingly enough, breakfast at the onsite restaurant made my day. The chorizo and eggs was the best I've had, and the coffee was decent.In such a beautiful island environment, one can only hope for a similar hotel experience. Not at this property! Take their shuttle and find another place to stay!More</t>
   </si>
   <si>
-    <t>ddonati</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r584210218-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>584210218</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value and comfort. </t>
+  </si>
+  <si>
+    <t>This is a great hotel for family. Kids and adult can use the pool/spa and has a ping pong table. Location is perfect for a hike or golf. It is incline if you want a work out; walkable to town. There is a shuttle, drivers/staff are friendly. I love the luggage room especially when room is not ready.  I can’t wait to come back in the summer.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>ocasillas, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded June 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2018</t>
+  </si>
+  <si>
+    <t>This is a great hotel for family. Kids and adult can use the pool/spa and has a ping pong table. Location is perfect for a hike or golf. It is incline if you want a work out; walkable to town. There is a shuttle, drivers/staff are friendly. I love the luggage room especially when room is not ready.  I can’t wait to come back in the summer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r583767275-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>583767275</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel on a beautiful island.</t>
+  </si>
+  <si>
+    <t>We stayed out on Catalina Island for two nights and I was happy to see there was a Holiday Inn Resort there.  The main city, Avalon, is small (less than 4,000 people) and almost everything is owned by The Catalina Island Company (locals only, no chain restaurants, etc.).  But that's the charm of the place and the Holiday is up a hill far enough away, well within walking distance though so it keeps the local charm of Avalon.There is a hotel shuttle that will pick you up and drop you off at the ferry when you arrive and depart.  For other trips to the harbor or town, they will take you to a cab/shuttle pick up point that's close to everything and you can walk from there.  The shuttle was very reasonably responsive and if you want to go further than what they go you can hail a cab. The place was nice, typical of an IHG property.  If you're a Rewards Club member and you want to go here, I'd recommend it.  The Bistro restaurant has a good dinner menu but it's only open for breakfast on weekends as it's not run by the hotel itself.  We ate there both nights and enjoyed the food.The overall experience was really good.  We loved the place so much we wouldn't mind going back soon!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed out on Catalina Island for two nights and I was happy to see there was a Holiday Inn Resort there.  The main city, Avalon, is small (less than 4,000 people) and almost everything is owned by The Catalina Island Company (locals only, no chain restaurants, etc.).  But that's the charm of the place and the Holiday is up a hill far enough away, well within walking distance though so it keeps the local charm of Avalon.There is a hotel shuttle that will pick you up and drop you off at the ferry when you arrive and depart.  For other trips to the harbor or town, they will take you to a cab/shuttle pick up point that's close to everything and you can walk from there.  The shuttle was very reasonably responsive and if you want to go further than what they go you can hail a cab. The place was nice, typical of an IHG property.  If you're a Rewards Club member and you want to go here, I'd recommend it.  The Bistro restaurant has a good dinner menu but it's only open for breakfast on weekends as it's not run by the hotel itself.  We ate there both nights and enjoyed the food.The overall experience was really good.  We loved the place so much we wouldn't mind going back soon!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r573765162-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
@@ -264,9 +433,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>ocasillas, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded April 16, 2018</t>
   </si>
   <si>
@@ -276,9 +442,6 @@
     <t>Kind of a last minute trio idea as we wanted to get out of town for Spring Break with only one night to spare. Maybe it was a last minute deal and we were lucky? We booked the Family Room at the Holiday Inn that included 2 bunks beds and a King in a room that sat above the pool, not in the main buildings. It was the most pleasant surprise! Super cute room with new fixtures, microwave and a fridge. We spent the day hiking and ended with a twilight tour of the Casino ( highly recommended as well! ) and had no time to get dinner once the tour was done. Made a quick grocery stop and was able to feed the family in our cozy room. Another great benefit was the free shuttle service. They pick up from the dock as well as a park near downtown. While Avalon is not that big, it was nice to have the service to take us up and down the hill. The hot tub near the pool could have used more water in the evening and the little store in the lobby was not that great. Loved that we could store our luggage all day although it was in an unsecured space. It still seemed safe enough as we had nothing of value. Highly recommended and could have been happy there for another night.More</t>
   </si>
   <si>
-    <t>mlpbjm</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r569955037-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -297,9 +460,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>ocasillas, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded April 2, 2018</t>
   </si>
   <si>
@@ -309,9 +469,6 @@
     <t>One night stay while on Catalina Island. This Holiday Inn was quite nice in some regards, not so much in others. It was, I believe, not purpose built as a Holiday Inn but taken over by the chain at some point. The room decor and comfort were nice, clean, and well laid out. Our room unfortunately had some issues. A shower door that would not close completely-leading to much water on the floor. A bulb out in one of the wall mount bed reading lights.(a nice touch though) And a view from the balcony of broken golf carts and what appeared to be refrigeration parts strewn about. Additionally, the service agent at the desk was not very helpful on these issues or in passing along any property details such as restaurant hours, pool/spa info or the local area. Finally, the biggest disappointment here was that the hotel shuttle, while nice to have due to uphill location, could not be scheduled for specific times in either direction. To use going into town or returning from town you had to wait for the shuttle to complete his "rounds". Which mean't waiting for an undetermined time at a bus stop area in town before the ride back up at night. Or hoping it was available in time for you to get from the hotel to the ferry dock upon departure from the island. Really seems like a inefficient way to transport your customers....One night stay while on Catalina Island. This Holiday Inn was quite nice in some regards, not so much in others. It was, I believe, not purpose built as a Holiday Inn but taken over by the chain at some point. The room decor and comfort were nice, clean, and well laid out. Our room unfortunately had some issues. A shower door that would not close completely-leading to much water on the floor. A bulb out in one of the wall mount bed reading lights.(a nice touch though) And a view from the balcony of broken golf carts and what appeared to be refrigeration parts strewn about. Additionally, the service agent at the desk was not very helpful on these issues or in passing along any property details such as restaurant hours, pool/spa info or the local area. Finally, the biggest disappointment here was that the hotel shuttle, while nice to have due to uphill location, could not be scheduled for specific times in either direction. To use going into town or returning from town you had to wait for the shuttle to complete his "rounds". Which mean't waiting for an undetermined time at a bus stop area in town before the ride back up at night. Or hoping it was available in time for you to get from the hotel to the ferry dock upon departure from the island. Really seems like a inefficient way to transport your customers. I would recommend for one night if you know this going in.More</t>
   </si>
   <si>
-    <t>DondeEstaMiSamosa</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r568624234-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -336,7 +493,55 @@
     <t>We are IHG members so it was an easy choice for our one night stay in Catalina. We arrived by boat and the free hotel shuttle arrived in the parking lot as promised. The hotel is nestled up on a hill, check in was quick and we loved seeing all the palm trees on the property. There is s Restaurant on sight. Lobby sells snacks. Our room had a balcony, bathroom was spacious and everything was clean and well kept. The service was friendly and informative. Shout out to Tyler for our speedy check in and to Tim, just coming off the night shift for our early check out. Tim could not have been more fun to chat with before the 7am shuttle took off. He’s a local, quite fun &amp; gave us some interesting information about the Island. Thank you Tim!! More</t>
   </si>
   <si>
-    <t>Pam W</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r566673731-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>566673731</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>Angelversary Weekend</t>
+  </si>
+  <si>
+    <t>Nice place, probably more roomy than the smaller hotels on the beachfront.  Had a spa room, which was amazing.  Shuttle service was great, ran all day.  Staff were super friendly, Patrick went above and beyond.  Pool area was nice, as were the grounds.  My only complaint is the restaurant... Went for breakfast and did not return.  Short staffed and busy, so very slow service, but that's completely forgivable and waitress did her best.  But the food was horrible, for our entire group of six, nothing tasted good, including the coffee, nothing cooked as ordered.  Would definitely return, but won't eat there.  Oh, and not completely ADA accessible.  My sister is in a wheelchair and could only get from her street level room (4th floor) down to the lobby (3rd floor) easily; getting to the pool, restaurant, and our ground floor rooms was difficult.MoreShow less</t>
+  </si>
+  <si>
+    <t>ocasillas, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded March 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2018</t>
+  </si>
+  <si>
+    <t>Nice place, probably more roomy than the smaller hotels on the beachfront.  Had a spa room, which was amazing.  Shuttle service was great, ran all day.  Staff were super friendly, Patrick went above and beyond.  Pool area was nice, as were the grounds.  My only complaint is the restaurant... Went for breakfast and did not return.  Short staffed and busy, so very slow service, but that's completely forgivable and waitress did her best.  But the food was horrible, for our entire group of six, nothing tasted good, including the coffee, nothing cooked as ordered.  Would definitely return, but won't eat there.  Oh, and not completely ADA accessible.  My sister is in a wheelchair and could only get from her street level room (4th floor) down to the lobby (3rd floor) easily; getting to the pool, restaurant, and our ground floor rooms was difficult.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r543082291-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>543082291</t>
+  </si>
+  <si>
+    <t>11/24/2017</t>
+  </si>
+  <si>
+    <t>Good value, great friendly staff</t>
+  </si>
+  <si>
+    <t>This is a very comfortable, clean place to stay for a few nights.  Room are clean, the staff is very friendly and service is really goodIt is nothing fancy, but this is perfect if you are only looking for a place to sleep and are active on the island all day. Location is not the greatest, but the shuttle is really effective and convenient. We took it 8-10 times, and we never waited more than 5 min.  We will go again. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn Res... C, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded December 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2017</t>
+  </si>
+  <si>
+    <t>This is a very comfortable, clean place to stay for a few nights.  Room are clean, the staff is very friendly and service is really goodIt is nothing fancy, but this is perfect if you are only looking for a place to sleep and are active on the island all day. Location is not the greatest, but the shuttle is really effective and convenient. We took it 8-10 times, and we never waited more than 5 min.  We will go again. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r541651914-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
@@ -366,9 +571,6 @@
     <t>This hotel was very nice and had a shuttle service to take you from Avalon to the hotel.  It ran all the time and never had to wait very long.  We had nice size room overlooking the pool area with a balcony.  Pool was extremely busy, so never went to it.  Nice restaurant at the hotel, that served very good food.More</t>
   </si>
   <si>
-    <t>NatHunt1572</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r539717331-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -384,9 +586,6 @@
     <t>The Holiday Inn was affordable and comfortable to stay whilst exploring Catalina Island over a weekend.  From the pier it is approx. 30 min walk to the resort, a little hike up a hill if you are up for walking. Alternatively if you contact the resort ahead of time they will arrange a pick up from the pier to the resort. The driver was very accommodating. Check in time was late - 4pm/16:00 which we found inconvenient because we arrived prior to 12 noon and had to leave personal belongings in a storage room available for all guests to enter and exit - and the resort takes no responsibility for loss or damage. So we had to carry our passports and electronic devices as there was no security box or locker to store these in whilst we were waiting for our check in. The room was comfortable, and i like how the resort is environmentally friendly and conscious of water use to sustain the islands water supply.  Wifi accessible and reception great!The Holiday Inn restaurant - Seaport Bistro is a fantastic place to enjoy a meal - the chef "Greg" came out to see how we enjoyed our meal, the customer service - excellent. Truly recommend the restaurant even if you choose not to stay at the Holiday Inn. Certain days they offer all you can eat chicken wings $17 USD with fries.MoreShow less</t>
   </si>
   <si>
-    <t>November 2017</t>
-  </si>
-  <si>
     <t>Holiday Inn Res... C, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded November 10, 2017</t>
   </si>
   <si>
@@ -396,9 +595,6 @@
     <t>The Holiday Inn was affordable and comfortable to stay whilst exploring Catalina Island over a weekend.  From the pier it is approx. 30 min walk to the resort, a little hike up a hill if you are up for walking. Alternatively if you contact the resort ahead of time they will arrange a pick up from the pier to the resort. The driver was very accommodating. Check in time was late - 4pm/16:00 which we found inconvenient because we arrived prior to 12 noon and had to leave personal belongings in a storage room available for all guests to enter and exit - and the resort takes no responsibility for loss or damage. So we had to carry our passports and electronic devices as there was no security box or locker to store these in whilst we were waiting for our check in. The room was comfortable, and i like how the resort is environmentally friendly and conscious of water use to sustain the islands water supply.  Wifi accessible and reception great!The Holiday Inn restaurant - Seaport Bistro is a fantastic place to enjoy a meal - the chef "Greg" came out to see how we enjoyed our meal, the customer service - excellent. Truly recommend the restaurant even if you choose not to stay at the Holiday Inn. Certain days they offer all you can eat chicken wings $17 USD with fries.More</t>
   </si>
   <si>
-    <t>Rebecca H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r535536584-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -426,7 +622,55 @@
     <t>Looked clean.  Is located on a hill.  The hotel shuttle picks up from the boat dock and takes you to the hotel.  It also will take you back down the hill and drops you off in town and picks up again from this location to go back to the hotel.  Shuttle can get crowded at times, and sometimes you have to wait for the next one, but it is not usually a long wait.  Saw deer right next to hotel.  Microwave and refrigerator are in room.  No breakfast is included.  There is a restaurant on site.  They store your luggage if you arrive early your day of check in.  They do not store it after you check out which is at 11:00, but if you have a later boat, Blue Line luggage close to the Catalina Island boat dock will pick it up for you from the hotel and store it until your boat leaves for a small fee per bag.More</t>
   </si>
   <si>
-    <t>Brenda F</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r533607652-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>533607652</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Building Inspector would Condem</t>
+  </si>
+  <si>
+    <t>Mold in showers, drawers that would not close, air conditioner not working, floor in shower unstable and creaking, no clock, poor lighting, noise level of constant banging of doors unacceptable, dirty.  Reported all issues to manager and she said a credit would be given through Priceline where booked.  Stayed 3 nights for approx $253 per night and was told that a credit of $112, would be issued.  I have not yet seen the credit.  The entire property needs to be inspected and brought up to code.  Totally ignored in their dining room for breakfast and then when I approached the waitress told to sit anywhere, no menu and still ignored so I left.  Horrible service in dining room.  Just avoid this property.  I will never stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Holiday Inn Res... C, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Mold in showers, drawers that would not close, air conditioner not working, floor in shower unstable and creaking, no clock, poor lighting, noise level of constant banging of doors unacceptable, dirty.  Reported all issues to manager and she said a credit would be given through Priceline where booked.  Stayed 3 nights for approx $253 per night and was told that a credit of $112, would be issued.  I have not yet seen the credit.  The entire property needs to be inspected and brought up to code.  Totally ignored in their dining room for breakfast and then when I approached the waitress told to sit anywhere, no menu and still ignored so I left.  Horrible service in dining room.  Just avoid this property.  I will never stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r532435211-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>532435211</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>Serene &amp; comfortable</t>
+  </si>
+  <si>
+    <t>Our family of 5 were met at the boat landing by the van for the hotel, and we were very fortunate that our driver was Jose Jimenez!  Jose not only made the start of our 2 day stay enjoyable with his banter, but he also gave us some great suggestions for places to see &amp; eateries &amp; activities.  Then we arrived at the hotel on the hill.  Checking in was easy &amp; the desk clerk was very cordial.  We arrived very early in the day, however one of our 2 rooms was already ready, so we were able to leave all of our stuff in the room as we went out adventuring.  The rooms were clean h comfortable.  There is a pool (which we made good use of) and it is the only hotel pool on the island.  The grounds are pleasant and well kept.  There was not any evening/noise to disturb us.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn Res... C, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Our family of 5 were met at the boat landing by the van for the hotel, and we were very fortunate that our driver was Jose Jimenez!  Jose not only made the start of our 2 day stay enjoyable with his banter, but he also gave us some great suggestions for places to see &amp; eateries &amp; activities.  Then we arrived at the hotel on the hill.  Checking in was easy &amp; the desk clerk was very cordial.  We arrived very early in the day, however one of our 2 rooms was already ready, so we were able to leave all of our stuff in the room as we went out adventuring.  The rooms were clean h comfortable.  There is a pool (which we made good use of) and it is the only hotel pool on the island.  The grounds are pleasant and well kept.  There was not any evening/noise to disturb us.  More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r531211330-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
@@ -453,9 +697,6 @@
     <t>Since the hotel is away from the beach, it's very quiet. The complementary shuttle to the hotel is definitely a plus!  The rooms are very nice, and it's one of only a few hotels in Catalina that has a pool. Sadly, the restaurant was not open during our stay, so I cannot comment on the food.More</t>
   </si>
   <si>
-    <t>zippy1717</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r529257367-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -483,9 +724,6 @@
     <t>This Holiday Inn could be a nice hotel but the management and staff ruin the entire experience with their lack of hospitality and effort in trying to accommodate guests' requests.  I already knew it was going to be a disaster when I called ahead of time to request certain things and was always immediately put on hold each and every time I called.  I'm talking 10 min holds, not seconds.  And then untrained staff putting me on hold again to ask Ophelia the manager for anything only to be told after a long hold they can't accommodate any of my requests.  Ophelia is equally as unhelpful in person. I booked a "double room" online thinking it was double beds but instead it's one queen bed.  Why not call it a "queen bed" to not mislead guests?They couldn't even bring me a roll away cot citing fire codes.  None of their rooms are big enough for a cot to legally fit in them?  The room itself was renovated not too long ago but already showing lots of wear and tear.  The tiled shower has black mold growing in some spots as prior reviews mention.  The balcony floor for some reason is flooded with water even though it didn't rain.  The front desk is a mess.  Every time I had to pass by it, there's guests waiting in line getting more impatient as the staff keep getting interrupted to answer the phones...This Holiday Inn could be a nice hotel but the management and staff ruin the entire experience with their lack of hospitality and effort in trying to accommodate guests' requests.  I already knew it was going to be a disaster when I called ahead of time to request certain things and was always immediately put on hold each and every time I called.  I'm talking 10 min holds, not seconds.  And then untrained staff putting me on hold again to ask Ophelia the manager for anything only to be told after a long hold they can't accommodate any of my requests.  Ophelia is equally as unhelpful in person. I booked a "double room" online thinking it was double beds but instead it's one queen bed.  Why not call it a "queen bed" to not mislead guests?They couldn't even bring me a roll away cot citing fire codes.  None of their rooms are big enough for a cot to legally fit in them?  The room itself was renovated not too long ago but already showing lots of wear and tear.  The tiled shower has black mold growing in some spots as prior reviews mention.  The balcony floor for some reason is flooded with water even though it didn't rain.  The front desk is a mess.  Every time I had to pass by it, there's guests waiting in line getting more impatient as the staff keep getting interrupted to answer the phones (and place them on hold) or stare at their screens.  People waiting to get a pool towel, waiting to check in/out, waiting to purchase a convenience item, waiting to make any simple request.  The staff here are just plain rude and could care less if their guests are receiving good service.  Not once did I see any front desk staff smiling and acting courteously to the guests.  It truly has no signs of being managed properly like a typical Holiday Inn.  The breakfast was good but trying to sit outside with all the wasps was terrible. They had hanging traps in full view that were overfilled with dead wasps and more swarming around attracted by them. Use some common sense and hang the traps away from the dining tables!  This hotel has so many bad reviews and the same canned responses it's a joke.  Buyer beware!More</t>
   </si>
   <si>
-    <t>dayzpen</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r528574513-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -513,7 +751,46 @@
     <t>We were here for a wedding and stayed two nights.  The Holiday Inn grounds are very nice.  We sat outside the room, on a nice size walk-way patio surrounded by trees.  The room is nice size.  The hotel is up on the hill, but they provide a shuttle to and from the dock and the town.  Very prompt service by the shuttle drivers.  There was no complimentary breakfast, but they provided coffee in the rooms.  A few minor problems (toilet paper holder coming away from the wall and the bathroom sink did not drain.  Even after mentioning these things, they were not taken care of by the end of the day.  Prompt attention would have been nice.More</t>
   </si>
   <si>
-    <t>Deb S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r527978667-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>527978667</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Birthday trip</t>
+  </si>
+  <si>
+    <t>Hotel was ok. Clean rooms. They are not close to the ocean but when you arrive by boat the hotel shuttle will be there to meet you. You should call when you arrive. They are not too far away so it does not take long. MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn Res... C, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded September 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2017</t>
+  </si>
+  <si>
+    <t>Hotel was ok. Clean rooms. They are not close to the ocean but when you arrive by boat the hotel shuttle will be there to meet you. You should call when you arrive. They are not too far away so it does not take long. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r527789173-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>527789173</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t>Solid 3 star property</t>
+  </si>
+  <si>
+    <t>I don't know that the cost to value was the proper ratio but it was the Catalina Wine Mixer weekend, so we can chalk it up to that. The rooms are nice and comfortable we didn't mind not being right in Avalon, in fact the short walk was kind of welcome and if you aren't in to that the shuttles will take you into town and run frequently until 1045pm. There are a few things that they need to work on. The cleaning staff did not clean our room because we did not place the "please clean" sign on the door before we went out for the day. That's a new one for me. The stairwell near the lobby had a very strong urine odor. I'm sure they know about it, but I let the front desk know anyway. The shuttle drivers were very friendly and helpful, it was nice to have someone friendly to ask questions to. I'm sure the folks who live and work on the island get tired of questions from tourists and often seem put out when they are asked. But not these guys, they are courteous and professional.MoreShow less</t>
+  </si>
+  <si>
+    <t>I don't know that the cost to value was the proper ratio but it was the Catalina Wine Mixer weekend, so we can chalk it up to that. The rooms are nice and comfortable we didn't mind not being right in Avalon, in fact the short walk was kind of welcome and if you aren't in to that the shuttles will take you into town and run frequently until 1045pm. There are a few things that they need to work on. The cleaning staff did not clean our room because we did not place the "please clean" sign on the door before we went out for the day. That's a new one for me. The stairwell near the lobby had a very strong urine odor. I'm sure they know about it, but I let the front desk know anyway. The shuttle drivers were very friendly and helpful, it was nice to have someone friendly to ask questions to. I'm sure the folks who live and work on the island get tired of questions from tourists and often seem put out when they are asked. But not these guys, they are courteous and professional.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r522455853-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
@@ -540,9 +817,6 @@
     <t>Mostly rude staff, moldy smelling dirty rooms.  Bedding was DISGUSTING had to have someone come and change it.  Frames for the bed are to large for the mattresses which results in a catch all for dirt and hair.  Fabric around said frame is stained and dirty.  Mildew on tiles in shower.  Lock on the door to courtyard is a  old chain lock, that's it.  Just over all run down and out dated.  WORST experience EVER at a Holiday Inn!!!More</t>
   </si>
   <si>
-    <t>IMDOCNC</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r522312225-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -558,9 +832,6 @@
     <t>The hotel has good clean rooms with no major frills in the amenities area.  Only issue some people may have is that it is quite a hike from the bayfront area.  Some of the hike is uphill.  They do have a shuttle van but you have to plan around the times of the shuttle and it is difficult to be spontaneous.  A golf cart would help but would require overnight or daily rental.The views are limited as it is very far away from the bay but you can get a peak of the ocean on a high floor facing the right direction.More</t>
   </si>
   <si>
-    <t>Kathleen L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r520900912-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -585,7 +856,52 @@
     <t>The Holiday Inn on Catalina Island provided wonderful accommodations for a birthday getaway. The room was well kept, soap/shampoo/lotion provided, in-room coffee maker/ refrigerator, and comfortable beds. Our room deck overlooked the pool area and canyon.The shuttle was at the dock upon arrival of our boat (Catalina Flyer from Newport) and Juan loaded our suitcases into the van. The shuttle is well labeled and easy to find. It runs back and forth throughout the day from the dock- center of Avalon- hotel. We never had to wait more than 10-15 minutes.We also dined at the on site Seaport Bistro during our stay. The food was delicious and our server was attentive and personable. It was nice to sit on the patio and enjoy the summer evening air - and extremely convenient after we had a long day in Avalon.More</t>
   </si>
   <si>
-    <t>Elizabeth U</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r519178831-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>519178831</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>COULD EASILY BE BETTER</t>
+  </si>
+  <si>
+    <t>Great location. Nicely renovated. Rooms are comfortable and well designed. Shuttle was supposed to meet ferry - not there. Front desk did not answer calls two times. Pool area needs to be upgraded - pretty dingy. Night desk man not friendly.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn Res... C, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded September 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2017</t>
+  </si>
+  <si>
+    <t>Great location. Nicely renovated. Rooms are comfortable and well designed. Shuttle was supposed to meet ferry - not there. Front desk did not answer calls two times. Pool area needs to be upgraded - pretty dingy. Night desk man not friendly.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r518108682-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>518108682</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Nice Hotel </t>
+  </si>
+  <si>
+    <t>The hotel was quite nice and clean. The hotel is a 15 minute walk from downtown however there is a shuttle that periodically goes from the ferry dock to the hotel. The staff were very nice and helpful. Overall a reasonably priced, if a bit far from downtown Avalon, hotel on Catalina Island.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn Res... C, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded August 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was quite nice and clean. The hotel is a 15 minute walk from downtown however there is a shuttle that periodically goes from the ferry dock to the hotel. The staff were very nice and helpful. Overall a reasonably priced, if a bit far from downtown Avalon, hotel on Catalina Island.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r515730477-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
@@ -610,9 +926,6 @@
   </si>
   <si>
     <t>Overall decent hotel.  It is an uphill wall from town, but not bad.  The shuttle service is great and he drivers are all very friendly.  The hotel has a nice outdoor patio with lights and plenty of chairs and tables.  The rooms need improvement, the shower drain has an issue and there was a pool of water during every shower.  The prices for a room are a little steep and for that price and it being a holiday inn the rooms should be serviced daily.  Doing my 4 day stay my room was not serviced one day, I called it in before going out for dinner and was told it would be made.  Got back from dinner late and the room was not made.  I called it in to at the least request clean towels, I had to call twice and was told they only had one person working that could assist me hence the wait.  All I wanted were clean towels so I could shower and call it a night. Next trip I will probably try a different hotel that has comparable pricing but better reviews. More</t>
-  </si>
-  <si>
-    <t>fyremaven</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r514207474-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
@@ -650,9 +963,6 @@
 People have wrote similar reviews saying the walls of the hotel are "paper thin" but I have never stayed at hotels where you couldn't hear the next door neighbors IF they were being overly loud. We had a great stay here and could...Sitting at the top of a hill, this hotel offers great rooms for families and couples, too! They have their own small restaurant so if you want to eat there, you can. Limited hours on their restaurant but very convenient if you are up early.Very nice of them to offer a free shuttle down to the main shopping area otherwise the walk UP to the hotel might be a bit hard on some people. It can be done but it is steep and if you have any arthritis or other mobility issues it would be a problem. The rates are reasonable for Catalina island and can be booked well in advance. Try to avoid special holidays and/or special event weekends otherwise the island as a whole is very crowded and it can be hard to get around. It is much more pleasant mid-week or on non-holiday weekends. In general, mid-week is always more pleasant because it seems less crowded but sometimes it is crowded all week. This is a very popular destination and with Catalina Express offering free passage on their ships on your birthday (buy one get one free) this has increased traffic to Catalina.People have wrote similar reviews saying the walls of the hotel are "paper thin" but I have never stayed at hotels where you couldn't hear the next door neighbors IF they were being overly loud. We had a great stay here and could NOT hear our neighbors but maybe it was because they were considerate? Something to consider. Try this place you won't be disappointed.More</t>
   </si>
   <si>
-    <t>Ingrid2a</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r503681323-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -677,7 +987,55 @@
     <t>We decided to spend a couple of days on Catalina Island and had our little dog with us so our choice of places to stay was limited. It was a good decision to stay at the Holiday Inn. Yes, the walls are thin but this isn't what I will remember about our stay. It is a clean and friendly place to stay. The hotel isn't right in town but it's easy to walk into town. We went to Catalina to spend time outdoors and the walk was a good way to check out the area. There is, however, also a frequent shuttle that takes you back and forth. The driver was friendly and gave us some pointers. The front desk staff was helpful and efficient. Our room was the perfect size (large enough for a king-size bed and two visitor chairs in the corners. The bathroom was modern (shower only). As so often, the shower door didn't close properly so it was impossible not to create a little puddle. The balcony was perfect for relaxing at the end of the day. We had a late breakfast at the hotel restaurant. The service was good. The food was ok.More</t>
   </si>
   <si>
-    <t>Helen H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r502651434-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>502651434</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Paper thin walls</t>
+  </si>
+  <si>
+    <t>Overall the hotel is not a bad place but the walls are paper thin. We are in our room trying to relax but have to listen to the guy next door cough up a lung. It's not just loud but is disgusting listening  to the noises he is making. Not even the very loud air conditioner can drown out the hacking. Tried to change rooms but the place is totally booked.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn Res... C, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Overall the hotel is not a bad place but the walls are paper thin. We are in our room trying to relax but have to listen to the guy next door cough up a lung. It's not just loud but is disgusting listening  to the noises he is making. Not even the very loud air conditioner can drown out the hacking. Tried to change rooms but the place is totally booked.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r501051383-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>501051383</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay in Catalina Island.</t>
+  </si>
+  <si>
+    <t>My family (2 adults with 2 kids) stayed at the Holiday Inn Resort Catalina Island on June 18, 2017 and check out date June 19th 2017. My wife planned this vacation a few months ago to celebrate Father’s Day.  We are Los Angeles residents for over 26 years and this is our first time visiting the island and were very excited.Melinda and Maria (front desk staff) checked in our family.  Very friendly staff with a smile. Nicole is the best hotel general manager ever.  Pros: Huge BalconySleep QualityServiceFriendly StaffThe two beds were very comfortable.  Water pressure is great. Balcony is HUGE. My kids were able to use and enjoy the pool too for the 1 day we stayed.The hotel is gorgeous in the island.  We really appreciated the amenities, including free shuttle service to the port and to town. As beautiful as the setting was, it was the staff that really made it a worthwhile place to stay--especially the general manager. Next time I'm in the area, I will absolutely stay at Holiday Inn Resort Catalina, and I recommend it to anyone visiting the Catalina / Avalon.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn Res... C, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2017</t>
+  </si>
+  <si>
+    <t>My family (2 adults with 2 kids) stayed at the Holiday Inn Resort Catalina Island on June 18, 2017 and check out date June 19th 2017. My wife planned this vacation a few months ago to celebrate Father’s Day.  We are Los Angeles residents for over 26 years and this is our first time visiting the island and were very excited.Melinda and Maria (front desk staff) checked in our family.  Very friendly staff with a smile. Nicole is the best hotel general manager ever.  Pros: Huge BalconySleep QualityServiceFriendly StaffThe two beds were very comfortable.  Water pressure is great. Balcony is HUGE. My kids were able to use and enjoy the pool too for the 1 day we stayed.The hotel is gorgeous in the island.  We really appreciated the amenities, including free shuttle service to the port and to town. As beautiful as the setting was, it was the staff that really made it a worthwhile place to stay--especially the general manager. Next time I'm in the area, I will absolutely stay at Holiday Inn Resort Catalina, and I recommend it to anyone visiting the Catalina / Avalon.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r500418223-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
@@ -702,9 +1060,6 @@
   </si>
   <si>
     <t>The newly remodeled Holiday Inn Resort Catalina Island, provided a very nice stay for two nights.  The rooms are nicely done and ours came with a microwave and refrigerator.  We had a balcony with two chairs overlooking the pool area and a small view of the ocean.  Beds were very comfortable and the bathroom was well appointed with a nice big walk in shower.  No tub however.  The hotel was quiet-its located .4 miles from the waterfront and is an easy walk.  There is also a shuttle that runs frequently and we used that once.  There is a restaurant at the hotel, but we only ordered coffee to go, so I can't comment on the food.  There is also a small area to buy snacks near the check in area.  The only negative about our room is that the air conditioning unit was just inches from one of the beds and blows cold air on whoever is sleeping in that bed.  But after strategically placing some pillows to block the air, we managed to have a cool room and everyone was comfortable.More</t>
-  </si>
-  <si>
-    <t>Ozinvegas</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r496695956-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
@@ -725,9 +1080,6 @@
 I'm about to burn my IHG membership if this how Holiday Inn monitors its chain. You aren't actually wondering about any...Supposedly, this is a high end hotel here on the island. Well, if you like mold, it will be nearby during your stay at this place. The shower floor was disgusting. You'd think custodial had never heard of mildew remover or a new discovery called bleach.How do you charge $220 a night and allow this to happen? The carpet was also grungy so my family had to wear slippers to avoid feeling the gross sensation caused by walking in the room. The closet door had some sticky substance on it when I went to put clothing in the closet. I had to use medical tape to cover the stuff that wouldn't wipe off. Are you feeling the creeps yet?If you're expecting a good night's sleep, FOGETTABOTTIT!! Walls are paper thin. If you're lucky enough to have neighbors with little kids that are allowed to run wild, you will clearly hear the pounding of little feet and screams of joy when mommy and daddy let the children rock and roll all night and party every day!Why not call the front desk for assistance you might ask. It's hard to call when the phone doesn't work. Push the buttons for front desk or housekeeping and you get......you get......yup...nothing. Dial any number or wait for a dial tone......yup...nothing. Whoo who!I'm about to burn my IHG membership if this how Holiday Inn monitors its chain. You aren't actually wondering about any recommendation are you. Stephen King couldn't come up with much more chilling than this horror story. Be afraid dear friends, be very, very afraid.Before I end this tale of woe and misspent fortune, I did want to recognize the shuttle drivers who were the only highlight of this 3 night fiasco. They were all very polite and helpful. I really appreciate the service and information they provided. If everyone else at this shipwreck of a hotel did their job as well, my review would have been much different. Stay away from this entrance into the pit of Hades my friends. There is a boogeyman and he can be found in the showers of the 3rd floor of this Dante's inferno.MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>Holiday Inn Res... C, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded July 2, 2017</t>
   </si>
   <si>
@@ -738,9 +1090,6 @@
 If you're expecting a good night's sleep, FOGETTABOTTIT!! Walls are paper thin. If you're lucky enough to have neighbors with little kids that are allowed to run wild, you will clearly hear the pounding of little feet and screams of joy when mommy and daddy let the children rock and roll all night and party every day!
 Why not call the front desk for assistance you might ask. It's hard to call when the phone doesn't work. Push the buttons for front desk or housekeeping and you get......you get......yup...nothing. Dial any number or wait for a dial tone......yup...nothing. Whoo who!
 I'm about to burn my IHG membership if this how Holiday Inn monitors its chain. You aren't actually wondering about any...Supposedly, this is a high end hotel here on the island. Well, if you like mold, it will be nearby during your stay at this place. The shower floor was disgusting. You'd think custodial had never heard of mildew remover or a new discovery called bleach.How do you charge $220 a night and allow this to happen? The carpet was also grungy so my family had to wear slippers to avoid feeling the gross sensation caused by walking in the room. The closet door had some sticky substance on it when I went to put clothing in the closet. I had to use medical tape to cover the stuff that wouldn't wipe off. Are you feeling the creeps yet?If you're expecting a good night's sleep, FOGETTABOTTIT!! Walls are paper thin. If you're lucky enough to have neighbors with little kids that are allowed to run wild, you will clearly hear the pounding of little feet and screams of joy when mommy and daddy let the children rock and roll all night and party every day!Why not call the front desk for assistance you might ask. It's hard to call when the phone doesn't work. Push the buttons for front desk or housekeeping and you get......you get......yup...nothing. Dial any number or wait for a dial tone......yup...nothing. Whoo who!I'm about to burn my IHG membership if this how Holiday Inn monitors its chain. You aren't actually wondering about any recommendation are you. Stephen King couldn't come up with much more chilling than this horror story. Be afraid dear friends, be very, very afraid.Before I end this tale of woe and misspent fortune, I did want to recognize the shuttle drivers who were the only highlight of this 3 night fiasco. They were all very polite and helpful. I really appreciate the service and information they provided. If everyone else at this shipwreck of a hotel did their job as well, my review would have been much different. Stay away from this entrance into the pit of Hades my friends. There is a boogeyman and he can be found in the showers of the 3rd floor of this Dante's inferno.More</t>
-  </si>
-  <si>
-    <t>Larry F</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r493641732-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
@@ -775,7 +1124,49 @@
 The bed was comfortable.  Another reviewer mentions thumping noises from overhead guest rooms and we can attest that this is an annoying problem, constant until they go to bed. Wifi is free and slow with only email...Where to start this review?  I stay in 16 Hotel rooms per month all around the world as an International Airline Captain.  In my opinion, This place does not deserve your business.  The reservation process was sketchy with the front desk saying they were sold out.  The national reservation representative said she showed some availability, but confirmed with the front desk that they were sold out as well WHILE I simultaneously booked two rooms online.  Go figure! That's just the beginning.  The ground transportation shuttle (Which is supposed to meet every ferry) is essential because the hotel is way up the canyon approximately two miles from the ferry dock.  We had to call twice and got the typical "He's on his way..." from the front desk.Our rooms were not clean.  One had over twenty empty beer and empty water bottles in our room that had never been collected or removed by housekeeping.  Surfaces of our dresser and night tables were soiled.  One room had the AC running and the thermostat showed 63 degrees....it was colder than a meat locker in that room.  The rooms had not been thoroughly cleaned and we found a toothpick from a previous guest, etc. (See my pictures)The bed was comfortable.  Another reviewer mentions thumping noises from overhead guest rooms and we can attest that this is an annoying problem, constant until they go to bed. Wifi is free and slow with only email or website checking capability.  The shower pan in the bathroom is loose and you will drop an inch standing in the right side.Spending over $1100.00 for two rooms for two nights you might expect that your room would at least be serviced and cleaned before 5 PM your second day there.  We had spent the day sightseeing and were very disappointed to return to unserviced rooms.  We had to muster the housekeeper and her supervisor to get service.....apparently they are way understaffed.  To cap this all off we complained to the front desk and asked to speak to the General Manager.  They never contacted the GM even after repeated requests.  The front desk was indifferent every time we asked questions or raised concerns.  Our request to have a late checkout of 1 PM instead of 11 AM was flatly and repeatedly denied,even for just one of our rooms.  You might assume that if they can't clean a room until 5 PM that staying just two hours past 11 AM wouldn't be a hardship but you would be wrong.We ate in their onsite restaurant and the wait staff is disorganized and forgot about us.  We sat there after the hostess seated us and thereafter nobody brought us menus or even checked on us.  This is a very small restaurant so it amazes us that the wait staff could walk by us so many times and never acknowledge us until we flagged them down.  The food was good.We mentioned to several staff members that we are IHG Members and long time experienced TripAdvisor reviewers (Almost 400 Reviews) and gave them an opportunity to address our concerns and requests and were ignored anyway.  Attention: Ophelia, the Front Desk Manager:  No response you can write can cover the poor experience and poor value we experienced during this stay.  Your staff stonewalled us and couldn't care less about our concerns or requests.  Nobody ever offered even an apology or sympathy for the cleanliness issues in our room.  Apparently it's okay to leave empty beer bottles in the room for subsequent guests.Wow!  If you want a nice stay in Avalon, Catalina, BOOK somewhere else!More</t>
   </si>
   <si>
-    <t>Art M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r491624765-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>491624765</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>Clean, quiet, not expensive.</t>
+  </si>
+  <si>
+    <t>It's a bit out of the way &amp; you need a shuttle to get back and forth unless walking is your thing. Check with the hotel to see how late the shuttle runs, too. It's as we expected....clean, fairly quiet and best price I found in Avalon. The negatives......night clerk is a real jerk, more interested in the t.v. If you plan to go in the pool and jacuzzi, you may be disappointed. We were there on a Sun. The jacuzzi is rated for 7. There were 5 local teen girls in the jacuzzi and a 10 yr. old kid romping in the pool with other kids. No adults around. When he tried to join us in the spa, I said no. The girls told me he was local, too, as with other kids there. We were looking forward to a relaxing evening in the spa with our wine and snacks. Maybe it only happens on a Sun. night but I don't think the employee's kids and their friends should have free range of the pool and spa. Just sayin'. Don't think I will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>It's a bit out of the way &amp; you need a shuttle to get back and forth unless walking is your thing. Check with the hotel to see how late the shuttle runs, too. It's as we expected....clean, fairly quiet and best price I found in Avalon. The negatives......night clerk is a real jerk, more interested in the t.v. If you plan to go in the pool and jacuzzi, you may be disappointed. We were there on a Sun. The jacuzzi is rated for 7. There were 5 local teen girls in the jacuzzi and a 10 yr. old kid romping in the pool with other kids. No adults around. When he tried to join us in the spa, I said no. The girls told me he was local, too, as with other kids there. We were looking forward to a relaxing evening in the spa with our wine and snacks. Maybe it only happens on a Sun. night but I don't think the employee's kids and their friends should have free range of the pool and spa. Just sayin'. Don't think I will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r484771455-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>484771455</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>A good, clean and up to date hotel in Catalina Island</t>
+  </si>
+  <si>
+    <t>This hotel is away from the somewhat crowded downtown of Avalon.  It is so worth it.  Nestled in the foothills of Avalon, the hotel is clean, the bathrooms are clean, the beds and pillows comfortable. The island has a very nice ocean breeze, so you can leave the window open at night, which we did.  There is of course an A.C. There is a good size swimming pool, and a hot tub and a nice restaurant with an outside seating.  Food is good, service is excellent.The front desk person (Ofelia) is very nice, friendly and accommodating. The shuttle drivers are very nice too.  The hotel has a shuttle from downtown, ferry landing to the hotel and back.  Shuttle is free and runs every 15-30 minutes. I strongly recommend this establishment.MoreShow less</t>
+  </si>
+  <si>
+    <t>ocasillas, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is away from the somewhat crowded downtown of Avalon.  It is so worth it.  Nestled in the foothills of Avalon, the hotel is clean, the bathrooms are clean, the beds and pillows comfortable. The island has a very nice ocean breeze, so you can leave the window open at night, which we did.  There is of course an A.C. There is a good size swimming pool, and a hot tub and a nice restaurant with an outside seating.  Food is good, service is excellent.The front desk person (Ofelia) is very nice, friendly and accommodating. The shuttle drivers are very nice too.  The hotel has a shuttle from downtown, ferry landing to the hotel and back.  Shuttle is free and runs every 15-30 minutes. I strongly recommend this establishment.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r484516199-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
@@ -793,21 +1184,9 @@
     <t>I reviewed a bunch of hotels before choosing Holiday Inn. This is a bit off the path but that makes it great because you don't have so much foot traffic. We upgraded our room since I did hear some negative feedback on the standard rooms and we were very impressed. It was a very nice room, large bathroom, a tub and a stand up shower. It has a Santa Barbara feel to it. Great court yard to sit out in, well lit late at night. The pool was great and the hot tub was perfect when it got later. They have their own shuttle that will pick you up from the Port, it comes up and down the hill every 30 mins. So after we checked in we had them drive us back down the hill, then they came back and picked us up. We also noticed that they were repainting several of the rooms. Very modern feel!MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
-    <t>ocasillas, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded May 19, 2017</t>
-  </si>
-  <si>
-    <t>Responded May 19, 2017</t>
-  </si>
-  <si>
     <t>I reviewed a bunch of hotels before choosing Holiday Inn. This is a bit off the path but that makes it great because you don't have so much foot traffic. We upgraded our room since I did hear some negative feedback on the standard rooms and we were very impressed. It was a very nice room, large bathroom, a tub and a stand up shower. It has a Santa Barbara feel to it. Great court yard to sit out in, well lit late at night. The pool was great and the hot tub was perfect when it got later. They have their own shuttle that will pick you up from the Port, it comes up and down the hill every 30 mins. So after we checked in we had them drive us back down the hill, then they came back and picked us up. We also noticed that they were repainting several of the rooms. Very modern feel!More</t>
   </si>
   <si>
-    <t>max1111111</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r482389351-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -832,9 +1211,6 @@
     <t>My wife and I visited Avalon, Santa Catalina, CA for two days this month.  We checked in to the Holiday Inn Resort, asked the desk clerk for a room facing toward the ocean (even though it could not be seen).  The clerk said none was available.  He assigned us a room over the swimming pool.  The only problem with the room (403) is that the shower was extremely slow to drain.  I did not like standing in almost ankle deep water while showering.  When we made our reservations, the website said the hotel had both a restaurant and bar which we appreciated since my wife is unable to walk long distances.  After checking in, we were advised that the restaurant and bar were closed on Tuesday and Wednesday, the nights of our stay.  This should have been disclosed on its website.  As it was we had to take the hotel shuttle to/from downtown Avalon and then "walk" to a restaurant.  If we had known, we would have stayed in Avalon proper.  Also, the desk clerk telling us nothing was available on the top floor toward the ocean/Avalon was a ridiculous statement.  The hotel was almost deserted during our stay.  I asked the desk clerk one evening if we could get some coffee packets and he said he would sent them up when housekeeping gets back from "break."  I came back about 45 minutes later and asked about the coffee and...My wife and I visited Avalon, Santa Catalina, CA for two days this month.  We checked in to the Holiday Inn Resort, asked the desk clerk for a room facing toward the ocean (even though it could not be seen).  The clerk said none was available.  He assigned us a room over the swimming pool.  The only problem with the room (403) is that the shower was extremely slow to drain.  I did not like standing in almost ankle deep water while showering.  When we made our reservations, the website said the hotel had both a restaurant and bar which we appreciated since my wife is unable to walk long distances.  After checking in, we were advised that the restaurant and bar were closed on Tuesday and Wednesday, the nights of our stay.  This should have been disclosed on its website.  As it was we had to take the hotel shuttle to/from downtown Avalon and then "walk" to a restaurant.  If we had known, we would have stayed in Avalon proper.  Also, the desk clerk telling us nothing was available on the top floor toward the ocean/Avalon was a ridiculous statement.  The hotel was almost deserted during our stay.  I asked the desk clerk one evening if we could get some coffee packets and he said he would sent them up when housekeeping gets back from "break."  I came back about 45 minutes later and asked about the coffee and the clerk said housekeeping still on break.  We waited over one hour and nothing.  I found a maintenance person and asked him if he could assist and he said yes.  He went straight to the housekeeping room and handed me several coffeee cups.  The housekeeper never made it to our room.  As a member of the Holiday Inn Priority Club, and a patron of Holiday Inn for years, this was the most unpleasant stay we have encountered at a Holiday Inn.  I would not stay at this hotel again but would stay in Avalon proper. As stated, the evening clerk was most unaccommodating.More</t>
   </si>
   <si>
-    <t>Estella M V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r471698610-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -859,7 +1235,43 @@
     <t>It was very nice.  A bit worn on the outside of the room hallways, but of course the weather has a lot to do with that.  The room was very, very clean, I loved the patio area.  My grandaughters loved the pool and jacuzzi.  The restaurant service was slow, only one waiter, but the food was great.  They substituted Orange Juice for Tampico which isn't even close to Orange Juice.  Overall, it was very nice.More</t>
   </si>
   <si>
-    <t>Mike M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r470948341-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>470948341</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>"Quiet &amp; Peaceful Gateway"</t>
+  </si>
+  <si>
+    <t>Try to check in early(1pm) but they had no rooms, however the receptionist got our number down and said she would call us as soon as a room was available. We got the call around 2:30pm, not bad, since check in was at 4pm.The hotel is about 15 minute walk from the shops, so its quiet &amp; relaxing.Our room was clean &amp; the beds were comfortable. The room had coffee &amp; teas plus a microwave &amp; medium size refrigerator.The pool &amp; spa were also clean and not crowded at all.Now the shuttle is a hit and miss sometimes they were in out taking guests to and from the hotel every 15 minutes and then there were times you had to wait almost an hour for the shuttle to come. TIP: walk down to the shops, but wait going back to the hotel, the uphill is brutal, if you are not physically fit!!There's also a 2 VONS supermarket so get your snacks and food there before you go to the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>ocasillas, Front Office Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded March 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2017</t>
+  </si>
+  <si>
+    <t>Try to check in early(1pm) but they had no rooms, however the receptionist got our number down and said she would call us as soon as a room was available. We got the call around 2:30pm, not bad, since check in was at 4pm.The hotel is about 15 minute walk from the shops, so its quiet &amp; relaxing.Our room was clean &amp; the beds were comfortable. The room had coffee &amp; teas plus a microwave &amp; medium size refrigerator.The pool &amp; spa were also clean and not crowded at all.Now the shuttle is a hit and miss sometimes they were in out taking guests to and from the hotel every 15 minutes and then there were times you had to wait almost an hour for the shuttle to come. TIP: walk down to the shops, but wait going back to the hotel, the uphill is brutal, if you are not physically fit!!There's also a 2 VONS supermarket so get your snacks and food there before you go to the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r470840167-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>470840167</t>
+  </si>
+  <si>
+    <t>LOVE THIS PLACE!</t>
+  </si>
+  <si>
+    <t>Recently visited Catalina with my wife and friends for a birthday. Guest service is remarkable and rooms are really nice. Could not have picked a better place to stay at. The Hotel Manager was friendly and helpful and the restaurant on site was exquisite.  Would definitely recommend this hotel!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Recently visited Catalina with my wife and friends for a birthday. Guest service is remarkable and rooms are really nice. Could not have picked a better place to stay at. The Hotel Manager was friendly and helpful and the restaurant on site was exquisite.  Would definitely recommend this hotel!!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r461039721-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
@@ -889,9 +1301,6 @@
     <t>rooms were clean and comfortable. Beds are comfortable. Staff was very nice and helpful. Shuttle driver was an awesome guy. We arrived very early and was checked in quickly. Rooms are spacious and also had a balcony. Will stay here next timeMore</t>
   </si>
   <si>
-    <t>Richard B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r459251045-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -916,9 +1325,6 @@
     <t>One of the most affordable and possibly picturesque hotels on Catalina Island is the former Catalina Canyon Resort. The pluses include having a place to stay that is away from the hustle/bustle of Avalon, it has one of the Islands only swimming pools, the grounds are attractive and the landscaping is outstanding. It has a decent restaurant but the hours are somewhat limited. I have given it a 3 star because of the limited transportation options between the Avalon waterfront and the hotel. The walk back is about a mile of uphill which is taxing especially after a night on the town. There is a hotel shuttle but the wait can be up to 45 minutes and sometimes there is not enough room for everyone and the service stops at 9 pm. There are also taxis but they are expensive.I would recommend that the hotel provide golf carts for guests at a reasonable rate.  More</t>
   </si>
   <si>
-    <t>Debbie W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r458293732-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -943,7 +1349,58 @@
     <t>Stayed at this facility years ago and what a difference. The hotel has gone through a total renovation. Affordable, clean, excellent service, good for that special occasion, business, pleasure or just a get away. Enjoy!!! More</t>
   </si>
   <si>
-    <t>Codee H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r456744430-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>456744430</t>
+  </si>
+  <si>
+    <t>02/02/2017</t>
+  </si>
+  <si>
+    <t>Pleasant quiet Island Retreat</t>
+  </si>
+  <si>
+    <t>We were pretty satisfied with our stay here. The staff was not the friendliest, and not rude either,  but they were very accommodating. The hotel is in a quiet area of the island and the shuttle service makes it very easy to travel back and forth. The room was clean and spacious and the bathrooms were nicely done. The on-site restaurant was also a nice convenience as we enjoyed breakfast there one morning. My only complain would be that there is only one restroom in the lobby, for one person, and it was clogged and a bit dirty during our stay. Other than that, the property itself is kept very clean throughout. I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2017</t>
+  </si>
+  <si>
+    <t>We were pretty satisfied with our stay here. The staff was not the friendliest, and not rude either,  but they were very accommodating. The hotel is in a quiet area of the island and the shuttle service makes it very easy to travel back and forth. The room was clean and spacious and the bathrooms were nicely done. The on-site restaurant was also a nice convenience as we enjoyed breakfast there one morning. My only complain would be that there is only one restroom in the lobby, for one person, and it was clogged and a bit dirty during our stay. Other than that, the property itself is kept very clean throughout. I would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r452795510-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>452795510</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Nice quiet Place</t>
+  </si>
+  <si>
+    <t>The place was better than I expected, maybe a bit expensive, but worth it. Last time I was in the island was about 32 years ago. I came back for my wedding anniversary and I was surprised to how nice the whole island was. If you just want to get away and relax this is a place that I will came back to. Not to mention the food was fantastic at Steve's Steakhouse for steaks of course and Bluewater Grill for seafood.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Nicoleh79, General Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded January 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2017</t>
+  </si>
+  <si>
+    <t>The place was better than I expected, maybe a bit expensive, but worth it. Last time I was in the island was about 32 years ago. I came back for my wedding anniversary and I was surprised to how nice the whole island was. If you just want to get away and relax this is a place that I will came back to. Not to mention the food was fantastic at Steve's Steakhouse for steaks of course and Bluewater Grill for seafood.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r450203659-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
@@ -967,9 +1424,6 @@
     <t>When we first arrived on the island, the shuttle to the hotel had just left. We called the hotel and they were quick and happy to send another.The hotel room was very clean and the bed was very comfortable. A microwave, keurig, and refrigerator were provided in the room. Only being a 10 minute walk from town, the secluded location offered a nice atmosphere for a weekend getaway.More</t>
   </si>
   <si>
-    <t>Graphmaster</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r448897418-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
   </si>
   <si>
@@ -986,9 +1440,6 @@
   </si>
   <si>
     <t>First, when our boat landed we were guaranteed - ahead of time - that a shuttle would pick us up at the dock.  No shuttle was there so we tried calling the hotel, unsuccessfully, for thirty minutes.  We finally called a cab.  We get to the hotel and are told the driver was there and that we weren't.  Later, when going to dinner, I asked the driver and he said they told him to take lunch then.  They said they didn't answer because their phones were down, which was the truth as we didn't have phones for over a day.   They did refund me $15 of $20 for the cab.  Our rooms were average, but they didn't have enough coffee or any creamer for two people on the rooms.  The night wasn't restful because of the people above us, three rooms complained and the hotel didn't do anything until about 10:30 at night when we complained for the third or fourth time.   Those people checked out and the staff was nice enough not to put anyone above us the next night.  The wifi was slow as molasses and unusable.  The restaurant was never open (remodeling) and the hot tub was out of service.   These are all things we should have been told or given a discount because of these issues.  I am giving it two stars because the staff was nice about half the time and the rooms that opened...First, when our boat landed we were guaranteed - ahead of time - that a shuttle would pick us up at the dock.  No shuttle was there so we tried calling the hotel, unsuccessfully, for thirty minutes.  We finally called a cab.  We get to the hotel and are told the driver was there and that we weren't.  Later, when going to dinner, I asked the driver and he said they told him to take lunch then.  They said they didn't answer because their phones were down, which was the truth as we didn't have phones for over a day.   They did refund me $15 of $20 for the cab.  Our rooms were average, but they didn't have enough coffee or any creamer for two people on the rooms.  The night wasn't restful because of the people above us, three rooms complained and the hotel didn't do anything until about 10:30 at night when we complained for the third or fourth time.   Those people checked out and the staff was nice enough not to put anyone above us the next night.  The wifi was slow as molasses and unusable.  The restaurant was never open (remodeling) and the hot tub was out of service.   These are all things we should have been told or given a discount because of these issues.  I am giving it two stars because the staff was nice about half the time and the rooms that opened to the courtyard were nice and easy to relax in.  We have determined this will not be a destination hotel in the future.More</t>
-  </si>
-  <si>
-    <t>Jim S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r448857887-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
@@ -1017,9 +1468,6 @@
 Let's start with the call I made to the hotel a couple of days before our travel asking how we get from the ferry docks to the hotel. They said no need to call - not to worry, the hotel shuttle knows when all the ferry's arrive and it will be there waiting for us... How nice! So, it happens to be raining on arrival day and here we are waiting 30 minutes for the shuttle. All calls to the hotel now go un-answered. We end up taking a taxi. Upon arrival to the hotel, we naturally complain to the staff...Wouldn't stay here again... Where to start?...For those that don't want to read this long novel I ended up typing while on my last day of vacation, I'll summarize with this: The hotel does have some nice things about it, like a comfortable bed and nice hot showers, but that's about it. I wouldn't call this place a "resort" though and it's definitely not up to the Holiday Inn standards I expected. The staff, for the most part was nice, but slow to respond and very defensive to complaints - as if they didn't believe me...No restaurantNo breakfastNo hot tubIce cold poolThin wallsHot (or cold) room (no thermostat)Spotty shuttle serviceTHE GOOD:Comfortable beds, somewhat clean room, nice hot showers, friendly staff. Sorry, that's about it. :-(THE BAD:Shuttle Service:Let's start with the call I made to the hotel a couple of days before our travel asking how we get from the ferry docks to the hotel. They said no need to call - not to worry, the hotel shuttle knows when all the ferry's arrive and it will be there waiting for us... How nice! So, it happens to be raining on arrival day and here we are waiting 30 minutes for the shuttle. All calls to the hotel now go un-answered. We end up taking a taxi. Upon arrival to the hotel, we naturally complain to the staff at the front desk and they say that their phones are down. We ask for our $20 taxi refund (which the taxi driver said we should do) and the front desk guy says that he radioed the driver and the driver said he WAS there waiting for us, so no refund! I called "BS". If we were there, and he was there, how could we miss each other? it's a SMALL dock! But, whatever. Anyway, we are early (it's noon) so we check in and leave our luggage, but we can't get the room until 4pm so we decide to have lunch while we wait... Can't have lunch here, the hotel restaurant is closed for the season! So, we have no other option but to go back to town. Guess what! the hotel shuttle is outside so we get in and ask the driver on the way down the hill why he wasn't there to pick us up when we got off the ferry and he said he had to take lunch at that time he was supposed to pick us up! So he WASN'T there! Now, someone's lying... They did end up refunding us only $15 (not all $20) after calling them out on it.So, we walk around town for a couple of hours, we have lunch and then go to the "shuttle" stop to wait for the shuttle again (which is supposed to be every 15 to 30 minutes). 20 minutes go by... 30 minutes... we try to call the hotel, but still no answer. so we walk back to the hotel. At least without luggage, walking was an option. In the end, over the course of the 3 days there, we probably went to town 5 times and only found the shuttle twice or three times. One time, it was full and said it would have to come back to pick us up. We didn't wait, we walked.The Beds:The mattresses are nice, but about a foot smaller than the bed frames so expect a lot of bruises on the shins by the end of the stay. And my side of the bed was about 6 inches from the wall. Made for interesting exits when tired in the mornings and had to crawl in from the foot of the bed. For me the beds were very comfortable (my wife begs to differ, but mattresses did seem firm and new). The Room Heater:The heater works GREAT! In fact, too good. There is no thermostat so it's either on or off. Even on low it would super heat up the room so we'd have to turn it to vent, but then the room would get super cold so we'd have to turn it back to heat every now and then. Not so bad and not so often... unless you're trying to sleep!The Shower:Beautiful glass showers, nice shower heads and endless hot water. Ok, I tried to take 5 minute showers, but I think they went a little longer. The bad part is that all that white grout is turning black with mildew. I'm not sure if they are not allowed to use bleach or if they just don't know that a little bleach will go a long way in keeping those showers looking beautiful.While on the subject of the bathroom, I should mention that the vanity lighting, although really cool with the lights around the mirror), is very bad. Not bright enough at all.The Amenities:This is a “resort”, right? No restaurant, not hot tub, ice cold pool, no breakfast, no... ok, so there are no amenities. Maybe a workout room. I read somewhere that they have a fitness facility but I didn't see or use it. They also have a ping pong table, but we couldn't find where they keep the ball and paddles.THE UGLY!The BANGING! The constant Banging!!!!So, (back to check-in – day one) we get back to the hotel and the rooms are ready! We asked for adjoining rooms or at least rooms close together. They gave us rooms close together on the first floor, but not adjoining rooms. We asked if either of the flip side rooms that -was- an adjoining room was available and they said yes and switched us. But why didn't they just put us in adjoining rooms to begin with? As soon as we get into our rooms we hear the banging and running and jumping from the kids in the room above us. Non-stop, they kids were having a blast, but the noise in our rooms was insane! It was like a freight train above us, constantly! We couldn't really tell what room the banging was coming from, it was all over, everywhere. We could here it the same in both rooms. Remember, this is around 4pm, check-in time... 2 hours later, the banging never stopped. We left the noise behind as we went to town for dinner (ended up walking both ways). We came back around 9pm and those kids (I'm assuming kids) were still fully energized and running all over. Our friends in the adjoining room went to complain twice (actually, once before dinner), but it never stopped. Finally, at 10:30, I went to complain and within 15 minutes, it FINALLY stopped. For this part, I know, the staff may not to be blamed, they probably did go and tell the rooms above to be quite and finally threatened them at 10:30. And I realize that they never know what kind of people they are putting in rooms. So this complaint is that the floors do seem to be very thin (thinner than the walls even!), so if you do stay here, opt not for the patio rooms, but for a TOP floor room if you want a good nights sleep.The next day we told the front desk that they HAVE to move us, but they said that the people above had checked out and they promised not to put anyone above us for the rest of our stay. It was blissful not to hear constant banging and running the next night.No Coffee!?Day two (checked in the day before), we are getting up early because we have an early morning dive! I go to make coffee and there ISN'T any! They have those cool Keurig coffee machines, but no coffee, no cream, or sugar. I figure they've gotta have coffee in the lobby then! So I go to the lobby with my coffee cup and ask where the coffee is and I'm told they -don't- have coffee in the lobby, but that it's in the room! I tell the guy that there was no coffee in the room and he gives me that “yah, right!” look. So I ask him, if there is no coffee in the room, and there is no coffee in the lobby, HOW AM I SUPPOSED TO GET MY COFFEE!!??!! Mind you,  I NEED MY COFFEE! I'm not sure if he thought I was lying at first, but by now he realized he'd better solve the problem QUICK and gave me two Keurig pods (or whatever you call them). No sugar, no cream, but that's ok, at least I got my coffee.MoreShow less</t>
   </si>
   <si>
-    <t>December 2016</t>
-  </si>
-  <si>
     <t>Wouldn't stay here again... Where to start?...
 For those that don't want to read this long novel I ended up typing while on my last day of vacation, I'll summarize with this: 
 The hotel does have some nice things about it, like a comfortable bed and nice hot showers, but that's about it. I wouldn't call this place a "resort" though and it's definitely not up to the Holiday Inn standards I expected. The staff, for the most part was nice, but slow to respond and very defensive to complaints - as if they didn't believe me...
@@ -1037,7 +1485,55 @@
 Let's start with the call I made to the hotel a couple of days before our travel asking how we get from the ferry docks to the hotel. They said no need to call - not to worry, the hotel shuttle knows when all the ferry's arrive and it will be there waiting for us... How nice! So, it happens to be raining on arrival day and here we are waiting 30 minutes for the shuttle. All calls to the hotel now go un-answered. We end up taking a taxi. Upon arrival to the hotel, we naturally complain to the staff...Wouldn't stay here again... Where to start?...For those that don't want to read this long novel I ended up typing while on my last day of vacation, I'll summarize with this: The hotel does have some nice things about it, like a comfortable bed and nice hot showers, but that's about it. I wouldn't call this place a "resort" though and it's definitely not up to the Holiday Inn standards I expected. The staff, for the most part was nice, but slow to respond and very defensive to complaints - as if they didn't believe me...No restaurantNo breakfastNo hot tubIce cold poolThin wallsHot (or cold) room (no thermostat)Spotty shuttle serviceTHE GOOD:Comfortable beds, somewhat clean room, nice hot showers, friendly staff. Sorry, that's about it. :-(THE BAD:Shuttle Service:Let's start with the call I made to the hotel a couple of days before our travel asking how we get from the ferry docks to the hotel. They said no need to call - not to worry, the hotel shuttle knows when all the ferry's arrive and it will be there waiting for us... How nice! So, it happens to be raining on arrival day and here we are waiting 30 minutes for the shuttle. All calls to the hotel now go un-answered. We end up taking a taxi. Upon arrival to the hotel, we naturally complain to the staff at the front desk and they say that their phones are down. We ask for our $20 taxi refund (which the taxi driver said we should do) and the front desk guy says that he radioed the driver and the driver said he WAS there waiting for us, so no refund! I called "BS". If we were there, and he was there, how could we miss each other? it's a SMALL dock! But, whatever. Anyway, we are early (it's noon) so we check in and leave our luggage, but we can't get the room until 4pm so we decide to have lunch while we wait... Can't have lunch here, the hotel restaurant is closed for the season! So, we have no other option but to go back to town. Guess what! the hotel shuttle is outside so we get in and ask the driver on the way down the hill why he wasn't there to pick us up when we got off the ferry and he said he had to take lunch at that time he was supposed to pick us up! So he WASN'T there! Now, someone's lying... They did end up refunding us only $15 (not all $20) after calling them out on it.So, we walk around town for a couple of hours, we have lunch and then go to the "shuttle" stop to wait for the shuttle again (which is supposed to be every 15 to 30 minutes). 20 minutes go by... 30 minutes... we try to call the hotel, but still no answer. so we walk back to the hotel. At least without luggage, walking was an option. In the end, over the course of the 3 days there, we probably went to town 5 times and only found the shuttle twice or three times. One time, it was full and said it would have to come back to pick us up. We didn't wait, we walked.The Beds:The mattresses are nice, but about a foot smaller than the bed frames so expect a lot of bruises on the shins by the end of the stay. And my side of the bed was about 6 inches from the wall. Made for interesting exits when tired in the mornings and had to crawl in from the foot of the bed. For me the beds were very comfortable (my wife begs to differ, but mattresses did seem firm and new). The Room Heater:The heater works GREAT! In fact, too good. There is no thermostat so it's either on or off. Even on low it would super heat up the room so we'd have to turn it to vent, but then the room would get super cold so we'd have to turn it back to heat every now and then. Not so bad and not so often... unless you're trying to sleep!The Shower:Beautiful glass showers, nice shower heads and endless hot water. Ok, I tried to take 5 minute showers, but I think they went a little longer. The bad part is that all that white grout is turning black with mildew. I'm not sure if they are not allowed to use bleach or if they just don't know that a little bleach will go a long way in keeping those showers looking beautiful.While on the subject of the bathroom, I should mention that the vanity lighting, although really cool with the lights around the mirror), is very bad. Not bright enough at all.The Amenities:This is a “resort”, right? No restaurant, not hot tub, ice cold pool, no breakfast, no... ok, so there are no amenities. Maybe a workout room. I read somewhere that they have a fitness facility but I didn't see or use it. They also have a ping pong table, but we couldn't find where they keep the ball and paddles.THE UGLY!The BANGING! The constant Banging!!!!So, (back to check-in – day one) we get back to the hotel and the rooms are ready! We asked for adjoining rooms or at least rooms close together. They gave us rooms close together on the first floor, but not adjoining rooms. We asked if either of the flip side rooms that -was- an adjoining room was available and they said yes and switched us. But why didn't they just put us in adjoining rooms to begin with? As soon as we get into our rooms we hear the banging and running and jumping from the kids in the room above us. Non-stop, they kids were having a blast, but the noise in our rooms was insane! It was like a freight train above us, constantly! We couldn't really tell what room the banging was coming from, it was all over, everywhere. We could here it the same in both rooms. Remember, this is around 4pm, check-in time... 2 hours later, the banging never stopped. We left the noise behind as we went to town for dinner (ended up walking both ways). We came back around 9pm and those kids (I'm assuming kids) were still fully energized and running all over. Our friends in the adjoining room went to complain twice (actually, once before dinner), but it never stopped. Finally, at 10:30, I went to complain and within 15 minutes, it FINALLY stopped. For this part, I know, the staff may not to be blamed, they probably did go and tell the rooms above to be quite and finally threatened them at 10:30. And I realize that they never know what kind of people they are putting in rooms. So this complaint is that the floors do seem to be very thin (thinner than the walls even!), so if you do stay here, opt not for the patio rooms, but for a TOP floor room if you want a good nights sleep.The next day we told the front desk that they HAVE to move us, but they said that the people above had checked out and they promised not to put anyone above us for the rest of our stay. It was blissful not to hear constant banging and running the next night.No Coffee!?Day two (checked in the day before), we are getting up early because we have an early morning dive! I go to make coffee and there ISN'T any! They have those cool Keurig coffee machines, but no coffee, no cream, or sugar. I figure they've gotta have coffee in the lobby then! So I go to the lobby with my coffee cup and ask where the coffee is and I'm told they -don't- have coffee in the lobby, but that it's in the room! I tell the guy that there was no coffee in the room and he gives me that “yah, right!” look. So I ask him, if there is no coffee in the room, and there is no coffee in the lobby, HOW AM I SUPPOSED TO GET MY COFFEE!!??!! Mind you,  I NEED MY COFFEE! I'm not sure if he thought I was lying at first, but by now he realized he'd better solve the problem QUICK and gave me two Keurig pods (or whatever you call them). No sugar, no cream, but that's ok, at least I got my coffee.More</t>
   </si>
   <si>
-    <t>amfancy</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r446715152-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>446715152</t>
+  </si>
+  <si>
+    <t>12/26/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's the problem? Loving it. </t>
+  </si>
+  <si>
+    <t>We have been here one night of four so far, but we got the adjoining rooms we'd asked for, the beds are new and comfy, the bathroom spotless, and Reuben at the desk couldn't have been nicer. It's a perfect walk home after dinner, and not even so bad with luggage from the ferry. We see the car going back and forth to shuttle folks, but haven't needed or wanted to use it yet. I am leaving four stars for now, and will come revise if necessary. I suspect that, for the price, this should be a five-star review. MoreShow less</t>
+  </si>
+  <si>
+    <t>Nicoleh79, General Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded December 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2016</t>
+  </si>
+  <si>
+    <t>We have been here one night of four so far, but we got the adjoining rooms we'd asked for, the beds are new and comfy, the bathroom spotless, and Reuben at the desk couldn't have been nicer. It's a perfect walk home after dinner, and not even so bad with luggage from the ferry. We see the car going back and forth to shuttle folks, but haven't needed or wanted to use it yet. I am leaving four stars for now, and will come revise if necessary. I suspect that, for the price, this should be a five-star review. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r440214087-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
+  </si>
+  <si>
+    <t>440214087</t>
+  </si>
+  <si>
+    <t>11/26/2016</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>This was a horrible experience from check in (which took 45 minutes) to the Manager talking on the phone, with a friend in town, rather than hear concerns of a guest of the hotel (another 25 minutes then I left). The front desk help was either nonexistent  except Ruben who actually tried to help.  The refrigerator leaked, no maid service till we asked - then we were told that we shouldn't put out the door hanger (do not disturb)-which we did never did. I could write at least two pages on how bad it was, but you get the idea.  LOVED Catalina will return, but NOT HERE.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Nicoleh79, Manager at Holiday Inn Resort Catalina Island, responded to this reviewResponded December 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2016</t>
+  </si>
+  <si>
+    <t>This was a horrible experience from check in (which took 45 minutes) to the Manager talking on the phone, with a friend in town, rather than hear concerns of a guest of the hotel (another 25 minutes then I left). The front desk help was either nonexistent  except Ruben who actually tried to help.  The refrigerator leaked, no maid service till we asked - then we were told that we shouldn't put out the door hanger (do not disturb)-which we did never did. I could write at least two pages on how bad it was, but you get the idea.  LOVED Catalina will return, but NOT HERE.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29121-d78761-r438202132-Holiday_Inn_Resort_Catalina_Island-Avalon_Catalina_Island_California.html</t>
@@ -1569,44 +2065,44 @@
       <c r="A2" t="n">
         <v>19503</v>
       </c>
-      <c r="B2" t="n">
-        <v>193165</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -1617,39 +2113,35 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>19503</v>
       </c>
-      <c r="B3" t="n">
-        <v>193166</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>57</v>
       </c>
       <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
         <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
       </c>
       <c r="I3" t="s">
         <v>58</v>
@@ -1664,34 +2156,24 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
         <v>64</v>
@@ -1701,47 +2183,43 @@
       <c r="A4" t="n">
         <v>19503</v>
       </c>
-      <c r="B4" t="n">
-        <v>8300</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1753,201 +2231,175 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
         <v>72</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>73</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>19503</v>
       </c>
-      <c r="B5" t="n">
-        <v>193167</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
         <v>76</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>77</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>78</v>
-      </c>
-      <c r="K5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" t="s">
-        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4</v>
-      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>3</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>19503</v>
       </c>
-      <c r="B6" t="n">
-        <v>193168</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
         <v>87</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" t="s">
-        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>4</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>19503</v>
       </c>
-      <c r="B7" t="n">
-        <v>193169</v>
-      </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
       <c r="I7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" t="s">
-        <v>93</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
@@ -1958,67 +2410,65 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="X7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Y7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>19503</v>
       </c>
-      <c r="B8" t="n">
-        <v>20503</v>
-      </c>
-      <c r="C8" t="s">
-        <v>106</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
-      <c r="S8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>4</v>
@@ -2027,206 +2477,186 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="X8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="Y8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>19503</v>
       </c>
-      <c r="B9" t="n">
-        <v>193170</v>
-      </c>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>4</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="X9" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="Y9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>19503</v>
       </c>
-      <c r="B10" t="n">
-        <v>10808</v>
-      </c>
-      <c r="C10" t="s">
-        <v>126</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="O10" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3</v>
-      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>3</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="X10" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="Y10" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>19503</v>
       </c>
-      <c r="B11" t="n">
-        <v>12433</v>
-      </c>
-      <c r="C11" t="s">
-        <v>136</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="n">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
         <v>4</v>
       </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
@@ -2236,194 +2666,188 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="X11" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="Y11" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>19503</v>
       </c>
-      <c r="B12" t="n">
-        <v>193171</v>
-      </c>
-      <c r="C12" t="s">
-        <v>145</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="O12" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="X12" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="Y12" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>19503</v>
       </c>
-      <c r="B13" t="n">
-        <v>193172</v>
-      </c>
-      <c r="C13" t="s">
-        <v>155</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="O13" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
         <v>4</v>
       </c>
-      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="X13" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="Y13" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>19503</v>
       </c>
-      <c r="B14" t="n">
-        <v>64967</v>
-      </c>
-      <c r="C14" t="s">
-        <v>165</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2435,69 +2859,63 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="X14" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="Y14" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>19503</v>
       </c>
-      <c r="B15" t="n">
-        <v>193173</v>
-      </c>
-      <c r="C15" t="s">
-        <v>174</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
       <c r="I15" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" t="n">
         <v>4</v>
       </c>
-      <c r="N15" t="s">
-        <v>151</v>
-      </c>
-      <c r="O15" t="s">
-        <v>93</v>
-      </c>
-      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>3</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>5</v>
@@ -2506,750 +2924,694 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="X15" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="Y15" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>19503</v>
       </c>
-      <c r="B16" t="n">
-        <v>29546</v>
-      </c>
-      <c r="C16" t="s">
-        <v>180</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
       <c r="I16" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="J16" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>4</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="X16" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="Y16" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>19503</v>
       </c>
-      <c r="B17" t="n">
-        <v>66894</v>
-      </c>
-      <c r="C17" t="s">
-        <v>189</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
         <v>47</v>
       </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
       <c r="I17" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="J17" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="K17" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="X17" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="Y17" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>19503</v>
       </c>
-      <c r="B18" t="n">
-        <v>193174</v>
-      </c>
-      <c r="C18" t="s">
-        <v>198</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
         <v>47</v>
       </c>
-      <c r="H18" t="s">
-        <v>48</v>
-      </c>
       <c r="I18" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="J18" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="K18" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>170</v>
+      </c>
+      <c r="O18" t="s">
+        <v>105</v>
+      </c>
+      <c r="P18" t="n">
         <v>5</v>
       </c>
-      <c r="N18" t="s">
-        <v>204</v>
-      </c>
-      <c r="O18" t="s">
-        <v>82</v>
-      </c>
-      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="X18" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="Y18" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>19503</v>
       </c>
-      <c r="B19" t="n">
-        <v>193175</v>
-      </c>
-      <c r="C19" t="s">
-        <v>208</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
         <v>47</v>
       </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
       <c r="I19" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="J19" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="X19" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="Y19" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19503</v>
       </c>
-      <c r="B20" t="n">
-        <v>193176</v>
-      </c>
-      <c r="C20" t="s">
-        <v>217</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
         <v>47</v>
       </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
       <c r="I20" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="J20" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="K20" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
         <v>3</v>
       </c>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="X20" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="Y20" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>19503</v>
       </c>
-      <c r="B21" t="n">
-        <v>193177</v>
-      </c>
-      <c r="C21" t="s">
-        <v>226</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
         <v>47</v>
       </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
       <c r="I21" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="J21" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="O21" t="s">
-        <v>82</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>2</v>
-      </c>
+      <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>2</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="X21" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="Y21" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>19503</v>
       </c>
-      <c r="B22" t="n">
-        <v>55667</v>
-      </c>
-      <c r="C22" t="s">
-        <v>236</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
         <v>47</v>
       </c>
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
       <c r="I22" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="J22" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="O22" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="X22" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="Y22" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>19503</v>
       </c>
-      <c r="B23" t="n">
-        <v>20087</v>
-      </c>
-      <c r="C23" t="s">
-        <v>245</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
         <v>47</v>
       </c>
-      <c r="H23" t="s">
-        <v>48</v>
-      </c>
       <c r="I23" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="J23" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="K23" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="O23" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="X23" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="Y23" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>19503</v>
       </c>
-      <c r="B24" t="n">
-        <v>97759</v>
-      </c>
-      <c r="C24" t="s">
-        <v>255</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
         <v>47</v>
       </c>
-      <c r="H24" t="s">
-        <v>48</v>
-      </c>
       <c r="I24" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="J24" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="K24" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="O24" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="X24" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="Y24" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>19503</v>
       </c>
-      <c r="B25" t="n">
-        <v>193178</v>
-      </c>
-      <c r="C25" t="s">
-        <v>264</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
         <v>47</v>
       </c>
-      <c r="H25" t="s">
-        <v>48</v>
-      </c>
       <c r="I25" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="J25" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="K25" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="O25" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="X25" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="Y25" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>19503</v>
       </c>
-      <c r="B26" t="n">
-        <v>3220</v>
-      </c>
-      <c r="C26" t="s">
-        <v>273</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
         <v>47</v>
       </c>
-      <c r="H26" t="s">
-        <v>48</v>
-      </c>
       <c r="I26" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="J26" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="K26" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="L26" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3261,57 +3623,57 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="X26" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="Y26" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>19503</v>
       </c>
-      <c r="B27" t="n">
-        <v>1369</v>
-      </c>
-      <c r="C27" t="s">
-        <v>283</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
         <v>47</v>
       </c>
-      <c r="H27" t="s">
-        <v>48</v>
-      </c>
       <c r="I27" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="J27" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="K27" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="L27" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
-      </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>230</v>
+      </c>
+      <c r="O27" t="s">
+        <v>70</v>
+      </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
@@ -3322,125 +3684,123 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="X27" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="Y27" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>19503</v>
       </c>
-      <c r="B28" t="n">
-        <v>9540</v>
-      </c>
-      <c r="C28" t="s">
-        <v>292</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
         <v>47</v>
       </c>
-      <c r="H28" t="s">
-        <v>48</v>
-      </c>
       <c r="I28" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="J28" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="K28" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="O28" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="X28" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="Y28" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>19503</v>
       </c>
-      <c r="B29" t="n">
-        <v>193179</v>
-      </c>
-      <c r="C29" t="s">
-        <v>301</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
         <v>47</v>
       </c>
-      <c r="H29" t="s">
-        <v>48</v>
-      </c>
       <c r="I29" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="J29" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="K29" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>307</v>
+        <v>230</v>
       </c>
       <c r="O29" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3448,7 +3808,7 @@
         <v>4</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
@@ -3458,60 +3818,56 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="X29" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="Y29" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>19503</v>
       </c>
-      <c r="B30" t="n">
-        <v>193180</v>
-      </c>
-      <c r="C30" t="s">
-        <v>309</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
         <v>47</v>
       </c>
-      <c r="H30" t="s">
-        <v>48</v>
-      </c>
       <c r="I30" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="J30" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="K30" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>307</v>
+        <v>230</v>
       </c>
       <c r="O30" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3522,148 +3878,1737 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>283</v>
+      </c>
+      <c r="X30" t="s">
+        <v>284</v>
+      </c>
       <c r="Y30" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>19503</v>
       </c>
-      <c r="B31" t="n">
-        <v>2907</v>
-      </c>
-      <c r="C31" t="s">
-        <v>316</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
         <v>47</v>
       </c>
-      <c r="H31" t="s">
-        <v>48</v>
-      </c>
       <c r="I31" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="J31" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="K31" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="L31" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>321</v>
+        <v>230</v>
       </c>
       <c r="O31" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>3</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>3</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>291</v>
+      </c>
+      <c r="X31" t="s">
+        <v>292</v>
+      </c>
       <c r="Y31" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>19503</v>
       </c>
-      <c r="B32" t="n">
-        <v>193181</v>
-      </c>
-      <c r="C32" t="s">
-        <v>323</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
         <v>47</v>
       </c>
-      <c r="H32" t="s">
-        <v>48</v>
-      </c>
       <c r="I32" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="J32" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="K32" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="L32" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>329</v>
+        <v>230</v>
       </c>
       <c r="O32" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
+        <v>299</v>
+      </c>
+      <c r="X32" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>302</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>303</v>
+      </c>
+      <c r="J33" t="s">
+        <v>304</v>
+      </c>
+      <c r="K33" t="s">
+        <v>305</v>
+      </c>
+      <c r="L33" t="s">
+        <v>306</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>307</v>
+      </c>
+      <c r="O33" t="s">
+        <v>70</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>308</v>
+      </c>
+      <c r="X33" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>311</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>312</v>
+      </c>
+      <c r="J34" t="s">
+        <v>313</v>
+      </c>
+      <c r="K34" t="s">
+        <v>314</v>
+      </c>
+      <c r="L34" t="s">
+        <v>315</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>179</v>
+      </c>
+      <c r="O34" t="s">
+        <v>105</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>316</v>
+      </c>
+      <c r="X34" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>319</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>320</v>
+      </c>
+      <c r="J35" t="s">
+        <v>321</v>
+      </c>
+      <c r="K35" t="s">
+        <v>322</v>
+      </c>
+      <c r="L35" t="s">
+        <v>323</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>179</v>
+      </c>
+      <c r="O35" t="s">
+        <v>70</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>324</v>
+      </c>
+      <c r="X35" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>327</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>328</v>
+      </c>
+      <c r="J36" t="s">
+        <v>329</v>
+      </c>
+      <c r="K36" t="s">
         <v>330</v>
       </c>
-      <c r="X32" t="s">
+      <c r="L36" t="s">
         <v>331</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
         <v>332</v>
+      </c>
+      <c r="O36" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>333</v>
+      </c>
+      <c r="X36" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>336</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>337</v>
+      </c>
+      <c r="J37" t="s">
+        <v>338</v>
+      </c>
+      <c r="K37" t="s">
+        <v>339</v>
+      </c>
+      <c r="L37" t="s">
+        <v>340</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>179</v>
+      </c>
+      <c r="O37" t="s">
+        <v>70</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>341</v>
+      </c>
+      <c r="X37" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>344</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>345</v>
+      </c>
+      <c r="J38" t="s">
+        <v>346</v>
+      </c>
+      <c r="K38" t="s">
+        <v>347</v>
+      </c>
+      <c r="L38" t="s">
+        <v>348</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>332</v>
+      </c>
+      <c r="O38" t="s">
+        <v>70</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>349</v>
+      </c>
+      <c r="X38" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>352</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>353</v>
+      </c>
+      <c r="J39" t="s">
+        <v>354</v>
+      </c>
+      <c r="K39" t="s">
+        <v>355</v>
+      </c>
+      <c r="L39" t="s">
+        <v>356</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>332</v>
+      </c>
+      <c r="O39" t="s">
+        <v>70</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>357</v>
+      </c>
+      <c r="X39" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>360</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>361</v>
+      </c>
+      <c r="J40" t="s">
+        <v>362</v>
+      </c>
+      <c r="K40" t="s">
+        <v>363</v>
+      </c>
+      <c r="L40" t="s">
+        <v>364</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>365</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>357</v>
+      </c>
+      <c r="X40" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>367</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>368</v>
+      </c>
+      <c r="J41" t="s">
+        <v>369</v>
+      </c>
+      <c r="K41" t="s">
+        <v>370</v>
+      </c>
+      <c r="L41" t="s">
+        <v>371</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>365</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>372</v>
+      </c>
+      <c r="X41" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>375</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>376</v>
+      </c>
+      <c r="J42" t="s">
+        <v>377</v>
+      </c>
+      <c r="K42" t="s">
+        <v>378</v>
+      </c>
+      <c r="L42" t="s">
+        <v>379</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>365</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>372</v>
+      </c>
+      <c r="X42" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>381</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>382</v>
+      </c>
+      <c r="J43" t="s">
+        <v>383</v>
+      </c>
+      <c r="K43" t="s">
+        <v>384</v>
+      </c>
+      <c r="L43" t="s">
+        <v>385</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>365</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>386</v>
+      </c>
+      <c r="X43" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>389</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>390</v>
+      </c>
+      <c r="J44" t="s">
+        <v>391</v>
+      </c>
+      <c r="K44" t="s">
+        <v>392</v>
+      </c>
+      <c r="L44" t="s">
+        <v>393</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>307</v>
+      </c>
+      <c r="O44" t="s">
+        <v>70</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>394</v>
+      </c>
+      <c r="X44" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>397</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>398</v>
+      </c>
+      <c r="J45" t="s">
+        <v>399</v>
+      </c>
+      <c r="K45" t="s">
+        <v>400</v>
+      </c>
+      <c r="L45" t="s">
+        <v>401</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>307</v>
+      </c>
+      <c r="O45" t="s">
+        <v>70</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>402</v>
+      </c>
+      <c r="X45" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>405</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>406</v>
+      </c>
+      <c r="J46" t="s">
+        <v>399</v>
+      </c>
+      <c r="K46" t="s">
+        <v>407</v>
+      </c>
+      <c r="L46" t="s">
+        <v>408</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>307</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>402</v>
+      </c>
+      <c r="X46" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>410</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>411</v>
+      </c>
+      <c r="J47" t="s">
+        <v>412</v>
+      </c>
+      <c r="K47" t="s">
+        <v>413</v>
+      </c>
+      <c r="L47" t="s">
+        <v>414</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>415</v>
+      </c>
+      <c r="O47" t="s">
+        <v>105</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>416</v>
+      </c>
+      <c r="X47" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>419</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>420</v>
+      </c>
+      <c r="J48" t="s">
+        <v>421</v>
+      </c>
+      <c r="K48" t="s">
+        <v>422</v>
+      </c>
+      <c r="L48" t="s">
+        <v>423</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>424</v>
+      </c>
+      <c r="X48" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>427</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>428</v>
+      </c>
+      <c r="J49" t="s">
+        <v>429</v>
+      </c>
+      <c r="K49" t="s">
+        <v>430</v>
+      </c>
+      <c r="L49" t="s">
+        <v>431</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>415</v>
+      </c>
+      <c r="O49" t="s">
+        <v>112</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>432</v>
+      </c>
+      <c r="X49" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>435</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>436</v>
+      </c>
+      <c r="J50" t="s">
+        <v>437</v>
+      </c>
+      <c r="K50" t="s">
+        <v>438</v>
+      </c>
+      <c r="L50" t="s">
+        <v>439</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>440</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>441</v>
+      </c>
+      <c r="X50" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>444</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>445</v>
+      </c>
+      <c r="J51" t="s">
+        <v>446</v>
+      </c>
+      <c r="K51" t="s">
+        <v>447</v>
+      </c>
+      <c r="L51" t="s">
+        <v>448</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>449</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>450</v>
+      </c>
+      <c r="X51" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>453</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>454</v>
+      </c>
+      <c r="J52" t="s">
+        <v>455</v>
+      </c>
+      <c r="K52" t="s">
+        <v>456</v>
+      </c>
+      <c r="L52" t="s">
+        <v>457</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>458</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>432</v>
+      </c>
+      <c r="X52" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>460</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>461</v>
+      </c>
+      <c r="J53" t="s">
+        <v>462</v>
+      </c>
+      <c r="K53" t="s">
+        <v>463</v>
+      </c>
+      <c r="L53" t="s">
+        <v>464</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>458</v>
+      </c>
+      <c r="O53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>466</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>467</v>
+      </c>
+      <c r="J54" t="s">
+        <v>462</v>
+      </c>
+      <c r="K54" t="s">
+        <v>468</v>
+      </c>
+      <c r="L54" t="s">
+        <v>469</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>449</v>
+      </c>
+      <c r="O54" t="s">
+        <v>70</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>471</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>472</v>
+      </c>
+      <c r="J55" t="s">
+        <v>473</v>
+      </c>
+      <c r="K55" t="s">
+        <v>474</v>
+      </c>
+      <c r="L55" t="s">
+        <v>475</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>449</v>
+      </c>
+      <c r="O55" t="s">
+        <v>70</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>476</v>
+      </c>
+      <c r="X55" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>479</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>480</v>
+      </c>
+      <c r="J56" t="s">
+        <v>481</v>
+      </c>
+      <c r="K56" t="s">
+        <v>482</v>
+      </c>
+      <c r="L56" t="s">
+        <v>483</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>484</v>
+      </c>
+      <c r="O56" t="s">
+        <v>70</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>485</v>
+      </c>
+      <c r="X56" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>19503</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>488</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>489</v>
+      </c>
+      <c r="J57" t="s">
+        <v>490</v>
+      </c>
+      <c r="K57" t="s">
+        <v>491</v>
+      </c>
+      <c r="L57" t="s">
+        <v>492</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>493</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>494</v>
+      </c>
+      <c r="X57" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
